--- a/rtw_excel_report/report_unit_price_quotation/unit_price_quotation.xlsx
+++ b/rtw_excel_report/report_unit_price_quotation/unit_price_quotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_unit_price_quotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9461E9B0-8961-4436-87E4-2DE5FDCABB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA264845-9636-48FE-811B-5F86BEFE8799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="990" windowWidth="17535" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単価御見積書" sheetId="1" r:id="rId1"/>
@@ -372,14 +372,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,7 +679,7 @@
   <dimension ref="A1:AA1296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -967,9 +967,9 @@
       <c r="D10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="9"/>
       <c r="I10" s="30"/>
       <c r="J10" s="2"/>
@@ -996,9 +996,9 @@
       <c r="B11" s="14"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="9"/>
       <c r="I11" s="30"/>
       <c r="J11" s="2"/>
@@ -1025,9 +1025,9 @@
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="15"/>
       <c r="I12" s="30"/>
       <c r="J12" s="2"/>
@@ -1054,9 +1054,9 @@
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="16"/>
       <c r="I13" s="29"/>
       <c r="J13" s="2"/>
@@ -1108,16 +1108,16 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="48" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="45" t="s">

--- a/rtw_excel_report/report_unit_price_quotation/unit_price_quotation.xlsx
+++ b/rtw_excel_report/report_unit_price_quotation/unit_price_quotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_unit_price_quotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904CF8A5-0C19-4B22-BC3E-D68698B1CCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E623F3E5-701F-4EBB-9F6D-792F3B02AD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単価御見積書" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>単価御見積書</t>
   </si>
@@ -28,13 +28,7 @@
     <t>納品希望⽇：</t>
   </si>
   <si>
-    <t>株式会社リッツウェル</t>
-  </si>
-  <si>
     <t>製作⽇数：</t>
-  </si>
-  <si>
-    <t>大阪オフィス</t>
   </si>
   <si>
     <t>平素より格別のお引き⽴てを賜り暑く御礼申し上げます。</t>
@@ -43,28 +37,16 @@
     <t>発注期限：</t>
   </si>
   <si>
-    <t>〒542-0081</t>
-  </si>
-  <si>
     <t>御依頼の件、書きの通りお見積り致しました。</t>
   </si>
   <si>
     <t>納品場所：</t>
   </si>
   <si>
-    <t>大阪市中央区南船場4-7-6 B1F</t>
-  </si>
-  <si>
     <t>ご査収の程宜しくお願い致します。</t>
   </si>
   <si>
     <t>⽀払条件：</t>
-  </si>
-  <si>
-    <t>tel.06-4963-8777</t>
-  </si>
-  <si>
-    <t>fax.06-4963-8778</t>
   </si>
   <si>
     <t xml:space="preserve">件名 </t>
@@ -433,23 +415,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -470,6 +435,23 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,7 +747,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -793,8 +775,8 @@
       <c r="E1" s="15"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
       <c r="J1" s="13"/>
       <c r="K1" s="16"/>
       <c r="L1" s="11"/>
@@ -847,9 +829,7 @@
       <c r="E3" s="27"/>
       <c r="F3" s="19"/>
       <c r="G3" s="42"/>
-      <c r="H3" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="H3" s="45"/>
       <c r="I3" s="16"/>
       <c r="J3" s="13"/>
       <c r="K3" s="16"/>
@@ -872,14 +852,12 @@
       <c r="B4" s="19"/>
       <c r="C4" s="42"/>
       <c r="D4" s="40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="19"/>
       <c r="G4" s="42"/>
-      <c r="H4" s="46" t="s">
-        <v>4</v>
-      </c>
+      <c r="H4" s="46"/>
       <c r="I4" s="24"/>
       <c r="J4" s="13"/>
       <c r="K4" s="16"/>
@@ -899,19 +877,17 @@
     </row>
     <row r="5" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
       <c r="D5" s="40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="19"/>
       <c r="G5" s="42"/>
-      <c r="H5" s="23" t="s">
-        <v>7</v>
-      </c>
+      <c r="H5" s="23"/>
       <c r="I5" s="16"/>
       <c r="J5" s="13"/>
       <c r="K5" s="16"/>
@@ -931,19 +907,17 @@
     </row>
     <row r="6" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
       <c r="D6" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="18"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="22" t="s">
-        <v>10</v>
-      </c>
+      <c r="H6" s="22"/>
       <c r="I6" s="25"/>
       <c r="J6" s="13"/>
       <c r="K6" s="16"/>
@@ -963,19 +937,17 @@
     </row>
     <row r="7" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="19"/>
       <c r="D7" s="40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="19"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="H7" s="22"/>
       <c r="I7" s="24"/>
       <c r="J7" s="13"/>
       <c r="K7" s="16"/>
@@ -1001,9 +973,7 @@
       <c r="E8" s="41"/>
       <c r="F8" s="44"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="H8" s="22"/>
       <c r="I8" s="24"/>
       <c r="J8" s="13"/>
       <c r="K8" s="16"/>
@@ -1023,12 +993,12 @@
     </row>
     <row r="9" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="42"/>
       <c r="D9" s="40" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
@@ -1056,11 +1026,11 @@
       <c r="B10" s="43"/>
       <c r="C10" s="19"/>
       <c r="D10" s="40" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
       <c r="H10" s="26"/>
       <c r="I10" s="17"/>
       <c r="J10" s="13"/>
@@ -1087,9 +1057,9 @@
       <c r="B11" s="43"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="26"/>
       <c r="I11" s="17"/>
       <c r="J11" s="13"/>
@@ -1116,9 +1086,9 @@
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="27"/>
       <c r="I12" s="17"/>
       <c r="J12" s="13"/>
@@ -1145,9 +1115,9 @@
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
       <c r="H13" s="28"/>
       <c r="I13" s="15"/>
       <c r="J13" s="13"/>
@@ -1199,32 +1169,32 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="H15" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="I15" s="61" t="s">
         <v>20</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>26</v>
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
@@ -1246,15 +1216,15 @@
       <c r="AA15" s="5"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
       <c r="J16" s="30"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
@@ -1276,9 +1246,9 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="65"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
       <c r="G17" s="33"/>
@@ -1305,9 +1275,9 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="66"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="33"/>
@@ -1334,9 +1304,9 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="66"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="33"/>
@@ -1363,9 +1333,9 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="66"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="33"/>
@@ -1392,9 +1362,9 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="66"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="33"/>
@@ -1421,9 +1391,9 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="66"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="33"/>
@@ -1450,9 +1420,9 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="66"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="33"/>
@@ -1479,9 +1449,9 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="47"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="66"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="33"/>
@@ -1508,9 +1478,9 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="47"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="65"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
       <c r="G25" s="33"/>
@@ -1537,9 +1507,9 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="66"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="33"/>
@@ -1566,9 +1536,9 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="66"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="33"/>
@@ -1595,9 +1565,9 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="66"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="33"/>
@@ -1624,9 +1594,9 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="47"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="66"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="33"/>
@@ -1653,9 +1623,9 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="47"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="66"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="33"/>
@@ -1682,9 +1652,9 @@
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="47"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="66"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
       <c r="G31" s="33"/>
@@ -1711,9 +1681,9 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="66"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
       <c r="G32" s="33"/>
@@ -1740,9 +1710,9 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="65"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
       <c r="G33" s="33"/>
@@ -1769,9 +1739,9 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="66"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
       <c r="G34" s="33"/>
@@ -1798,9 +1768,9 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="66"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="34"/>
       <c r="F35" s="34"/>
       <c r="G35" s="33"/>
@@ -1827,9 +1797,9 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="48"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="66"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="34"/>
       <c r="F36" s="34"/>
       <c r="G36" s="33"/>
@@ -1856,9 +1826,9 @@
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="66"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
       <c r="G37" s="33"/>
@@ -1885,9 +1855,9 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="66"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
       <c r="G38" s="33"/>
@@ -1914,9 +1884,9 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="47"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="66"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="34"/>
       <c r="F39" s="34"/>
       <c r="G39" s="33"/>
@@ -1943,9 +1913,9 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="47"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="66"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="34"/>
       <c r="F40" s="34"/>
       <c r="G40" s="33"/>
@@ -1972,9 +1942,9 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="47"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="65"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="34"/>
       <c r="F41" s="34"/>
       <c r="G41" s="33"/>
@@ -2001,9 +1971,9 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="47"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="66"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
       <c r="G42" s="33"/>
@@ -2030,9 +2000,9 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="47"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="66"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
       <c r="G43" s="33"/>
@@ -2059,9 +2029,9 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="47"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="66"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="33"/>
@@ -2088,9 +2058,9 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="47"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="66"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
       <c r="G45" s="33"/>
@@ -2117,9 +2087,9 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="47"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="66"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
       <c r="G46" s="33"/>
@@ -2146,9 +2116,9 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="47"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="66"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
       <c r="G47" s="33"/>
@@ -2175,9 +2145,9 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="47"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="66"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
       <c r="G48" s="33"/>
@@ -2204,9 +2174,9 @@
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="47"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="65"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="58"/>
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
       <c r="G49" s="33"/>
@@ -2233,9 +2203,9 @@
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="47"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="66"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="34"/>
       <c r="F50" s="34"/>
       <c r="G50" s="33"/>
@@ -2262,9 +2232,9 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="47"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="66"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="59"/>
       <c r="E51" s="34"/>
       <c r="F51" s="34"/>
       <c r="G51" s="33"/>
@@ -2291,9 +2261,9 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="47"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="66"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
       <c r="G52" s="33"/>
@@ -2320,9 +2290,9 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="47"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="66"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="34"/>
       <c r="F53" s="34"/>
       <c r="G53" s="33"/>
@@ -2349,9 +2319,9 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="47"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="66"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="34"/>
       <c r="F54" s="34"/>
       <c r="G54" s="33"/>
@@ -2378,9 +2348,9 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="47"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="66"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="59"/>
       <c r="E55" s="34"/>
       <c r="F55" s="34"/>
       <c r="G55" s="33"/>
@@ -2407,9 +2377,9 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="47"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="66"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="59"/>
       <c r="E56" s="34"/>
       <c r="F56" s="34"/>
       <c r="G56" s="33"/>
@@ -2436,9 +2406,9 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="47"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="65"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="58"/>
       <c r="E57" s="34"/>
       <c r="F57" s="34"/>
       <c r="G57" s="33"/>
@@ -2465,9 +2435,9 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="47"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="66"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
       <c r="G58" s="33"/>
@@ -2494,9 +2464,9 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="47"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="66"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="34"/>
       <c r="F59" s="34"/>
       <c r="G59" s="33"/>
@@ -2523,9 +2493,9 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="47"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="66"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="34"/>
       <c r="F60" s="34"/>
       <c r="G60" s="33"/>
@@ -2552,9 +2522,9 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="47"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="66"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="34"/>
       <c r="F61" s="34"/>
       <c r="G61" s="33"/>
@@ -2581,9 +2551,9 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="48"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="66"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="34"/>
       <c r="F62" s="34"/>
       <c r="G62" s="33"/>
@@ -2610,9 +2580,9 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="48"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="66"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="59"/>
       <c r="E63" s="34"/>
       <c r="F63" s="34"/>
       <c r="G63" s="33"/>
@@ -2639,9 +2609,9 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="48"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="66"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="59"/>
       <c r="E64" s="34"/>
       <c r="F64" s="34"/>
       <c r="G64" s="33"/>
@@ -2668,9 +2638,9 @@
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="48"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="65"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="58"/>
       <c r="E65" s="34"/>
       <c r="F65" s="34"/>
       <c r="G65" s="33"/>
@@ -2697,9 +2667,9 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="48"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="66"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="59"/>
       <c r="E66" s="34"/>
       <c r="F66" s="34"/>
       <c r="G66" s="33"/>
@@ -2726,9 +2696,9 @@
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="48"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="66"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="59"/>
       <c r="E67" s="34"/>
       <c r="F67" s="34"/>
       <c r="G67" s="33"/>
@@ -2755,9 +2725,9 @@
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="48"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="66"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="59"/>
       <c r="E68" s="34"/>
       <c r="F68" s="34"/>
       <c r="G68" s="33"/>
@@ -2784,9 +2754,9 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="48"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="66"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="59"/>
       <c r="E69" s="34"/>
       <c r="F69" s="34"/>
       <c r="G69" s="33"/>
@@ -2813,9 +2783,9 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="48"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="66"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="59"/>
       <c r="E70" s="34"/>
       <c r="F70" s="34"/>
       <c r="G70" s="33"/>
@@ -2842,9 +2812,9 @@
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="48"/>
-      <c r="B71" s="62"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="66"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="59"/>
       <c r="E71" s="34"/>
       <c r="F71" s="34"/>
       <c r="G71" s="33"/>
@@ -2871,9 +2841,9 @@
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="48"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="66"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="34"/>
       <c r="F72" s="34"/>
       <c r="G72" s="33"/>
@@ -2900,9 +2870,9 @@
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="48"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="65"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="58"/>
       <c r="E73" s="34"/>
       <c r="F73" s="34"/>
       <c r="G73" s="33"/>
@@ -2929,9 +2899,9 @@
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="48"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="66"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="59"/>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
       <c r="G74" s="33"/>
@@ -2958,9 +2928,9 @@
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="48"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="66"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="59"/>
       <c r="E75" s="34"/>
       <c r="F75" s="34"/>
       <c r="G75" s="33"/>
@@ -2987,9 +2957,9 @@
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="48"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="66"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="59"/>
       <c r="E76" s="34"/>
       <c r="F76" s="34"/>
       <c r="G76" s="33"/>
@@ -3016,9 +2986,9 @@
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="48"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="66"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="59"/>
       <c r="E77" s="34"/>
       <c r="F77" s="34"/>
       <c r="G77" s="33"/>
@@ -3045,9 +3015,9 @@
     </row>
     <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="48"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="66"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="59"/>
       <c r="E78" s="34"/>
       <c r="F78" s="34"/>
       <c r="G78" s="33"/>
@@ -3074,9 +3044,9 @@
     </row>
     <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="48"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="66"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="59"/>
       <c r="E79" s="34"/>
       <c r="F79" s="34"/>
       <c r="G79" s="33"/>
@@ -3103,9 +3073,9 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="48"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="66"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="59"/>
       <c r="E80" s="34"/>
       <c r="F80" s="34"/>
       <c r="G80" s="33"/>
@@ -3132,9 +3102,9 @@
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="48"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="65"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="58"/>
       <c r="E81" s="34"/>
       <c r="F81" s="34"/>
       <c r="G81" s="33"/>
@@ -3161,9 +3131,9 @@
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="48"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="66"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="59"/>
       <c r="E82" s="34"/>
       <c r="F82" s="34"/>
       <c r="G82" s="33"/>
@@ -3190,9 +3160,9 @@
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="48"/>
-      <c r="B83" s="62"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="66"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="59"/>
       <c r="E83" s="34"/>
       <c r="F83" s="34"/>
       <c r="G83" s="33"/>
@@ -3219,9 +3189,9 @@
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="48"/>
-      <c r="B84" s="62"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="66"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="59"/>
       <c r="E84" s="34"/>
       <c r="F84" s="34"/>
       <c r="G84" s="33"/>
@@ -3248,9 +3218,9 @@
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="48"/>
-      <c r="B85" s="62"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="66"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="59"/>
       <c r="E85" s="34"/>
       <c r="F85" s="34"/>
       <c r="G85" s="33"/>
@@ -3277,9 +3247,9 @@
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="48"/>
-      <c r="B86" s="62"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="66"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="59"/>
       <c r="E86" s="34"/>
       <c r="F86" s="34"/>
       <c r="G86" s="33"/>
@@ -3306,9 +3276,9 @@
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="48"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="66"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="59"/>
       <c r="E87" s="34"/>
       <c r="F87" s="34"/>
       <c r="G87" s="33"/>
@@ -3335,9 +3305,9 @@
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="48"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="66"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="59"/>
       <c r="E88" s="34"/>
       <c r="F88" s="34"/>
       <c r="G88" s="33"/>
@@ -3364,9 +3334,9 @@
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="48"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="65"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="58"/>
       <c r="E89" s="34"/>
       <c r="F89" s="34"/>
       <c r="G89" s="33"/>
@@ -3393,9 +3363,9 @@
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="48"/>
-      <c r="B90" s="62"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="66"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="59"/>
       <c r="E90" s="34"/>
       <c r="F90" s="34"/>
       <c r="G90" s="33"/>
@@ -3422,9 +3392,9 @@
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="48"/>
-      <c r="B91" s="62"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="66"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="59"/>
       <c r="E91" s="34"/>
       <c r="F91" s="34"/>
       <c r="G91" s="33"/>
@@ -3451,9 +3421,9 @@
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="48"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="66"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="59"/>
       <c r="E92" s="34"/>
       <c r="F92" s="34"/>
       <c r="G92" s="33"/>
@@ -3480,9 +3450,9 @@
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="48"/>
-      <c r="B93" s="62"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="66"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="59"/>
       <c r="E93" s="34"/>
       <c r="F93" s="34"/>
       <c r="G93" s="33"/>
@@ -3509,9 +3479,9 @@
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="48"/>
-      <c r="B94" s="62"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="66"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="59"/>
       <c r="E94" s="34"/>
       <c r="F94" s="34"/>
       <c r="G94" s="33"/>
@@ -3538,9 +3508,9 @@
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="48"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="66"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="59"/>
       <c r="E95" s="34"/>
       <c r="F95" s="34"/>
       <c r="G95" s="33"/>
@@ -3567,9 +3537,9 @@
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="48"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="66"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="59"/>
       <c r="E96" s="34"/>
       <c r="F96" s="34"/>
       <c r="G96" s="33"/>
@@ -3596,9 +3566,9 @@
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="48"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="63"/>
-      <c r="D97" s="65"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="58"/>
       <c r="E97" s="34"/>
       <c r="F97" s="34"/>
       <c r="G97" s="33"/>
@@ -3625,9 +3595,9 @@
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="48"/>
-      <c r="B98" s="62"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="66"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="59"/>
       <c r="E98" s="34"/>
       <c r="F98" s="34"/>
       <c r="G98" s="33"/>
@@ -3654,9 +3624,9 @@
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="48"/>
-      <c r="B99" s="62"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="66"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="59"/>
       <c r="E99" s="34"/>
       <c r="F99" s="34"/>
       <c r="G99" s="33"/>
@@ -3683,9 +3653,9 @@
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="48"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="66"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="59"/>
       <c r="E100" s="34"/>
       <c r="F100" s="34"/>
       <c r="G100" s="33"/>
@@ -3712,9 +3682,9 @@
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="48"/>
-      <c r="B101" s="62"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="66"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="59"/>
       <c r="E101" s="34"/>
       <c r="F101" s="34"/>
       <c r="G101" s="33"/>
@@ -3741,9 +3711,9 @@
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="48"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="66"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="59"/>
       <c r="E102" s="34"/>
       <c r="F102" s="34"/>
       <c r="G102" s="33"/>
@@ -3770,9 +3740,9 @@
     </row>
     <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="48"/>
-      <c r="B103" s="62"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="66"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="59"/>
       <c r="E103" s="34"/>
       <c r="F103" s="34"/>
       <c r="G103" s="33"/>
@@ -3799,9 +3769,9 @@
     </row>
     <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="48"/>
-      <c r="B104" s="62"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="66"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="59"/>
       <c r="E104" s="34"/>
       <c r="F104" s="34"/>
       <c r="G104" s="33"/>
@@ -3828,9 +3798,9 @@
     </row>
     <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="48"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="65"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="58"/>
       <c r="E105" s="34"/>
       <c r="F105" s="34"/>
       <c r="G105" s="33"/>
@@ -3857,9 +3827,9 @@
     </row>
     <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="48"/>
-      <c r="B106" s="62"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="66"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="59"/>
       <c r="E106" s="34"/>
       <c r="F106" s="34"/>
       <c r="G106" s="33"/>
@@ -3886,9 +3856,9 @@
     </row>
     <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="48"/>
-      <c r="B107" s="62"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="66"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="59"/>
       <c r="E107" s="34"/>
       <c r="F107" s="34"/>
       <c r="G107" s="33"/>
@@ -3915,9 +3885,9 @@
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="48"/>
-      <c r="B108" s="62"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="66"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="59"/>
       <c r="E108" s="34"/>
       <c r="F108" s="34"/>
       <c r="G108" s="33"/>
@@ -3944,9 +3914,9 @@
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="48"/>
-      <c r="B109" s="62"/>
-      <c r="C109" s="64"/>
-      <c r="D109" s="66"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="59"/>
       <c r="E109" s="34"/>
       <c r="F109" s="34"/>
       <c r="G109" s="33"/>
@@ -3973,9 +3943,9 @@
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="48"/>
-      <c r="B110" s="62"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="66"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="59"/>
       <c r="E110" s="34"/>
       <c r="F110" s="34"/>
       <c r="G110" s="33"/>
@@ -4002,9 +3972,9 @@
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="48"/>
-      <c r="B111" s="62"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="66"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="59"/>
       <c r="E111" s="34"/>
       <c r="F111" s="34"/>
       <c r="G111" s="33"/>
@@ -4031,9 +4001,9 @@
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="48"/>
-      <c r="B112" s="62"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="66"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="59"/>
       <c r="E112" s="34"/>
       <c r="F112" s="34"/>
       <c r="G112" s="33"/>
@@ -4060,9 +4030,9 @@
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="48"/>
-      <c r="B113" s="61"/>
-      <c r="C113" s="63"/>
-      <c r="D113" s="65"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="56"/>
+      <c r="D113" s="58"/>
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
       <c r="G113" s="33"/>
@@ -4089,9 +4059,9 @@
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="48"/>
-      <c r="B114" s="62"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="66"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="59"/>
       <c r="E114" s="34"/>
       <c r="F114" s="34"/>
       <c r="G114" s="33"/>
@@ -4118,9 +4088,9 @@
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="48"/>
-      <c r="B115" s="62"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="66"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="59"/>
       <c r="E115" s="34"/>
       <c r="F115" s="34"/>
       <c r="G115" s="33"/>
@@ -4147,9 +4117,9 @@
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="48"/>
-      <c r="B116" s="62"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="66"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="59"/>
       <c r="E116" s="34"/>
       <c r="F116" s="34"/>
       <c r="G116" s="33"/>
@@ -4176,9 +4146,9 @@
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="48"/>
-      <c r="B117" s="62"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="66"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="59"/>
       <c r="E117" s="34"/>
       <c r="F117" s="34"/>
       <c r="G117" s="33"/>
@@ -4205,9 +4175,9 @@
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="48"/>
-      <c r="B118" s="62"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="66"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="59"/>
       <c r="E118" s="34"/>
       <c r="F118" s="34"/>
       <c r="G118" s="33"/>
@@ -4234,9 +4204,9 @@
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="48"/>
-      <c r="B119" s="62"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="66"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="57"/>
+      <c r="D119" s="59"/>
       <c r="E119" s="34"/>
       <c r="F119" s="34"/>
       <c r="G119" s="33"/>
@@ -4263,9 +4233,9 @@
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="48"/>
-      <c r="B120" s="62"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="66"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="57"/>
+      <c r="D120" s="59"/>
       <c r="E120" s="34"/>
       <c r="F120" s="34"/>
       <c r="G120" s="33"/>
@@ -4292,9 +4262,9 @@
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="48"/>
-      <c r="B121" s="61"/>
-      <c r="C121" s="63"/>
-      <c r="D121" s="65"/>
+      <c r="B121" s="54"/>
+      <c r="C121" s="56"/>
+      <c r="D121" s="58"/>
       <c r="E121" s="34"/>
       <c r="F121" s="34"/>
       <c r="G121" s="33"/>
@@ -4321,9 +4291,9 @@
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="48"/>
-      <c r="B122" s="62"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="66"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="57"/>
+      <c r="D122" s="59"/>
       <c r="E122" s="34"/>
       <c r="F122" s="34"/>
       <c r="G122" s="33"/>
@@ -4350,9 +4320,9 @@
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="48"/>
-      <c r="B123" s="62"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="66"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="57"/>
+      <c r="D123" s="59"/>
       <c r="E123" s="34"/>
       <c r="F123" s="34"/>
       <c r="G123" s="33"/>
@@ -4379,9 +4349,9 @@
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="48"/>
-      <c r="B124" s="62"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="66"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="57"/>
+      <c r="D124" s="59"/>
       <c r="E124" s="34"/>
       <c r="F124" s="34"/>
       <c r="G124" s="33"/>
@@ -4408,9 +4378,9 @@
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="48"/>
-      <c r="B125" s="62"/>
-      <c r="C125" s="64"/>
-      <c r="D125" s="66"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="59"/>
       <c r="E125" s="34"/>
       <c r="F125" s="34"/>
       <c r="G125" s="33"/>
@@ -4437,9 +4407,9 @@
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="48"/>
-      <c r="B126" s="62"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="66"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="57"/>
+      <c r="D126" s="59"/>
       <c r="E126" s="34"/>
       <c r="F126" s="34"/>
       <c r="G126" s="33"/>
@@ -4466,9 +4436,9 @@
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="48"/>
-      <c r="B127" s="62"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="66"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="57"/>
+      <c r="D127" s="59"/>
       <c r="E127" s="34"/>
       <c r="F127" s="34"/>
       <c r="G127" s="33"/>
@@ -4495,9 +4465,9 @@
     </row>
     <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="48"/>
-      <c r="B128" s="62"/>
-      <c r="C128" s="64"/>
-      <c r="D128" s="66"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="59"/>
       <c r="E128" s="34"/>
       <c r="F128" s="34"/>
       <c r="G128" s="33"/>
@@ -4524,9 +4494,9 @@
     </row>
     <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="48"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="63"/>
-      <c r="D129" s="65"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="58"/>
       <c r="E129" s="34"/>
       <c r="F129" s="34"/>
       <c r="G129" s="33"/>
@@ -4553,9 +4523,9 @@
     </row>
     <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="48"/>
-      <c r="B130" s="62"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="66"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="59"/>
       <c r="E130" s="34"/>
       <c r="F130" s="34"/>
       <c r="G130" s="33"/>
@@ -4582,9 +4552,9 @@
     </row>
     <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="48"/>
-      <c r="B131" s="62"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="66"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="59"/>
       <c r="E131" s="34"/>
       <c r="F131" s="34"/>
       <c r="G131" s="33"/>
@@ -4611,9 +4581,9 @@
     </row>
     <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="48"/>
-      <c r="B132" s="62"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="66"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="57"/>
+      <c r="D132" s="59"/>
       <c r="E132" s="34"/>
       <c r="F132" s="34"/>
       <c r="G132" s="33"/>
@@ -4640,9 +4610,9 @@
     </row>
     <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="48"/>
-      <c r="B133" s="62"/>
-      <c r="C133" s="64"/>
-      <c r="D133" s="66"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="59"/>
       <c r="E133" s="34"/>
       <c r="F133" s="34"/>
       <c r="G133" s="33"/>
@@ -4669,9 +4639,9 @@
     </row>
     <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="48"/>
-      <c r="B134" s="62"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="66"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="59"/>
       <c r="E134" s="34"/>
       <c r="F134" s="34"/>
       <c r="G134" s="33"/>
@@ -4698,9 +4668,9 @@
     </row>
     <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="48"/>
-      <c r="B135" s="62"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="66"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="59"/>
       <c r="E135" s="34"/>
       <c r="F135" s="34"/>
       <c r="G135" s="33"/>
@@ -4727,9 +4697,9 @@
     </row>
     <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="48"/>
-      <c r="B136" s="62"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="66"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="59"/>
       <c r="E136" s="34"/>
       <c r="F136" s="34"/>
       <c r="G136" s="33"/>
@@ -4756,9 +4726,9 @@
     </row>
     <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="48"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="63"/>
-      <c r="D137" s="65"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="58"/>
       <c r="E137" s="34"/>
       <c r="F137" s="34"/>
       <c r="G137" s="33"/>
@@ -4785,9 +4755,9 @@
     </row>
     <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="48"/>
-      <c r="B138" s="62"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="66"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="59"/>
       <c r="E138" s="34"/>
       <c r="F138" s="34"/>
       <c r="G138" s="33"/>
@@ -4814,9 +4784,9 @@
     </row>
     <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="48"/>
-      <c r="B139" s="62"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="66"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="57"/>
+      <c r="D139" s="59"/>
       <c r="E139" s="34"/>
       <c r="F139" s="34"/>
       <c r="G139" s="33"/>
@@ -4843,9 +4813,9 @@
     </row>
     <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="48"/>
-      <c r="B140" s="62"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="66"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="57"/>
+      <c r="D140" s="59"/>
       <c r="E140" s="34"/>
       <c r="F140" s="34"/>
       <c r="G140" s="33"/>
@@ -4872,9 +4842,9 @@
     </row>
     <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="48"/>
-      <c r="B141" s="62"/>
-      <c r="C141" s="64"/>
-      <c r="D141" s="66"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="59"/>
       <c r="E141" s="34"/>
       <c r="F141" s="34"/>
       <c r="G141" s="33"/>
@@ -4901,9 +4871,9 @@
     </row>
     <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="48"/>
-      <c r="B142" s="62"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="66"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="57"/>
+      <c r="D142" s="59"/>
       <c r="E142" s="34"/>
       <c r="F142" s="34"/>
       <c r="G142" s="33"/>
@@ -4930,9 +4900,9 @@
     </row>
     <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="48"/>
-      <c r="B143" s="62"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="66"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="57"/>
+      <c r="D143" s="59"/>
       <c r="E143" s="34"/>
       <c r="F143" s="34"/>
       <c r="G143" s="33"/>
@@ -4959,9 +4929,9 @@
     </row>
     <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="48"/>
-      <c r="B144" s="62"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="66"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="57"/>
+      <c r="D144" s="59"/>
       <c r="E144" s="34"/>
       <c r="F144" s="34"/>
       <c r="G144" s="33"/>
@@ -4988,9 +4958,9 @@
     </row>
     <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="48"/>
-      <c r="B145" s="61"/>
-      <c r="C145" s="63"/>
-      <c r="D145" s="65"/>
+      <c r="B145" s="54"/>
+      <c r="C145" s="56"/>
+      <c r="D145" s="58"/>
       <c r="E145" s="34"/>
       <c r="F145" s="34"/>
       <c r="G145" s="33"/>
@@ -5017,9 +4987,9 @@
     </row>
     <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="48"/>
-      <c r="B146" s="62"/>
-      <c r="C146" s="64"/>
-      <c r="D146" s="66"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="59"/>
       <c r="E146" s="34"/>
       <c r="F146" s="34"/>
       <c r="G146" s="33"/>
@@ -5046,9 +5016,9 @@
     </row>
     <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="48"/>
-      <c r="B147" s="62"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="66"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="59"/>
       <c r="E147" s="34"/>
       <c r="F147" s="34"/>
       <c r="G147" s="33"/>
@@ -5075,9 +5045,9 @@
     </row>
     <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="48"/>
-      <c r="B148" s="62"/>
-      <c r="C148" s="64"/>
-      <c r="D148" s="66"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="57"/>
+      <c r="D148" s="59"/>
       <c r="E148" s="34"/>
       <c r="F148" s="34"/>
       <c r="G148" s="33"/>
@@ -5104,9 +5074,9 @@
     </row>
     <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="48"/>
-      <c r="B149" s="62"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="66"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="59"/>
       <c r="E149" s="34"/>
       <c r="F149" s="34"/>
       <c r="G149" s="33"/>
@@ -5133,9 +5103,9 @@
     </row>
     <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="48"/>
-      <c r="B150" s="62"/>
-      <c r="C150" s="64"/>
-      <c r="D150" s="66"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="57"/>
+      <c r="D150" s="59"/>
       <c r="E150" s="34"/>
       <c r="F150" s="34"/>
       <c r="G150" s="33"/>
@@ -5162,9 +5132,9 @@
     </row>
     <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="48"/>
-      <c r="B151" s="62"/>
-      <c r="C151" s="64"/>
-      <c r="D151" s="66"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="59"/>
       <c r="E151" s="34"/>
       <c r="F151" s="34"/>
       <c r="G151" s="33"/>
@@ -5191,9 +5161,9 @@
     </row>
     <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="48"/>
-      <c r="B152" s="62"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="66"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="57"/>
+      <c r="D152" s="59"/>
       <c r="E152" s="34"/>
       <c r="F152" s="34"/>
       <c r="G152" s="33"/>
@@ -5220,9 +5190,9 @@
     </row>
     <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="48"/>
-      <c r="B153" s="61"/>
-      <c r="C153" s="63"/>
-      <c r="D153" s="65"/>
+      <c r="B153" s="54"/>
+      <c r="C153" s="56"/>
+      <c r="D153" s="58"/>
       <c r="E153" s="34"/>
       <c r="F153" s="34"/>
       <c r="G153" s="33"/>
@@ -5249,9 +5219,9 @@
     </row>
     <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="48"/>
-      <c r="B154" s="62"/>
-      <c r="C154" s="64"/>
-      <c r="D154" s="66"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="57"/>
+      <c r="D154" s="59"/>
       <c r="E154" s="34"/>
       <c r="F154" s="34"/>
       <c r="G154" s="33"/>
@@ -5278,9 +5248,9 @@
     </row>
     <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="48"/>
-      <c r="B155" s="62"/>
-      <c r="C155" s="64"/>
-      <c r="D155" s="66"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="59"/>
       <c r="E155" s="34"/>
       <c r="F155" s="34"/>
       <c r="G155" s="33"/>
@@ -5307,9 +5277,9 @@
     </row>
     <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="48"/>
-      <c r="B156" s="62"/>
-      <c r="C156" s="64"/>
-      <c r="D156" s="66"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="59"/>
       <c r="E156" s="34"/>
       <c r="F156" s="34"/>
       <c r="G156" s="33"/>
@@ -5336,9 +5306,9 @@
     </row>
     <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="48"/>
-      <c r="B157" s="62"/>
-      <c r="C157" s="64"/>
-      <c r="D157" s="66"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="59"/>
       <c r="E157" s="34"/>
       <c r="F157" s="34"/>
       <c r="G157" s="33"/>
@@ -5365,9 +5335,9 @@
     </row>
     <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="48"/>
-      <c r="B158" s="62"/>
-      <c r="C158" s="64"/>
-      <c r="D158" s="66"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="57"/>
+      <c r="D158" s="59"/>
       <c r="E158" s="34"/>
       <c r="F158" s="34"/>
       <c r="G158" s="33"/>
@@ -5394,9 +5364,9 @@
     </row>
     <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="48"/>
-      <c r="B159" s="62"/>
-      <c r="C159" s="64"/>
-      <c r="D159" s="66"/>
+      <c r="B159" s="55"/>
+      <c r="C159" s="57"/>
+      <c r="D159" s="59"/>
       <c r="E159" s="34"/>
       <c r="F159" s="34"/>
       <c r="G159" s="33"/>
@@ -5423,9 +5393,9 @@
     </row>
     <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="48"/>
-      <c r="B160" s="62"/>
-      <c r="C160" s="64"/>
-      <c r="D160" s="66"/>
+      <c r="B160" s="55"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="59"/>
       <c r="E160" s="34"/>
       <c r="F160" s="34"/>
       <c r="G160" s="33"/>
@@ -5452,9 +5422,9 @@
     </row>
     <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="48"/>
-      <c r="B161" s="61"/>
-      <c r="C161" s="63"/>
-      <c r="D161" s="65"/>
+      <c r="B161" s="54"/>
+      <c r="C161" s="56"/>
+      <c r="D161" s="58"/>
       <c r="E161" s="34"/>
       <c r="F161" s="34"/>
       <c r="G161" s="33"/>
@@ -5481,9 +5451,9 @@
     </row>
     <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="48"/>
-      <c r="B162" s="62"/>
-      <c r="C162" s="64"/>
-      <c r="D162" s="66"/>
+      <c r="B162" s="55"/>
+      <c r="C162" s="57"/>
+      <c r="D162" s="59"/>
       <c r="E162" s="34"/>
       <c r="F162" s="34"/>
       <c r="G162" s="33"/>
@@ -5510,9 +5480,9 @@
     </row>
     <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="48"/>
-      <c r="B163" s="62"/>
-      <c r="C163" s="64"/>
-      <c r="D163" s="66"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="57"/>
+      <c r="D163" s="59"/>
       <c r="E163" s="34"/>
       <c r="F163" s="34"/>
       <c r="G163" s="33"/>
@@ -5539,9 +5509,9 @@
     </row>
     <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="48"/>
-      <c r="B164" s="62"/>
-      <c r="C164" s="64"/>
-      <c r="D164" s="66"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="57"/>
+      <c r="D164" s="59"/>
       <c r="E164" s="34"/>
       <c r="F164" s="34"/>
       <c r="G164" s="33"/>
@@ -5568,9 +5538,9 @@
     </row>
     <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="48"/>
-      <c r="B165" s="62"/>
-      <c r="C165" s="64"/>
-      <c r="D165" s="66"/>
+      <c r="B165" s="55"/>
+      <c r="C165" s="57"/>
+      <c r="D165" s="59"/>
       <c r="E165" s="34"/>
       <c r="F165" s="34"/>
       <c r="G165" s="33"/>
@@ -5597,9 +5567,9 @@
     </row>
     <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="48"/>
-      <c r="B166" s="62"/>
-      <c r="C166" s="64"/>
-      <c r="D166" s="66"/>
+      <c r="B166" s="55"/>
+      <c r="C166" s="57"/>
+      <c r="D166" s="59"/>
       <c r="E166" s="34"/>
       <c r="F166" s="34"/>
       <c r="G166" s="33"/>
@@ -5626,9 +5596,9 @@
     </row>
     <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="48"/>
-      <c r="B167" s="62"/>
-      <c r="C167" s="64"/>
-      <c r="D167" s="66"/>
+      <c r="B167" s="55"/>
+      <c r="C167" s="57"/>
+      <c r="D167" s="59"/>
       <c r="E167" s="34"/>
       <c r="F167" s="34"/>
       <c r="G167" s="33"/>
@@ -5655,9 +5625,9 @@
     </row>
     <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="48"/>
-      <c r="B168" s="62"/>
-      <c r="C168" s="64"/>
-      <c r="D168" s="66"/>
+      <c r="B168" s="55"/>
+      <c r="C168" s="57"/>
+      <c r="D168" s="59"/>
       <c r="E168" s="34"/>
       <c r="F168" s="34"/>
       <c r="G168" s="33"/>
@@ -5684,9 +5654,9 @@
     </row>
     <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="48"/>
-      <c r="B169" s="61"/>
-      <c r="C169" s="63"/>
-      <c r="D169" s="65"/>
+      <c r="B169" s="54"/>
+      <c r="C169" s="56"/>
+      <c r="D169" s="58"/>
       <c r="E169" s="34"/>
       <c r="F169" s="34"/>
       <c r="G169" s="33"/>
@@ -5713,9 +5683,9 @@
     </row>
     <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="48"/>
-      <c r="B170" s="62"/>
-      <c r="C170" s="64"/>
-      <c r="D170" s="66"/>
+      <c r="B170" s="55"/>
+      <c r="C170" s="57"/>
+      <c r="D170" s="59"/>
       <c r="E170" s="34"/>
       <c r="F170" s="34"/>
       <c r="G170" s="33"/>
@@ -5742,9 +5712,9 @@
     </row>
     <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="48"/>
-      <c r="B171" s="62"/>
-      <c r="C171" s="64"/>
-      <c r="D171" s="66"/>
+      <c r="B171" s="55"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="59"/>
       <c r="E171" s="34"/>
       <c r="F171" s="34"/>
       <c r="G171" s="33"/>
@@ -5771,9 +5741,9 @@
     </row>
     <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="48"/>
-      <c r="B172" s="62"/>
-      <c r="C172" s="64"/>
-      <c r="D172" s="66"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="57"/>
+      <c r="D172" s="59"/>
       <c r="E172" s="34"/>
       <c r="F172" s="34"/>
       <c r="G172" s="33"/>
@@ -5800,9 +5770,9 @@
     </row>
     <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="48"/>
-      <c r="B173" s="62"/>
-      <c r="C173" s="64"/>
-      <c r="D173" s="66"/>
+      <c r="B173" s="55"/>
+      <c r="C173" s="57"/>
+      <c r="D173" s="59"/>
       <c r="E173" s="34"/>
       <c r="F173" s="34"/>
       <c r="G173" s="33"/>
@@ -5829,9 +5799,9 @@
     </row>
     <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="48"/>
-      <c r="B174" s="62"/>
-      <c r="C174" s="64"/>
-      <c r="D174" s="66"/>
+      <c r="B174" s="55"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="59"/>
       <c r="E174" s="34"/>
       <c r="F174" s="34"/>
       <c r="G174" s="33"/>
@@ -5858,9 +5828,9 @@
     </row>
     <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="48"/>
-      <c r="B175" s="62"/>
-      <c r="C175" s="64"/>
-      <c r="D175" s="66"/>
+      <c r="B175" s="55"/>
+      <c r="C175" s="57"/>
+      <c r="D175" s="59"/>
       <c r="E175" s="34"/>
       <c r="F175" s="34"/>
       <c r="G175" s="33"/>
@@ -5887,9 +5857,9 @@
     </row>
     <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="48"/>
-      <c r="B176" s="62"/>
-      <c r="C176" s="64"/>
-      <c r="D176" s="66"/>
+      <c r="B176" s="55"/>
+      <c r="C176" s="57"/>
+      <c r="D176" s="59"/>
       <c r="E176" s="34"/>
       <c r="F176" s="34"/>
       <c r="G176" s="33"/>
@@ -5916,9 +5886,9 @@
     </row>
     <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="48"/>
-      <c r="B177" s="61"/>
-      <c r="C177" s="63"/>
-      <c r="D177" s="65"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="56"/>
+      <c r="D177" s="58"/>
       <c r="E177" s="34"/>
       <c r="F177" s="34"/>
       <c r="G177" s="33"/>
@@ -5945,9 +5915,9 @@
     </row>
     <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="48"/>
-      <c r="B178" s="62"/>
-      <c r="C178" s="64"/>
-      <c r="D178" s="66"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="57"/>
+      <c r="D178" s="59"/>
       <c r="E178" s="34"/>
       <c r="F178" s="34"/>
       <c r="G178" s="33"/>
@@ -5974,9 +5944,9 @@
     </row>
     <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="48"/>
-      <c r="B179" s="62"/>
-      <c r="C179" s="64"/>
-      <c r="D179" s="66"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="57"/>
+      <c r="D179" s="59"/>
       <c r="E179" s="34"/>
       <c r="F179" s="34"/>
       <c r="G179" s="33"/>
@@ -6003,9 +5973,9 @@
     </row>
     <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="48"/>
-      <c r="B180" s="62"/>
-      <c r="C180" s="64"/>
-      <c r="D180" s="66"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="59"/>
       <c r="E180" s="34"/>
       <c r="F180" s="34"/>
       <c r="G180" s="33"/>
@@ -6032,9 +6002,9 @@
     </row>
     <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="48"/>
-      <c r="B181" s="62"/>
-      <c r="C181" s="64"/>
-      <c r="D181" s="66"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="59"/>
       <c r="E181" s="34"/>
       <c r="F181" s="34"/>
       <c r="G181" s="33"/>
@@ -6061,9 +6031,9 @@
     </row>
     <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="48"/>
-      <c r="B182" s="62"/>
-      <c r="C182" s="64"/>
-      <c r="D182" s="66"/>
+      <c r="B182" s="55"/>
+      <c r="C182" s="57"/>
+      <c r="D182" s="59"/>
       <c r="E182" s="34"/>
       <c r="F182" s="34"/>
       <c r="G182" s="33"/>
@@ -6090,9 +6060,9 @@
     </row>
     <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="48"/>
-      <c r="B183" s="62"/>
-      <c r="C183" s="64"/>
-      <c r="D183" s="66"/>
+      <c r="B183" s="55"/>
+      <c r="C183" s="57"/>
+      <c r="D183" s="59"/>
       <c r="E183" s="34"/>
       <c r="F183" s="34"/>
       <c r="G183" s="33"/>
@@ -6119,9 +6089,9 @@
     </row>
     <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="48"/>
-      <c r="B184" s="62"/>
-      <c r="C184" s="64"/>
-      <c r="D184" s="66"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="57"/>
+      <c r="D184" s="59"/>
       <c r="E184" s="34"/>
       <c r="F184" s="34"/>
       <c r="G184" s="33"/>
@@ -6148,9 +6118,9 @@
     </row>
     <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="48"/>
-      <c r="B185" s="61"/>
-      <c r="C185" s="63"/>
-      <c r="D185" s="65"/>
+      <c r="B185" s="54"/>
+      <c r="C185" s="56"/>
+      <c r="D185" s="58"/>
       <c r="E185" s="34"/>
       <c r="F185" s="34"/>
       <c r="G185" s="33"/>
@@ -6177,9 +6147,9 @@
     </row>
     <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="48"/>
-      <c r="B186" s="62"/>
-      <c r="C186" s="64"/>
-      <c r="D186" s="66"/>
+      <c r="B186" s="55"/>
+      <c r="C186" s="57"/>
+      <c r="D186" s="59"/>
       <c r="E186" s="34"/>
       <c r="F186" s="34"/>
       <c r="G186" s="33"/>
@@ -6206,9 +6176,9 @@
     </row>
     <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="48"/>
-      <c r="B187" s="62"/>
-      <c r="C187" s="64"/>
-      <c r="D187" s="66"/>
+      <c r="B187" s="55"/>
+      <c r="C187" s="57"/>
+      <c r="D187" s="59"/>
       <c r="E187" s="34"/>
       <c r="F187" s="34"/>
       <c r="G187" s="33"/>
@@ -6235,9 +6205,9 @@
     </row>
     <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="48"/>
-      <c r="B188" s="62"/>
-      <c r="C188" s="64"/>
-      <c r="D188" s="66"/>
+      <c r="B188" s="55"/>
+      <c r="C188" s="57"/>
+      <c r="D188" s="59"/>
       <c r="E188" s="34"/>
       <c r="F188" s="34"/>
       <c r="G188" s="33"/>
@@ -6264,9 +6234,9 @@
     </row>
     <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="48"/>
-      <c r="B189" s="62"/>
-      <c r="C189" s="64"/>
-      <c r="D189" s="66"/>
+      <c r="B189" s="55"/>
+      <c r="C189" s="57"/>
+      <c r="D189" s="59"/>
       <c r="E189" s="34"/>
       <c r="F189" s="34"/>
       <c r="G189" s="33"/>
@@ -6293,9 +6263,9 @@
     </row>
     <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="48"/>
-      <c r="B190" s="62"/>
-      <c r="C190" s="64"/>
-      <c r="D190" s="66"/>
+      <c r="B190" s="55"/>
+      <c r="C190" s="57"/>
+      <c r="D190" s="59"/>
       <c r="E190" s="34"/>
       <c r="F190" s="34"/>
       <c r="G190" s="33"/>
@@ -6322,9 +6292,9 @@
     </row>
     <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="48"/>
-      <c r="B191" s="62"/>
-      <c r="C191" s="64"/>
-      <c r="D191" s="66"/>
+      <c r="B191" s="55"/>
+      <c r="C191" s="57"/>
+      <c r="D191" s="59"/>
       <c r="E191" s="34"/>
       <c r="F191" s="34"/>
       <c r="G191" s="33"/>
@@ -6351,9 +6321,9 @@
     </row>
     <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="48"/>
-      <c r="B192" s="62"/>
-      <c r="C192" s="64"/>
-      <c r="D192" s="66"/>
+      <c r="B192" s="55"/>
+      <c r="C192" s="57"/>
+      <c r="D192" s="59"/>
       <c r="E192" s="34"/>
       <c r="F192" s="34"/>
       <c r="G192" s="33"/>
@@ -6380,9 +6350,9 @@
     </row>
     <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="48"/>
-      <c r="B193" s="61"/>
-      <c r="C193" s="63"/>
-      <c r="D193" s="65"/>
+      <c r="B193" s="54"/>
+      <c r="C193" s="56"/>
+      <c r="D193" s="58"/>
       <c r="E193" s="34"/>
       <c r="F193" s="34"/>
       <c r="G193" s="33"/>
@@ -6409,9 +6379,9 @@
     </row>
     <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="48"/>
-      <c r="B194" s="62"/>
-      <c r="C194" s="64"/>
-      <c r="D194" s="66"/>
+      <c r="B194" s="55"/>
+      <c r="C194" s="57"/>
+      <c r="D194" s="59"/>
       <c r="E194" s="34"/>
       <c r="F194" s="34"/>
       <c r="G194" s="33"/>
@@ -6438,9 +6408,9 @@
     </row>
     <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="48"/>
-      <c r="B195" s="62"/>
-      <c r="C195" s="64"/>
-      <c r="D195" s="66"/>
+      <c r="B195" s="55"/>
+      <c r="C195" s="57"/>
+      <c r="D195" s="59"/>
       <c r="E195" s="34"/>
       <c r="F195" s="34"/>
       <c r="G195" s="33"/>
@@ -6467,9 +6437,9 @@
     </row>
     <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="48"/>
-      <c r="B196" s="62"/>
-      <c r="C196" s="64"/>
-      <c r="D196" s="66"/>
+      <c r="B196" s="55"/>
+      <c r="C196" s="57"/>
+      <c r="D196" s="59"/>
       <c r="E196" s="34"/>
       <c r="F196" s="34"/>
       <c r="G196" s="33"/>
@@ -6496,9 +6466,9 @@
     </row>
     <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="48"/>
-      <c r="B197" s="62"/>
-      <c r="C197" s="64"/>
-      <c r="D197" s="66"/>
+      <c r="B197" s="55"/>
+      <c r="C197" s="57"/>
+      <c r="D197" s="59"/>
       <c r="E197" s="34"/>
       <c r="F197" s="34"/>
       <c r="G197" s="33"/>
@@ -6525,9 +6495,9 @@
     </row>
     <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="48"/>
-      <c r="B198" s="62"/>
-      <c r="C198" s="64"/>
-      <c r="D198" s="66"/>
+      <c r="B198" s="55"/>
+      <c r="C198" s="57"/>
+      <c r="D198" s="59"/>
       <c r="E198" s="34"/>
       <c r="F198" s="34"/>
       <c r="G198" s="33"/>
@@ -6554,9 +6524,9 @@
     </row>
     <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="48"/>
-      <c r="B199" s="62"/>
-      <c r="C199" s="64"/>
-      <c r="D199" s="66"/>
+      <c r="B199" s="55"/>
+      <c r="C199" s="57"/>
+      <c r="D199" s="59"/>
       <c r="E199" s="34"/>
       <c r="F199" s="34"/>
       <c r="G199" s="33"/>
@@ -6583,9 +6553,9 @@
     </row>
     <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="48"/>
-      <c r="B200" s="62"/>
-      <c r="C200" s="64"/>
-      <c r="D200" s="66"/>
+      <c r="B200" s="55"/>
+      <c r="C200" s="57"/>
+      <c r="D200" s="59"/>
       <c r="E200" s="34"/>
       <c r="F200" s="34"/>
       <c r="G200" s="33"/>
@@ -6612,9 +6582,9 @@
     </row>
     <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="48"/>
-      <c r="B201" s="61"/>
-      <c r="C201" s="63"/>
-      <c r="D201" s="65"/>
+      <c r="B201" s="54"/>
+      <c r="C201" s="56"/>
+      <c r="D201" s="58"/>
       <c r="E201" s="34"/>
       <c r="F201" s="34"/>
       <c r="G201" s="33"/>
@@ -6641,9 +6611,9 @@
     </row>
     <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="48"/>
-      <c r="B202" s="62"/>
-      <c r="C202" s="64"/>
-      <c r="D202" s="66"/>
+      <c r="B202" s="55"/>
+      <c r="C202" s="57"/>
+      <c r="D202" s="59"/>
       <c r="E202" s="34"/>
       <c r="F202" s="34"/>
       <c r="G202" s="33"/>
@@ -6670,9 +6640,9 @@
     </row>
     <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="48"/>
-      <c r="B203" s="62"/>
-      <c r="C203" s="64"/>
-      <c r="D203" s="66"/>
+      <c r="B203" s="55"/>
+      <c r="C203" s="57"/>
+      <c r="D203" s="59"/>
       <c r="E203" s="34"/>
       <c r="F203" s="34"/>
       <c r="G203" s="33"/>
@@ -6699,9 +6669,9 @@
     </row>
     <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="48"/>
-      <c r="B204" s="62"/>
-      <c r="C204" s="64"/>
-      <c r="D204" s="66"/>
+      <c r="B204" s="55"/>
+      <c r="C204" s="57"/>
+      <c r="D204" s="59"/>
       <c r="E204" s="34"/>
       <c r="F204" s="34"/>
       <c r="G204" s="33"/>
@@ -6728,9 +6698,9 @@
     </row>
     <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="48"/>
-      <c r="B205" s="62"/>
-      <c r="C205" s="64"/>
-      <c r="D205" s="66"/>
+      <c r="B205" s="55"/>
+      <c r="C205" s="57"/>
+      <c r="D205" s="59"/>
       <c r="E205" s="34"/>
       <c r="F205" s="34"/>
       <c r="G205" s="33"/>
@@ -6757,9 +6727,9 @@
     </row>
     <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="48"/>
-      <c r="B206" s="62"/>
-      <c r="C206" s="64"/>
-      <c r="D206" s="66"/>
+      <c r="B206" s="55"/>
+      <c r="C206" s="57"/>
+      <c r="D206" s="59"/>
       <c r="E206" s="34"/>
       <c r="F206" s="34"/>
       <c r="G206" s="33"/>
@@ -6786,9 +6756,9 @@
     </row>
     <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="48"/>
-      <c r="B207" s="62"/>
-      <c r="C207" s="64"/>
-      <c r="D207" s="66"/>
+      <c r="B207" s="55"/>
+      <c r="C207" s="57"/>
+      <c r="D207" s="59"/>
       <c r="E207" s="34"/>
       <c r="F207" s="34"/>
       <c r="G207" s="33"/>
@@ -6815,9 +6785,9 @@
     </row>
     <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="48"/>
-      <c r="B208" s="62"/>
-      <c r="C208" s="64"/>
-      <c r="D208" s="66"/>
+      <c r="B208" s="55"/>
+      <c r="C208" s="57"/>
+      <c r="D208" s="59"/>
       <c r="E208" s="34"/>
       <c r="F208" s="34"/>
       <c r="G208" s="33"/>
@@ -6844,9 +6814,9 @@
     </row>
     <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="48"/>
-      <c r="B209" s="61"/>
-      <c r="C209" s="63"/>
-      <c r="D209" s="65"/>
+      <c r="B209" s="54"/>
+      <c r="C209" s="56"/>
+      <c r="D209" s="58"/>
       <c r="E209" s="34"/>
       <c r="F209" s="34"/>
       <c r="G209" s="33"/>
@@ -6873,9 +6843,9 @@
     </row>
     <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="48"/>
-      <c r="B210" s="62"/>
-      <c r="C210" s="64"/>
-      <c r="D210" s="66"/>
+      <c r="B210" s="55"/>
+      <c r="C210" s="57"/>
+      <c r="D210" s="59"/>
       <c r="E210" s="34"/>
       <c r="F210" s="34"/>
       <c r="G210" s="33"/>
@@ -6902,9 +6872,9 @@
     </row>
     <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="48"/>
-      <c r="B211" s="62"/>
-      <c r="C211" s="64"/>
-      <c r="D211" s="66"/>
+      <c r="B211" s="55"/>
+      <c r="C211" s="57"/>
+      <c r="D211" s="59"/>
       <c r="E211" s="34"/>
       <c r="F211" s="34"/>
       <c r="G211" s="33"/>
@@ -6931,9 +6901,9 @@
     </row>
     <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="48"/>
-      <c r="B212" s="62"/>
-      <c r="C212" s="64"/>
-      <c r="D212" s="66"/>
+      <c r="B212" s="55"/>
+      <c r="C212" s="57"/>
+      <c r="D212" s="59"/>
       <c r="E212" s="34"/>
       <c r="F212" s="34"/>
       <c r="G212" s="33"/>
@@ -6960,9 +6930,9 @@
     </row>
     <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="48"/>
-      <c r="B213" s="62"/>
-      <c r="C213" s="64"/>
-      <c r="D213" s="66"/>
+      <c r="B213" s="55"/>
+      <c r="C213" s="57"/>
+      <c r="D213" s="59"/>
       <c r="E213" s="34"/>
       <c r="F213" s="34"/>
       <c r="G213" s="33"/>
@@ -6989,9 +6959,9 @@
     </row>
     <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="48"/>
-      <c r="B214" s="62"/>
-      <c r="C214" s="64"/>
-      <c r="D214" s="66"/>
+      <c r="B214" s="55"/>
+      <c r="C214" s="57"/>
+      <c r="D214" s="59"/>
       <c r="E214" s="34"/>
       <c r="F214" s="34"/>
       <c r="G214" s="33"/>
@@ -7018,9 +6988,9 @@
     </row>
     <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="48"/>
-      <c r="B215" s="62"/>
-      <c r="C215" s="64"/>
-      <c r="D215" s="66"/>
+      <c r="B215" s="55"/>
+      <c r="C215" s="57"/>
+      <c r="D215" s="59"/>
       <c r="E215" s="34"/>
       <c r="F215" s="34"/>
       <c r="G215" s="33"/>
@@ -7047,9 +7017,9 @@
     </row>
     <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="48"/>
-      <c r="B216" s="62"/>
-      <c r="C216" s="64"/>
-      <c r="D216" s="66"/>
+      <c r="B216" s="55"/>
+      <c r="C216" s="57"/>
+      <c r="D216" s="59"/>
       <c r="E216" s="34"/>
       <c r="F216" s="34"/>
       <c r="G216" s="33"/>
@@ -7076,9 +7046,9 @@
     </row>
     <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="48"/>
-      <c r="B217" s="61"/>
-      <c r="C217" s="63"/>
-      <c r="D217" s="65"/>
+      <c r="B217" s="54"/>
+      <c r="C217" s="56"/>
+      <c r="D217" s="58"/>
       <c r="E217" s="34"/>
       <c r="F217" s="34"/>
       <c r="G217" s="33"/>
@@ -7105,9 +7075,9 @@
     </row>
     <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="49"/>
-      <c r="B218" s="62"/>
-      <c r="C218" s="64"/>
-      <c r="D218" s="66"/>
+      <c r="B218" s="55"/>
+      <c r="C218" s="57"/>
+      <c r="D218" s="59"/>
       <c r="E218" s="52"/>
       <c r="F218" s="39"/>
       <c r="G218" s="38"/>
@@ -7134,9 +7104,9 @@
     </row>
     <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="49"/>
-      <c r="B219" s="62"/>
-      <c r="C219" s="64"/>
-      <c r="D219" s="66"/>
+      <c r="B219" s="55"/>
+      <c r="C219" s="57"/>
+      <c r="D219" s="59"/>
       <c r="E219" s="52"/>
       <c r="F219" s="39"/>
       <c r="G219" s="38"/>
@@ -7163,9 +7133,9 @@
     </row>
     <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="49"/>
-      <c r="B220" s="62"/>
-      <c r="C220" s="64"/>
-      <c r="D220" s="66"/>
+      <c r="B220" s="55"/>
+      <c r="C220" s="57"/>
+      <c r="D220" s="59"/>
       <c r="E220" s="52"/>
       <c r="F220" s="39"/>
       <c r="G220" s="38"/>
@@ -7194,7 +7164,7 @@
       <c r="A221" s="50"/>
       <c r="B221" s="21"/>
       <c r="C221" s="21"/>
-      <c r="D221" s="67"/>
+      <c r="D221" s="60"/>
       <c r="E221" s="52"/>
       <c r="F221" s="16"/>
       <c r="G221" s="16"/>
@@ -7223,7 +7193,7 @@
       <c r="A222" s="50"/>
       <c r="B222" s="21"/>
       <c r="C222" s="21"/>
-      <c r="D222" s="67"/>
+      <c r="D222" s="60"/>
       <c r="E222" s="52"/>
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
@@ -7252,7 +7222,7 @@
       <c r="A223" s="50"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
-      <c r="D223" s="67"/>
+      <c r="D223" s="60"/>
       <c r="E223" s="52"/>
       <c r="F223" s="16"/>
       <c r="G223" s="16"/>
@@ -7281,7 +7251,7 @@
       <c r="A224" s="50"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
-      <c r="D224" s="67"/>
+      <c r="D224" s="60"/>
       <c r="E224" s="52"/>
       <c r="F224" s="16"/>
       <c r="G224" s="16"/>
@@ -7310,7 +7280,7 @@
       <c r="A225" s="50"/>
       <c r="B225" s="21"/>
       <c r="C225" s="21"/>
-      <c r="D225" s="67"/>
+      <c r="D225" s="60"/>
       <c r="E225" s="52"/>
       <c r="F225" s="16"/>
       <c r="G225" s="16"/>
@@ -7339,7 +7309,7 @@
       <c r="A226" s="50"/>
       <c r="B226" s="21"/>
       <c r="C226" s="21"/>
-      <c r="D226" s="67"/>
+      <c r="D226" s="60"/>
       <c r="E226" s="52"/>
       <c r="F226" s="16"/>
       <c r="G226" s="16"/>
@@ -7368,7 +7338,7 @@
       <c r="A227" s="50"/>
       <c r="B227" s="21"/>
       <c r="C227" s="21"/>
-      <c r="D227" s="67"/>
+      <c r="D227" s="60"/>
       <c r="E227" s="52"/>
       <c r="F227" s="16"/>
       <c r="G227" s="16"/>
@@ -7397,7 +7367,7 @@
       <c r="A228" s="50"/>
       <c r="B228" s="21"/>
       <c r="C228" s="21"/>
-      <c r="D228" s="67"/>
+      <c r="D228" s="60"/>
       <c r="E228" s="52"/>
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
@@ -7426,7 +7396,7 @@
       <c r="A229" s="50"/>
       <c r="B229" s="21"/>
       <c r="C229" s="21"/>
-      <c r="D229" s="67"/>
+      <c r="D229" s="60"/>
       <c r="E229" s="52"/>
       <c r="F229" s="16"/>
       <c r="G229" s="16"/>
@@ -7455,7 +7425,7 @@
       <c r="A230" s="50"/>
       <c r="B230" s="21"/>
       <c r="C230" s="21"/>
-      <c r="D230" s="67"/>
+      <c r="D230" s="60"/>
       <c r="E230" s="52"/>
       <c r="F230" s="16"/>
       <c r="G230" s="16"/>
@@ -7484,7 +7454,7 @@
       <c r="A231" s="50"/>
       <c r="B231" s="21"/>
       <c r="C231" s="21"/>
-      <c r="D231" s="67"/>
+      <c r="D231" s="60"/>
       <c r="E231" s="52"/>
       <c r="F231" s="16"/>
       <c r="G231" s="16"/>
@@ -7513,7 +7483,7 @@
       <c r="A232" s="50"/>
       <c r="B232" s="21"/>
       <c r="C232" s="21"/>
-      <c r="D232" s="67"/>
+      <c r="D232" s="60"/>
       <c r="E232" s="52"/>
       <c r="F232" s="16"/>
       <c r="G232" s="16"/>
@@ -7542,7 +7512,7 @@
       <c r="A233" s="50"/>
       <c r="B233" s="21"/>
       <c r="C233" s="21"/>
-      <c r="D233" s="67"/>
+      <c r="D233" s="60"/>
       <c r="E233" s="52"/>
       <c r="F233" s="16"/>
       <c r="G233" s="16"/>
@@ -7571,7 +7541,7 @@
       <c r="A234" s="50"/>
       <c r="B234" s="21"/>
       <c r="C234" s="21"/>
-      <c r="D234" s="67"/>
+      <c r="D234" s="60"/>
       <c r="E234" s="52"/>
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
@@ -7600,7 +7570,7 @@
       <c r="A235" s="50"/>
       <c r="B235" s="21"/>
       <c r="C235" s="21"/>
-      <c r="D235" s="67"/>
+      <c r="D235" s="60"/>
       <c r="E235" s="52"/>
       <c r="F235" s="16"/>
       <c r="G235" s="16"/>
@@ -7629,7 +7599,7 @@
       <c r="A236" s="50"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21"/>
-      <c r="D236" s="67"/>
+      <c r="D236" s="60"/>
       <c r="E236" s="52"/>
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
@@ -7658,7 +7628,7 @@
       <c r="A237" s="50"/>
       <c r="B237" s="21"/>
       <c r="C237" s="21"/>
-      <c r="D237" s="67"/>
+      <c r="D237" s="60"/>
       <c r="E237" s="52"/>
       <c r="F237" s="16"/>
       <c r="G237" s="16"/>
@@ -7687,7 +7657,7 @@
       <c r="A238" s="50"/>
       <c r="B238" s="21"/>
       <c r="C238" s="21"/>
-      <c r="D238" s="67"/>
+      <c r="D238" s="60"/>
       <c r="E238" s="52"/>
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
@@ -7716,7 +7686,7 @@
       <c r="A239" s="50"/>
       <c r="B239" s="21"/>
       <c r="C239" s="21"/>
-      <c r="D239" s="67"/>
+      <c r="D239" s="60"/>
       <c r="E239" s="52"/>
       <c r="F239" s="16"/>
       <c r="G239" s="16"/>
@@ -7745,7 +7715,7 @@
       <c r="A240" s="50"/>
       <c r="B240" s="21"/>
       <c r="C240" s="21"/>
-      <c r="D240" s="67"/>
+      <c r="D240" s="60"/>
       <c r="E240" s="52"/>
       <c r="F240" s="16"/>
       <c r="G240" s="16"/>
@@ -7774,7 +7744,7 @@
       <c r="A241" s="50"/>
       <c r="B241" s="21"/>
       <c r="C241" s="21"/>
-      <c r="D241" s="67"/>
+      <c r="D241" s="60"/>
       <c r="E241" s="52"/>
       <c r="F241" s="16"/>
       <c r="G241" s="16"/>
@@ -7803,7 +7773,7 @@
       <c r="A242" s="50"/>
       <c r="B242" s="21"/>
       <c r="C242" s="21"/>
-      <c r="D242" s="67"/>
+      <c r="D242" s="60"/>
       <c r="E242" s="52"/>
       <c r="F242" s="16"/>
       <c r="G242" s="16"/>
@@ -7832,7 +7802,7 @@
       <c r="A243" s="50"/>
       <c r="B243" s="21"/>
       <c r="C243" s="21"/>
-      <c r="D243" s="67"/>
+      <c r="D243" s="60"/>
       <c r="E243" s="52"/>
       <c r="F243" s="16"/>
       <c r="G243" s="16"/>
@@ -7861,7 +7831,7 @@
       <c r="A244" s="50"/>
       <c r="B244" s="21"/>
       <c r="C244" s="21"/>
-      <c r="D244" s="67"/>
+      <c r="D244" s="60"/>
       <c r="E244" s="52"/>
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
@@ -7890,7 +7860,7 @@
       <c r="A245" s="50"/>
       <c r="B245" s="21"/>
       <c r="C245" s="21"/>
-      <c r="D245" s="67"/>
+      <c r="D245" s="60"/>
       <c r="E245" s="52"/>
       <c r="F245" s="16"/>
       <c r="G245" s="16"/>
@@ -7919,7 +7889,7 @@
       <c r="A246" s="50"/>
       <c r="B246" s="21"/>
       <c r="C246" s="21"/>
-      <c r="D246" s="67"/>
+      <c r="D246" s="60"/>
       <c r="E246" s="52"/>
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
@@ -7948,7 +7918,7 @@
       <c r="A247" s="50"/>
       <c r="B247" s="21"/>
       <c r="C247" s="21"/>
-      <c r="D247" s="67"/>
+      <c r="D247" s="60"/>
       <c r="E247" s="52"/>
       <c r="F247" s="16"/>
       <c r="G247" s="16"/>
@@ -7977,7 +7947,7 @@
       <c r="A248" s="50"/>
       <c r="B248" s="21"/>
       <c r="C248" s="21"/>
-      <c r="D248" s="67"/>
+      <c r="D248" s="60"/>
       <c r="E248" s="52"/>
       <c r="F248" s="16"/>
       <c r="G248" s="16"/>
@@ -8006,7 +7976,7 @@
       <c r="A249" s="50"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
-      <c r="D249" s="67"/>
+      <c r="D249" s="60"/>
       <c r="E249" s="52"/>
       <c r="F249" s="16"/>
       <c r="G249" s="16"/>
@@ -8035,7 +8005,7 @@
       <c r="A250" s="50"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
-      <c r="D250" s="67"/>
+      <c r="D250" s="60"/>
       <c r="E250" s="52"/>
       <c r="F250" s="16"/>
       <c r="G250" s="16"/>
@@ -8064,7 +8034,7 @@
       <c r="A251" s="50"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
-      <c r="D251" s="67"/>
+      <c r="D251" s="60"/>
       <c r="E251" s="52"/>
       <c r="F251" s="16"/>
       <c r="G251" s="16"/>
@@ -8093,7 +8063,7 @@
       <c r="A252" s="50"/>
       <c r="B252" s="21"/>
       <c r="C252" s="21"/>
-      <c r="D252" s="67"/>
+      <c r="D252" s="60"/>
       <c r="E252" s="52"/>
       <c r="F252" s="16"/>
       <c r="G252" s="16"/>
@@ -8122,7 +8092,7 @@
       <c r="A253" s="50"/>
       <c r="B253" s="21"/>
       <c r="C253" s="21"/>
-      <c r="D253" s="67"/>
+      <c r="D253" s="60"/>
       <c r="E253" s="52"/>
       <c r="F253" s="16"/>
       <c r="G253" s="16"/>
@@ -8151,7 +8121,7 @@
       <c r="A254" s="50"/>
       <c r="B254" s="21"/>
       <c r="C254" s="21"/>
-      <c r="D254" s="67"/>
+      <c r="D254" s="60"/>
       <c r="E254" s="52"/>
       <c r="F254" s="16"/>
       <c r="G254" s="16"/>
@@ -8180,7 +8150,7 @@
       <c r="A255" s="50"/>
       <c r="B255" s="21"/>
       <c r="C255" s="21"/>
-      <c r="D255" s="67"/>
+      <c r="D255" s="60"/>
       <c r="E255" s="52"/>
       <c r="F255" s="16"/>
       <c r="G255" s="16"/>
@@ -8209,7 +8179,7 @@
       <c r="A256" s="50"/>
       <c r="B256" s="21"/>
       <c r="C256" s="21"/>
-      <c r="D256" s="67"/>
+      <c r="D256" s="60"/>
       <c r="E256" s="52"/>
       <c r="F256" s="16"/>
       <c r="G256" s="16"/>
@@ -8238,7 +8208,7 @@
       <c r="A257" s="50"/>
       <c r="B257" s="21"/>
       <c r="C257" s="21"/>
-      <c r="D257" s="67"/>
+      <c r="D257" s="60"/>
       <c r="E257" s="52"/>
       <c r="F257" s="16"/>
       <c r="G257" s="16"/>
@@ -8267,7 +8237,7 @@
       <c r="A258" s="50"/>
       <c r="B258" s="21"/>
       <c r="C258" s="21"/>
-      <c r="D258" s="67"/>
+      <c r="D258" s="60"/>
       <c r="E258" s="52"/>
       <c r="F258" s="16"/>
       <c r="G258" s="16"/>
@@ -8296,7 +8266,7 @@
       <c r="A259" s="50"/>
       <c r="B259" s="21"/>
       <c r="C259" s="21"/>
-      <c r="D259" s="67"/>
+      <c r="D259" s="60"/>
       <c r="E259" s="52"/>
       <c r="F259" s="16"/>
       <c r="G259" s="16"/>
@@ -8325,7 +8295,7 @@
       <c r="A260" s="50"/>
       <c r="B260" s="21"/>
       <c r="C260" s="21"/>
-      <c r="D260" s="67"/>
+      <c r="D260" s="60"/>
       <c r="E260" s="52"/>
       <c r="F260" s="16"/>
       <c r="G260" s="16"/>
@@ -8354,7 +8324,7 @@
       <c r="A261" s="50"/>
       <c r="B261" s="21"/>
       <c r="C261" s="21"/>
-      <c r="D261" s="67"/>
+      <c r="D261" s="60"/>
       <c r="E261" s="52"/>
       <c r="F261" s="16"/>
       <c r="G261" s="16"/>
@@ -8383,7 +8353,7 @@
       <c r="A262" s="50"/>
       <c r="B262" s="21"/>
       <c r="C262" s="21"/>
-      <c r="D262" s="67"/>
+      <c r="D262" s="60"/>
       <c r="E262" s="52"/>
       <c r="F262" s="16"/>
       <c r="G262" s="16"/>
@@ -8412,7 +8382,7 @@
       <c r="A263" s="50"/>
       <c r="B263" s="21"/>
       <c r="C263" s="21"/>
-      <c r="D263" s="67"/>
+      <c r="D263" s="60"/>
       <c r="E263" s="52"/>
       <c r="F263" s="16"/>
       <c r="G263" s="16"/>
@@ -8441,7 +8411,7 @@
       <c r="A264" s="50"/>
       <c r="B264" s="21"/>
       <c r="C264" s="21"/>
-      <c r="D264" s="67"/>
+      <c r="D264" s="60"/>
       <c r="E264" s="52"/>
       <c r="F264" s="16"/>
       <c r="G264" s="16"/>
@@ -8470,7 +8440,7 @@
       <c r="A265" s="50"/>
       <c r="B265" s="21"/>
       <c r="C265" s="21"/>
-      <c r="D265" s="67"/>
+      <c r="D265" s="60"/>
       <c r="E265" s="52"/>
       <c r="F265" s="16"/>
       <c r="G265" s="16"/>
@@ -8499,7 +8469,7 @@
       <c r="A266" s="50"/>
       <c r="B266" s="21"/>
       <c r="C266" s="21"/>
-      <c r="D266" s="67"/>
+      <c r="D266" s="60"/>
       <c r="E266" s="52"/>
       <c r="F266" s="16"/>
       <c r="G266" s="16"/>
@@ -8528,7 +8498,7 @@
       <c r="A267" s="50"/>
       <c r="B267" s="21"/>
       <c r="C267" s="21"/>
-      <c r="D267" s="67"/>
+      <c r="D267" s="60"/>
       <c r="E267" s="52"/>
       <c r="F267" s="16"/>
       <c r="G267" s="16"/>
@@ -8557,7 +8527,7 @@
       <c r="A268" s="50"/>
       <c r="B268" s="21"/>
       <c r="C268" s="21"/>
-      <c r="D268" s="67"/>
+      <c r="D268" s="60"/>
       <c r="E268" s="52"/>
       <c r="F268" s="16"/>
       <c r="G268" s="16"/>
@@ -8586,7 +8556,7 @@
       <c r="A269" s="50"/>
       <c r="B269" s="21"/>
       <c r="C269" s="21"/>
-      <c r="D269" s="67"/>
+      <c r="D269" s="60"/>
       <c r="E269" s="52"/>
       <c r="F269" s="16"/>
       <c r="G269" s="16"/>
@@ -8615,7 +8585,7 @@
       <c r="A270" s="50"/>
       <c r="B270" s="21"/>
       <c r="C270" s="21"/>
-      <c r="D270" s="67"/>
+      <c r="D270" s="60"/>
       <c r="E270" s="52"/>
       <c r="F270" s="16"/>
       <c r="G270" s="16"/>
@@ -8644,7 +8614,7 @@
       <c r="A271" s="50"/>
       <c r="B271" s="21"/>
       <c r="C271" s="21"/>
-      <c r="D271" s="67"/>
+      <c r="D271" s="60"/>
       <c r="E271" s="52"/>
       <c r="F271" s="16"/>
       <c r="G271" s="16"/>
@@ -8673,7 +8643,7 @@
       <c r="A272" s="50"/>
       <c r="B272" s="21"/>
       <c r="C272" s="21"/>
-      <c r="D272" s="67"/>
+      <c r="D272" s="60"/>
       <c r="E272" s="52"/>
       <c r="F272" s="16"/>
       <c r="G272" s="16"/>
@@ -8702,7 +8672,7 @@
       <c r="A273" s="50"/>
       <c r="B273" s="21"/>
       <c r="C273" s="21"/>
-      <c r="D273" s="67"/>
+      <c r="D273" s="60"/>
       <c r="E273" s="52"/>
       <c r="F273" s="16"/>
       <c r="G273" s="16"/>
@@ -8731,7 +8701,7 @@
       <c r="A274" s="50"/>
       <c r="B274" s="21"/>
       <c r="C274" s="21"/>
-      <c r="D274" s="67"/>
+      <c r="D274" s="60"/>
       <c r="E274" s="52"/>
       <c r="F274" s="16"/>
       <c r="G274" s="16"/>
@@ -8760,7 +8730,7 @@
       <c r="A275" s="50"/>
       <c r="B275" s="21"/>
       <c r="C275" s="21"/>
-      <c r="D275" s="67"/>
+      <c r="D275" s="60"/>
       <c r="E275" s="52"/>
       <c r="F275" s="16"/>
       <c r="G275" s="16"/>
@@ -8789,7 +8759,7 @@
       <c r="A276" s="50"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
-      <c r="D276" s="67"/>
+      <c r="D276" s="60"/>
       <c r="E276" s="52"/>
       <c r="F276" s="16"/>
       <c r="G276" s="16"/>
@@ -8818,7 +8788,7 @@
       <c r="A277" s="50"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
-      <c r="D277" s="67"/>
+      <c r="D277" s="60"/>
       <c r="E277" s="52"/>
       <c r="F277" s="16"/>
       <c r="G277" s="16"/>
@@ -8847,7 +8817,7 @@
       <c r="A278" s="50"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
-      <c r="D278" s="67"/>
+      <c r="D278" s="60"/>
       <c r="E278" s="52"/>
       <c r="F278" s="16"/>
       <c r="G278" s="16"/>
@@ -8876,7 +8846,7 @@
       <c r="A279" s="50"/>
       <c r="B279" s="21"/>
       <c r="C279" s="21"/>
-      <c r="D279" s="67"/>
+      <c r="D279" s="60"/>
       <c r="E279" s="52"/>
       <c r="F279" s="16"/>
       <c r="G279" s="16"/>
@@ -8905,7 +8875,7 @@
       <c r="A280" s="50"/>
       <c r="B280" s="21"/>
       <c r="C280" s="21"/>
-      <c r="D280" s="67"/>
+      <c r="D280" s="60"/>
       <c r="E280" s="52"/>
       <c r="F280" s="16"/>
       <c r="G280" s="16"/>
@@ -8934,7 +8904,7 @@
       <c r="A281" s="50"/>
       <c r="B281" s="21"/>
       <c r="C281" s="21"/>
-      <c r="D281" s="67"/>
+      <c r="D281" s="60"/>
       <c r="E281" s="52"/>
       <c r="F281" s="16"/>
       <c r="G281" s="16"/>
@@ -8963,7 +8933,7 @@
       <c r="A282" s="50"/>
       <c r="B282" s="21"/>
       <c r="C282" s="21"/>
-      <c r="D282" s="67"/>
+      <c r="D282" s="60"/>
       <c r="E282" s="52"/>
       <c r="F282" s="16"/>
       <c r="G282" s="16"/>
@@ -8992,7 +8962,7 @@
       <c r="A283" s="50"/>
       <c r="B283" s="21"/>
       <c r="C283" s="21"/>
-      <c r="D283" s="67"/>
+      <c r="D283" s="60"/>
       <c r="E283" s="52"/>
       <c r="F283" s="16"/>
       <c r="G283" s="16"/>
@@ -9021,7 +8991,7 @@
       <c r="A284" s="50"/>
       <c r="B284" s="21"/>
       <c r="C284" s="21"/>
-      <c r="D284" s="67"/>
+      <c r="D284" s="60"/>
       <c r="E284" s="52"/>
       <c r="F284" s="16"/>
       <c r="G284" s="16"/>
@@ -9050,7 +9020,7 @@
       <c r="A285" s="50"/>
       <c r="B285" s="21"/>
       <c r="C285" s="21"/>
-      <c r="D285" s="67"/>
+      <c r="D285" s="60"/>
       <c r="E285" s="52"/>
       <c r="F285" s="16"/>
       <c r="G285" s="16"/>
@@ -9079,7 +9049,7 @@
       <c r="A286" s="50"/>
       <c r="B286" s="21"/>
       <c r="C286" s="21"/>
-      <c r="D286" s="67"/>
+      <c r="D286" s="60"/>
       <c r="E286" s="52"/>
       <c r="F286" s="16"/>
       <c r="G286" s="16"/>
@@ -9108,7 +9078,7 @@
       <c r="A287" s="50"/>
       <c r="B287" s="21"/>
       <c r="C287" s="21"/>
-      <c r="D287" s="67"/>
+      <c r="D287" s="60"/>
       <c r="E287" s="52"/>
       <c r="F287" s="16"/>
       <c r="G287" s="16"/>
@@ -9137,7 +9107,7 @@
       <c r="A288" s="50"/>
       <c r="B288" s="21"/>
       <c r="C288" s="21"/>
-      <c r="D288" s="67"/>
+      <c r="D288" s="60"/>
       <c r="E288" s="52"/>
       <c r="F288" s="16"/>
       <c r="G288" s="16"/>
@@ -9166,7 +9136,7 @@
       <c r="A289" s="50"/>
       <c r="B289" s="21"/>
       <c r="C289" s="21"/>
-      <c r="D289" s="67"/>
+      <c r="D289" s="60"/>
       <c r="E289" s="52"/>
       <c r="F289" s="16"/>
       <c r="G289" s="16"/>
@@ -9195,7 +9165,7 @@
       <c r="A290" s="50"/>
       <c r="B290" s="21"/>
       <c r="C290" s="21"/>
-      <c r="D290" s="67"/>
+      <c r="D290" s="60"/>
       <c r="E290" s="52"/>
       <c r="F290" s="16"/>
       <c r="G290" s="16"/>
@@ -9224,7 +9194,7 @@
       <c r="A291" s="50"/>
       <c r="B291" s="21"/>
       <c r="C291" s="21"/>
-      <c r="D291" s="67"/>
+      <c r="D291" s="60"/>
       <c r="E291" s="52"/>
       <c r="F291" s="16"/>
       <c r="G291" s="16"/>
@@ -9253,7 +9223,7 @@
       <c r="A292" s="50"/>
       <c r="B292" s="21"/>
       <c r="C292" s="21"/>
-      <c r="D292" s="67"/>
+      <c r="D292" s="60"/>
       <c r="E292" s="52"/>
       <c r="F292" s="16"/>
       <c r="G292" s="16"/>
@@ -9282,7 +9252,7 @@
       <c r="A293" s="50"/>
       <c r="B293" s="21"/>
       <c r="C293" s="21"/>
-      <c r="D293" s="67"/>
+      <c r="D293" s="60"/>
       <c r="E293" s="52"/>
       <c r="F293" s="16"/>
       <c r="G293" s="16"/>
@@ -9311,7 +9281,7 @@
       <c r="A294" s="50"/>
       <c r="B294" s="21"/>
       <c r="C294" s="21"/>
-      <c r="D294" s="67"/>
+      <c r="D294" s="60"/>
       <c r="E294" s="52"/>
       <c r="F294" s="16"/>
       <c r="G294" s="16"/>
@@ -9340,7 +9310,7 @@
       <c r="A295" s="50"/>
       <c r="B295" s="21"/>
       <c r="C295" s="21"/>
-      <c r="D295" s="67"/>
+      <c r="D295" s="60"/>
       <c r="E295" s="52"/>
       <c r="F295" s="16"/>
       <c r="G295" s="16"/>
@@ -9369,7 +9339,7 @@
       <c r="A296" s="50"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
-      <c r="D296" s="67"/>
+      <c r="D296" s="60"/>
       <c r="E296" s="52"/>
       <c r="F296" s="16"/>
       <c r="G296" s="16"/>
@@ -9398,7 +9368,7 @@
       <c r="A297" s="50"/>
       <c r="B297" s="21"/>
       <c r="C297" s="21"/>
-      <c r="D297" s="67"/>
+      <c r="D297" s="60"/>
       <c r="E297" s="52"/>
       <c r="F297" s="16"/>
       <c r="G297" s="16"/>
@@ -9427,7 +9397,7 @@
       <c r="A298" s="50"/>
       <c r="B298" s="21"/>
       <c r="C298" s="21"/>
-      <c r="D298" s="67"/>
+      <c r="D298" s="60"/>
       <c r="E298" s="52"/>
       <c r="F298" s="16"/>
       <c r="G298" s="16"/>
@@ -9456,7 +9426,7 @@
       <c r="A299" s="50"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
-      <c r="D299" s="67"/>
+      <c r="D299" s="60"/>
       <c r="E299" s="52"/>
       <c r="F299" s="16"/>
       <c r="G299" s="16"/>
@@ -9485,7 +9455,7 @@
       <c r="A300" s="50"/>
       <c r="B300" s="21"/>
       <c r="C300" s="21"/>
-      <c r="D300" s="67"/>
+      <c r="D300" s="60"/>
       <c r="E300" s="52"/>
       <c r="F300" s="16"/>
       <c r="G300" s="16"/>
@@ -9514,7 +9484,7 @@
       <c r="A301" s="50"/>
       <c r="B301" s="21"/>
       <c r="C301" s="21"/>
-      <c r="D301" s="67"/>
+      <c r="D301" s="60"/>
       <c r="E301" s="52"/>
       <c r="F301" s="16"/>
       <c r="G301" s="16"/>
@@ -9543,7 +9513,7 @@
       <c r="A302" s="50"/>
       <c r="B302" s="21"/>
       <c r="C302" s="21"/>
-      <c r="D302" s="67"/>
+      <c r="D302" s="60"/>
       <c r="E302" s="52"/>
       <c r="F302" s="16"/>
       <c r="G302" s="16"/>
@@ -9572,7 +9542,7 @@
       <c r="A303" s="50"/>
       <c r="B303" s="21"/>
       <c r="C303" s="21"/>
-      <c r="D303" s="67"/>
+      <c r="D303" s="60"/>
       <c r="E303" s="52"/>
       <c r="F303" s="16"/>
       <c r="G303" s="16"/>
@@ -9601,7 +9571,7 @@
       <c r="A304" s="50"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
-      <c r="D304" s="67"/>
+      <c r="D304" s="60"/>
       <c r="E304" s="52"/>
       <c r="F304" s="16"/>
       <c r="G304" s="16"/>
@@ -9630,7 +9600,7 @@
       <c r="A305" s="50"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
-      <c r="D305" s="67"/>
+      <c r="D305" s="60"/>
       <c r="E305" s="52"/>
       <c r="F305" s="16"/>
       <c r="G305" s="16"/>
@@ -9659,7 +9629,7 @@
       <c r="A306" s="50"/>
       <c r="B306" s="21"/>
       <c r="C306" s="21"/>
-      <c r="D306" s="67"/>
+      <c r="D306" s="60"/>
       <c r="E306" s="52"/>
       <c r="F306" s="16"/>
       <c r="G306" s="16"/>
@@ -9688,7 +9658,7 @@
       <c r="A307" s="50"/>
       <c r="B307" s="21"/>
       <c r="C307" s="21"/>
-      <c r="D307" s="67"/>
+      <c r="D307" s="60"/>
       <c r="E307" s="52"/>
       <c r="F307" s="16"/>
       <c r="G307" s="16"/>
@@ -9717,7 +9687,7 @@
       <c r="A308" s="50"/>
       <c r="B308" s="21"/>
       <c r="C308" s="21"/>
-      <c r="D308" s="67"/>
+      <c r="D308" s="60"/>
       <c r="E308" s="52"/>
       <c r="F308" s="16"/>
       <c r="G308" s="16"/>
@@ -9746,7 +9716,7 @@
       <c r="A309" s="50"/>
       <c r="B309" s="21"/>
       <c r="C309" s="21"/>
-      <c r="D309" s="67"/>
+      <c r="D309" s="60"/>
       <c r="E309" s="52"/>
       <c r="F309" s="16"/>
       <c r="G309" s="16"/>
@@ -9775,7 +9745,7 @@
       <c r="A310" s="50"/>
       <c r="B310" s="21"/>
       <c r="C310" s="21"/>
-      <c r="D310" s="67"/>
+      <c r="D310" s="60"/>
       <c r="E310" s="52"/>
       <c r="F310" s="16"/>
       <c r="G310" s="16"/>
@@ -9804,7 +9774,7 @@
       <c r="A311" s="50"/>
       <c r="B311" s="21"/>
       <c r="C311" s="21"/>
-      <c r="D311" s="67"/>
+      <c r="D311" s="60"/>
       <c r="E311" s="52"/>
       <c r="F311" s="16"/>
       <c r="G311" s="16"/>
@@ -9833,7 +9803,7 @@
       <c r="A312" s="50"/>
       <c r="B312" s="21"/>
       <c r="C312" s="21"/>
-      <c r="D312" s="67"/>
+      <c r="D312" s="60"/>
       <c r="E312" s="52"/>
       <c r="F312" s="16"/>
       <c r="G312" s="16"/>
@@ -9862,7 +9832,7 @@
       <c r="A313" s="50"/>
       <c r="B313" s="21"/>
       <c r="C313" s="21"/>
-      <c r="D313" s="67"/>
+      <c r="D313" s="60"/>
       <c r="E313" s="52"/>
       <c r="F313" s="16"/>
       <c r="G313" s="16"/>
@@ -9891,7 +9861,7 @@
       <c r="A314" s="50"/>
       <c r="B314" s="21"/>
       <c r="C314" s="21"/>
-      <c r="D314" s="67"/>
+      <c r="D314" s="60"/>
       <c r="E314" s="52"/>
       <c r="F314" s="16"/>
       <c r="G314" s="16"/>
@@ -9920,7 +9890,7 @@
       <c r="A315" s="50"/>
       <c r="B315" s="21"/>
       <c r="C315" s="21"/>
-      <c r="D315" s="67"/>
+      <c r="D315" s="60"/>
       <c r="E315" s="52"/>
       <c r="F315" s="16"/>
       <c r="G315" s="16"/>
@@ -9949,7 +9919,7 @@
       <c r="A316" s="50"/>
       <c r="B316" s="21"/>
       <c r="C316" s="21"/>
-      <c r="D316" s="67"/>
+      <c r="D316" s="60"/>
       <c r="E316" s="52"/>
       <c r="F316" s="16"/>
       <c r="G316" s="16"/>
@@ -9978,7 +9948,7 @@
       <c r="A317" s="50"/>
       <c r="B317" s="21"/>
       <c r="C317" s="21"/>
-      <c r="D317" s="67"/>
+      <c r="D317" s="60"/>
       <c r="E317" s="52"/>
       <c r="F317" s="16"/>
       <c r="G317" s="16"/>
@@ -10007,7 +9977,7 @@
       <c r="A318" s="50"/>
       <c r="B318" s="21"/>
       <c r="C318" s="21"/>
-      <c r="D318" s="67"/>
+      <c r="D318" s="60"/>
       <c r="E318" s="52"/>
       <c r="F318" s="16"/>
       <c r="G318" s="16"/>
@@ -10036,7 +10006,7 @@
       <c r="A319" s="50"/>
       <c r="B319" s="21"/>
       <c r="C319" s="21"/>
-      <c r="D319" s="67"/>
+      <c r="D319" s="60"/>
       <c r="E319" s="52"/>
       <c r="F319" s="16"/>
       <c r="G319" s="16"/>
@@ -10065,7 +10035,7 @@
       <c r="A320" s="50"/>
       <c r="B320" s="21"/>
       <c r="C320" s="21"/>
-      <c r="D320" s="67"/>
+      <c r="D320" s="60"/>
       <c r="E320" s="52"/>
       <c r="F320" s="16"/>
       <c r="G320" s="16"/>
@@ -10094,7 +10064,7 @@
       <c r="A321" s="50"/>
       <c r="B321" s="21"/>
       <c r="C321" s="21"/>
-      <c r="D321" s="67"/>
+      <c r="D321" s="60"/>
       <c r="E321" s="52"/>
       <c r="F321" s="16"/>
       <c r="G321" s="16"/>
@@ -10123,7 +10093,7 @@
       <c r="A322" s="50"/>
       <c r="B322" s="21"/>
       <c r="C322" s="21"/>
-      <c r="D322" s="67"/>
+      <c r="D322" s="60"/>
       <c r="E322" s="52"/>
       <c r="F322" s="16"/>
       <c r="G322" s="16"/>
@@ -10152,7 +10122,7 @@
       <c r="A323" s="50"/>
       <c r="B323" s="21"/>
       <c r="C323" s="21"/>
-      <c r="D323" s="67"/>
+      <c r="D323" s="60"/>
       <c r="E323" s="52"/>
       <c r="F323" s="16"/>
       <c r="G323" s="16"/>
@@ -10181,7 +10151,7 @@
       <c r="A324" s="50"/>
       <c r="B324" s="21"/>
       <c r="C324" s="21"/>
-      <c r="D324" s="67"/>
+      <c r="D324" s="60"/>
       <c r="E324" s="52"/>
       <c r="F324" s="16"/>
       <c r="G324" s="16"/>
@@ -10210,7 +10180,7 @@
       <c r="A325" s="50"/>
       <c r="B325" s="21"/>
       <c r="C325" s="21"/>
-      <c r="D325" s="67"/>
+      <c r="D325" s="60"/>
       <c r="E325" s="52"/>
       <c r="F325" s="16"/>
       <c r="G325" s="16"/>
@@ -10239,7 +10209,7 @@
       <c r="A326" s="50"/>
       <c r="B326" s="21"/>
       <c r="C326" s="21"/>
-      <c r="D326" s="67"/>
+      <c r="D326" s="60"/>
       <c r="E326" s="52"/>
       <c r="F326" s="16"/>
       <c r="G326" s="16"/>
@@ -10268,7 +10238,7 @@
       <c r="A327" s="50"/>
       <c r="B327" s="21"/>
       <c r="C327" s="21"/>
-      <c r="D327" s="67"/>
+      <c r="D327" s="60"/>
       <c r="E327" s="52"/>
       <c r="F327" s="16"/>
       <c r="G327" s="16"/>
@@ -10297,7 +10267,7 @@
       <c r="A328" s="50"/>
       <c r="B328" s="21"/>
       <c r="C328" s="21"/>
-      <c r="D328" s="67"/>
+      <c r="D328" s="60"/>
       <c r="E328" s="52"/>
       <c r="F328" s="16"/>
       <c r="G328" s="16"/>
@@ -10326,7 +10296,7 @@
       <c r="A329" s="50"/>
       <c r="B329" s="21"/>
       <c r="C329" s="21"/>
-      <c r="D329" s="67"/>
+      <c r="D329" s="60"/>
       <c r="E329" s="52"/>
       <c r="F329" s="16"/>
       <c r="G329" s="16"/>
@@ -10355,7 +10325,7 @@
       <c r="A330" s="50"/>
       <c r="B330" s="21"/>
       <c r="C330" s="21"/>
-      <c r="D330" s="67"/>
+      <c r="D330" s="60"/>
       <c r="E330" s="52"/>
       <c r="F330" s="16"/>
       <c r="G330" s="16"/>
@@ -10384,7 +10354,7 @@
       <c r="A331" s="50"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
-      <c r="D331" s="67"/>
+      <c r="D331" s="60"/>
       <c r="E331" s="52"/>
       <c r="F331" s="16"/>
       <c r="G331" s="16"/>
@@ -10413,7 +10383,7 @@
       <c r="A332" s="50"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
-      <c r="D332" s="67"/>
+      <c r="D332" s="60"/>
       <c r="E332" s="52"/>
       <c r="F332" s="16"/>
       <c r="G332" s="16"/>
@@ -10442,7 +10412,7 @@
       <c r="A333" s="50"/>
       <c r="B333" s="21"/>
       <c r="C333" s="21"/>
-      <c r="D333" s="67"/>
+      <c r="D333" s="60"/>
       <c r="E333" s="52"/>
       <c r="F333" s="16"/>
       <c r="G333" s="16"/>
@@ -10471,7 +10441,7 @@
       <c r="A334" s="50"/>
       <c r="B334" s="21"/>
       <c r="C334" s="21"/>
-      <c r="D334" s="67"/>
+      <c r="D334" s="60"/>
       <c r="E334" s="52"/>
       <c r="F334" s="16"/>
       <c r="G334" s="16"/>
@@ -10500,7 +10470,7 @@
       <c r="A335" s="50"/>
       <c r="B335" s="21"/>
       <c r="C335" s="21"/>
-      <c r="D335" s="67"/>
+      <c r="D335" s="60"/>
       <c r="E335" s="52"/>
       <c r="F335" s="16"/>
       <c r="G335" s="16"/>
@@ -10529,7 +10499,7 @@
       <c r="A336" s="50"/>
       <c r="B336" s="21"/>
       <c r="C336" s="21"/>
-      <c r="D336" s="67"/>
+      <c r="D336" s="60"/>
       <c r="E336" s="52"/>
       <c r="F336" s="16"/>
       <c r="G336" s="16"/>
@@ -10558,7 +10528,7 @@
       <c r="A337" s="50"/>
       <c r="B337" s="21"/>
       <c r="C337" s="21"/>
-      <c r="D337" s="67"/>
+      <c r="D337" s="60"/>
       <c r="E337" s="52"/>
       <c r="F337" s="16"/>
       <c r="G337" s="16"/>
@@ -10587,7 +10557,7 @@
       <c r="A338" s="50"/>
       <c r="B338" s="21"/>
       <c r="C338" s="21"/>
-      <c r="D338" s="67"/>
+      <c r="D338" s="60"/>
       <c r="E338" s="52"/>
       <c r="F338" s="16"/>
       <c r="G338" s="16"/>
@@ -10616,7 +10586,7 @@
       <c r="A339" s="50"/>
       <c r="B339" s="21"/>
       <c r="C339" s="21"/>
-      <c r="D339" s="67"/>
+      <c r="D339" s="60"/>
       <c r="E339" s="52"/>
       <c r="F339" s="16"/>
       <c r="G339" s="16"/>
@@ -10645,7 +10615,7 @@
       <c r="A340" s="50"/>
       <c r="B340" s="21"/>
       <c r="C340" s="21"/>
-      <c r="D340" s="67"/>
+      <c r="D340" s="60"/>
       <c r="E340" s="52"/>
       <c r="F340" s="16"/>
       <c r="G340" s="16"/>
@@ -10674,7 +10644,7 @@
       <c r="A341" s="50"/>
       <c r="B341" s="21"/>
       <c r="C341" s="21"/>
-      <c r="D341" s="67"/>
+      <c r="D341" s="60"/>
       <c r="E341" s="52"/>
       <c r="F341" s="16"/>
       <c r="G341" s="16"/>
@@ -10703,7 +10673,7 @@
       <c r="A342" s="50"/>
       <c r="B342" s="21"/>
       <c r="C342" s="21"/>
-      <c r="D342" s="67"/>
+      <c r="D342" s="60"/>
       <c r="E342" s="52"/>
       <c r="F342" s="16"/>
       <c r="G342" s="16"/>
@@ -10732,7 +10702,7 @@
       <c r="A343" s="50"/>
       <c r="B343" s="21"/>
       <c r="C343" s="21"/>
-      <c r="D343" s="67"/>
+      <c r="D343" s="60"/>
       <c r="E343" s="52"/>
       <c r="F343" s="16"/>
       <c r="G343" s="16"/>
@@ -10761,7 +10731,7 @@
       <c r="A344" s="50"/>
       <c r="B344" s="21"/>
       <c r="C344" s="21"/>
-      <c r="D344" s="67"/>
+      <c r="D344" s="60"/>
       <c r="E344" s="52"/>
       <c r="F344" s="16"/>
       <c r="G344" s="16"/>
@@ -10790,7 +10760,7 @@
       <c r="A345" s="50"/>
       <c r="B345" s="21"/>
       <c r="C345" s="21"/>
-      <c r="D345" s="67"/>
+      <c r="D345" s="60"/>
       <c r="E345" s="52"/>
       <c r="F345" s="16"/>
       <c r="G345" s="16"/>
@@ -10819,7 +10789,7 @@
       <c r="A346" s="50"/>
       <c r="B346" s="21"/>
       <c r="C346" s="21"/>
-      <c r="D346" s="67"/>
+      <c r="D346" s="60"/>
       <c r="E346" s="52"/>
       <c r="F346" s="16"/>
       <c r="G346" s="16"/>
@@ -10848,7 +10818,7 @@
       <c r="A347" s="50"/>
       <c r="B347" s="21"/>
       <c r="C347" s="21"/>
-      <c r="D347" s="67"/>
+      <c r="D347" s="60"/>
       <c r="E347" s="52"/>
       <c r="F347" s="16"/>
       <c r="G347" s="16"/>
@@ -10877,7 +10847,7 @@
       <c r="A348" s="50"/>
       <c r="B348" s="21"/>
       <c r="C348" s="21"/>
-      <c r="D348" s="67"/>
+      <c r="D348" s="60"/>
       <c r="E348" s="52"/>
       <c r="F348" s="16"/>
       <c r="G348" s="16"/>
@@ -10906,7 +10876,7 @@
       <c r="A349" s="50"/>
       <c r="B349" s="21"/>
       <c r="C349" s="21"/>
-      <c r="D349" s="67"/>
+      <c r="D349" s="60"/>
       <c r="E349" s="52"/>
       <c r="F349" s="16"/>
       <c r="G349" s="16"/>
@@ -10935,7 +10905,7 @@
       <c r="A350" s="50"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
-      <c r="D350" s="67"/>
+      <c r="D350" s="60"/>
       <c r="E350" s="52"/>
       <c r="F350" s="16"/>
       <c r="G350" s="16"/>
@@ -10964,7 +10934,7 @@
       <c r="A351" s="50"/>
       <c r="B351" s="21"/>
       <c r="C351" s="21"/>
-      <c r="D351" s="67"/>
+      <c r="D351" s="60"/>
       <c r="E351" s="52"/>
       <c r="F351" s="16"/>
       <c r="G351" s="16"/>
@@ -10993,7 +10963,7 @@
       <c r="A352" s="50"/>
       <c r="B352" s="21"/>
       <c r="C352" s="21"/>
-      <c r="D352" s="67"/>
+      <c r="D352" s="60"/>
       <c r="E352" s="52"/>
       <c r="F352" s="16"/>
       <c r="G352" s="16"/>
@@ -11022,7 +10992,7 @@
       <c r="A353" s="50"/>
       <c r="B353" s="21"/>
       <c r="C353" s="21"/>
-      <c r="D353" s="67"/>
+      <c r="D353" s="60"/>
       <c r="E353" s="52"/>
       <c r="F353" s="16"/>
       <c r="G353" s="16"/>
@@ -11051,7 +11021,7 @@
       <c r="A354" s="50"/>
       <c r="B354" s="21"/>
       <c r="C354" s="21"/>
-      <c r="D354" s="67"/>
+      <c r="D354" s="60"/>
       <c r="E354" s="52"/>
       <c r="F354" s="16"/>
       <c r="G354" s="16"/>
@@ -11080,7 +11050,7 @@
       <c r="A355" s="50"/>
       <c r="B355" s="21"/>
       <c r="C355" s="21"/>
-      <c r="D355" s="67"/>
+      <c r="D355" s="60"/>
       <c r="E355" s="52"/>
       <c r="F355" s="16"/>
       <c r="G355" s="16"/>
@@ -11109,7 +11079,7 @@
       <c r="A356" s="50"/>
       <c r="B356" s="21"/>
       <c r="C356" s="21"/>
-      <c r="D356" s="67"/>
+      <c r="D356" s="60"/>
       <c r="E356" s="52"/>
       <c r="F356" s="16"/>
       <c r="G356" s="16"/>
@@ -11138,7 +11108,7 @@
       <c r="A357" s="50"/>
       <c r="B357" s="21"/>
       <c r="C357" s="21"/>
-      <c r="D357" s="67"/>
+      <c r="D357" s="60"/>
       <c r="E357" s="52"/>
       <c r="F357" s="16"/>
       <c r="G357" s="16"/>
@@ -11167,7 +11137,7 @@
       <c r="A358" s="50"/>
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
-      <c r="D358" s="67"/>
+      <c r="D358" s="60"/>
       <c r="E358" s="52"/>
       <c r="F358" s="16"/>
       <c r="G358" s="16"/>
@@ -11196,7 +11166,7 @@
       <c r="A359" s="50"/>
       <c r="B359" s="21"/>
       <c r="C359" s="21"/>
-      <c r="D359" s="67"/>
+      <c r="D359" s="60"/>
       <c r="E359" s="52"/>
       <c r="F359" s="16"/>
       <c r="G359" s="16"/>
@@ -11225,7 +11195,7 @@
       <c r="A360" s="50"/>
       <c r="B360" s="21"/>
       <c r="C360" s="21"/>
-      <c r="D360" s="67"/>
+      <c r="D360" s="60"/>
       <c r="E360" s="52"/>
       <c r="F360" s="16"/>
       <c r="G360" s="16"/>
@@ -11254,7 +11224,7 @@
       <c r="A361" s="50"/>
       <c r="B361" s="21"/>
       <c r="C361" s="21"/>
-      <c r="D361" s="67"/>
+      <c r="D361" s="60"/>
       <c r="E361" s="52"/>
       <c r="F361" s="16"/>
       <c r="G361" s="16"/>
@@ -11283,7 +11253,7 @@
       <c r="A362" s="50"/>
       <c r="B362" s="21"/>
       <c r="C362" s="21"/>
-      <c r="D362" s="67"/>
+      <c r="D362" s="60"/>
       <c r="E362" s="52"/>
       <c r="F362" s="16"/>
       <c r="G362" s="16"/>
@@ -11312,7 +11282,7 @@
       <c r="A363" s="50"/>
       <c r="B363" s="21"/>
       <c r="C363" s="21"/>
-      <c r="D363" s="67"/>
+      <c r="D363" s="60"/>
       <c r="E363" s="52"/>
       <c r="F363" s="16"/>
       <c r="G363" s="16"/>
@@ -11341,7 +11311,7 @@
       <c r="A364" s="50"/>
       <c r="B364" s="21"/>
       <c r="C364" s="21"/>
-      <c r="D364" s="67"/>
+      <c r="D364" s="60"/>
       <c r="E364" s="52"/>
       <c r="F364" s="16"/>
       <c r="G364" s="16"/>
@@ -11370,7 +11340,7 @@
       <c r="A365" s="50"/>
       <c r="B365" s="21"/>
       <c r="C365" s="21"/>
-      <c r="D365" s="67"/>
+      <c r="D365" s="60"/>
       <c r="E365" s="52"/>
       <c r="F365" s="16"/>
       <c r="G365" s="16"/>
@@ -11399,7 +11369,7 @@
       <c r="A366" s="50"/>
       <c r="B366" s="21"/>
       <c r="C366" s="21"/>
-      <c r="D366" s="67"/>
+      <c r="D366" s="60"/>
       <c r="E366" s="52"/>
       <c r="F366" s="16"/>
       <c r="G366" s="16"/>
@@ -11428,7 +11398,7 @@
       <c r="A367" s="50"/>
       <c r="B367" s="21"/>
       <c r="C367" s="21"/>
-      <c r="D367" s="67"/>
+      <c r="D367" s="60"/>
       <c r="E367" s="52"/>
       <c r="F367" s="16"/>
       <c r="G367" s="16"/>
@@ -11457,7 +11427,7 @@
       <c r="A368" s="50"/>
       <c r="B368" s="21"/>
       <c r="C368" s="21"/>
-      <c r="D368" s="67"/>
+      <c r="D368" s="60"/>
       <c r="E368" s="52"/>
       <c r="F368" s="16"/>
       <c r="G368" s="16"/>
@@ -11486,7 +11456,7 @@
       <c r="A369" s="50"/>
       <c r="B369" s="21"/>
       <c r="C369" s="21"/>
-      <c r="D369" s="67"/>
+      <c r="D369" s="60"/>
       <c r="E369" s="52"/>
       <c r="F369" s="16"/>
       <c r="G369" s="16"/>
@@ -11515,7 +11485,7 @@
       <c r="A370" s="50"/>
       <c r="B370" s="21"/>
       <c r="C370" s="21"/>
-      <c r="D370" s="67"/>
+      <c r="D370" s="60"/>
       <c r="E370" s="52"/>
       <c r="F370" s="16"/>
       <c r="G370" s="16"/>
@@ -11544,7 +11514,7 @@
       <c r="A371" s="50"/>
       <c r="B371" s="21"/>
       <c r="C371" s="21"/>
-      <c r="D371" s="67"/>
+      <c r="D371" s="60"/>
       <c r="E371" s="52"/>
       <c r="F371" s="16"/>
       <c r="G371" s="16"/>
@@ -11573,7 +11543,7 @@
       <c r="A372" s="50"/>
       <c r="B372" s="21"/>
       <c r="C372" s="21"/>
-      <c r="D372" s="67"/>
+      <c r="D372" s="60"/>
       <c r="E372" s="52"/>
       <c r="F372" s="16"/>
       <c r="G372" s="16"/>
@@ -11602,7 +11572,7 @@
       <c r="A373" s="50"/>
       <c r="B373" s="21"/>
       <c r="C373" s="21"/>
-      <c r="D373" s="67"/>
+      <c r="D373" s="60"/>
       <c r="E373" s="52"/>
       <c r="F373" s="16"/>
       <c r="G373" s="16"/>
@@ -11631,7 +11601,7 @@
       <c r="A374" s="50"/>
       <c r="B374" s="21"/>
       <c r="C374" s="21"/>
-      <c r="D374" s="67"/>
+      <c r="D374" s="60"/>
       <c r="E374" s="52"/>
       <c r="F374" s="16"/>
       <c r="G374" s="16"/>
@@ -11660,7 +11630,7 @@
       <c r="A375" s="50"/>
       <c r="B375" s="21"/>
       <c r="C375" s="21"/>
-      <c r="D375" s="67"/>
+      <c r="D375" s="60"/>
       <c r="E375" s="52"/>
       <c r="F375" s="16"/>
       <c r="G375" s="16"/>
@@ -11689,7 +11659,7 @@
       <c r="A376" s="50"/>
       <c r="B376" s="21"/>
       <c r="C376" s="21"/>
-      <c r="D376" s="67"/>
+      <c r="D376" s="60"/>
       <c r="E376" s="52"/>
       <c r="F376" s="16"/>
       <c r="G376" s="16"/>
@@ -11718,7 +11688,7 @@
       <c r="A377" s="50"/>
       <c r="B377" s="21"/>
       <c r="C377" s="21"/>
-      <c r="D377" s="67"/>
+      <c r="D377" s="60"/>
       <c r="E377" s="52"/>
       <c r="F377" s="16"/>
       <c r="G377" s="16"/>
@@ -11747,7 +11717,7 @@
       <c r="A378" s="50"/>
       <c r="B378" s="21"/>
       <c r="C378" s="21"/>
-      <c r="D378" s="67"/>
+      <c r="D378" s="60"/>
       <c r="E378" s="52"/>
       <c r="F378" s="16"/>
       <c r="G378" s="16"/>
@@ -11776,7 +11746,7 @@
       <c r="A379" s="50"/>
       <c r="B379" s="21"/>
       <c r="C379" s="21"/>
-      <c r="D379" s="67"/>
+      <c r="D379" s="60"/>
       <c r="E379" s="52"/>
       <c r="F379" s="16"/>
       <c r="G379" s="16"/>
@@ -11805,7 +11775,7 @@
       <c r="A380" s="50"/>
       <c r="B380" s="21"/>
       <c r="C380" s="21"/>
-      <c r="D380" s="67"/>
+      <c r="D380" s="60"/>
       <c r="E380" s="52"/>
       <c r="F380" s="16"/>
       <c r="G380" s="16"/>
@@ -11834,7 +11804,7 @@
       <c r="A381" s="50"/>
       <c r="B381" s="21"/>
       <c r="C381" s="21"/>
-      <c r="D381" s="67"/>
+      <c r="D381" s="60"/>
       <c r="E381" s="52"/>
       <c r="F381" s="16"/>
       <c r="G381" s="16"/>
@@ -11863,7 +11833,7 @@
       <c r="A382" s="50"/>
       <c r="B382" s="21"/>
       <c r="C382" s="21"/>
-      <c r="D382" s="67"/>
+      <c r="D382" s="60"/>
       <c r="E382" s="52"/>
       <c r="F382" s="16"/>
       <c r="G382" s="16"/>
@@ -11892,7 +11862,7 @@
       <c r="A383" s="50"/>
       <c r="B383" s="21"/>
       <c r="C383" s="21"/>
-      <c r="D383" s="67"/>
+      <c r="D383" s="60"/>
       <c r="E383" s="52"/>
       <c r="F383" s="16"/>
       <c r="G383" s="16"/>
@@ -11921,7 +11891,7 @@
       <c r="A384" s="50"/>
       <c r="B384" s="21"/>
       <c r="C384" s="21"/>
-      <c r="D384" s="67"/>
+      <c r="D384" s="60"/>
       <c r="E384" s="52"/>
       <c r="F384" s="16"/>
       <c r="G384" s="16"/>
@@ -11950,7 +11920,7 @@
       <c r="A385" s="50"/>
       <c r="B385" s="21"/>
       <c r="C385" s="21"/>
-      <c r="D385" s="67"/>
+      <c r="D385" s="60"/>
       <c r="E385" s="52"/>
       <c r="F385" s="16"/>
       <c r="G385" s="16"/>
@@ -11979,7 +11949,7 @@
       <c r="A386" s="50"/>
       <c r="B386" s="21"/>
       <c r="C386" s="21"/>
-      <c r="D386" s="67"/>
+      <c r="D386" s="60"/>
       <c r="E386" s="52"/>
       <c r="F386" s="16"/>
       <c r="G386" s="16"/>
@@ -12008,7 +11978,7 @@
       <c r="A387" s="50"/>
       <c r="B387" s="21"/>
       <c r="C387" s="21"/>
-      <c r="D387" s="67"/>
+      <c r="D387" s="60"/>
       <c r="E387" s="52"/>
       <c r="F387" s="16"/>
       <c r="G387" s="16"/>
@@ -12037,7 +12007,7 @@
       <c r="A388" s="50"/>
       <c r="B388" s="21"/>
       <c r="C388" s="21"/>
-      <c r="D388" s="67"/>
+      <c r="D388" s="60"/>
       <c r="E388" s="52"/>
       <c r="F388" s="16"/>
       <c r="G388" s="16"/>
@@ -12066,7 +12036,7 @@
       <c r="A389" s="50"/>
       <c r="B389" s="21"/>
       <c r="C389" s="21"/>
-      <c r="D389" s="67"/>
+      <c r="D389" s="60"/>
       <c r="E389" s="52"/>
       <c r="F389" s="16"/>
       <c r="G389" s="16"/>
@@ -12095,7 +12065,7 @@
       <c r="A390" s="50"/>
       <c r="B390" s="21"/>
       <c r="C390" s="21"/>
-      <c r="D390" s="67"/>
+      <c r="D390" s="60"/>
       <c r="E390" s="52"/>
       <c r="F390" s="16"/>
       <c r="G390" s="16"/>
@@ -12124,7 +12094,7 @@
       <c r="A391" s="50"/>
       <c r="B391" s="21"/>
       <c r="C391" s="21"/>
-      <c r="D391" s="67"/>
+      <c r="D391" s="60"/>
       <c r="E391" s="52"/>
       <c r="F391" s="16"/>
       <c r="G391" s="16"/>
@@ -12153,7 +12123,7 @@
       <c r="A392" s="50"/>
       <c r="B392" s="21"/>
       <c r="C392" s="21"/>
-      <c r="D392" s="67"/>
+      <c r="D392" s="60"/>
       <c r="E392" s="52"/>
       <c r="F392" s="16"/>
       <c r="G392" s="16"/>
@@ -12182,7 +12152,7 @@
       <c r="A393" s="50"/>
       <c r="B393" s="21"/>
       <c r="C393" s="21"/>
-      <c r="D393" s="67"/>
+      <c r="D393" s="60"/>
       <c r="E393" s="52"/>
       <c r="F393" s="16"/>
       <c r="G393" s="16"/>
@@ -12211,7 +12181,7 @@
       <c r="A394" s="50"/>
       <c r="B394" s="21"/>
       <c r="C394" s="21"/>
-      <c r="D394" s="67"/>
+      <c r="D394" s="60"/>
       <c r="E394" s="52"/>
       <c r="F394" s="16"/>
       <c r="G394" s="16"/>
@@ -12240,7 +12210,7 @@
       <c r="A395" s="50"/>
       <c r="B395" s="21"/>
       <c r="C395" s="21"/>
-      <c r="D395" s="67"/>
+      <c r="D395" s="60"/>
       <c r="E395" s="52"/>
       <c r="F395" s="16"/>
       <c r="G395" s="16"/>
@@ -12269,7 +12239,7 @@
       <c r="A396" s="50"/>
       <c r="B396" s="21"/>
       <c r="C396" s="21"/>
-      <c r="D396" s="67"/>
+      <c r="D396" s="60"/>
       <c r="E396" s="52"/>
       <c r="F396" s="16"/>
       <c r="G396" s="16"/>
@@ -12298,7 +12268,7 @@
       <c r="A397" s="50"/>
       <c r="B397" s="21"/>
       <c r="C397" s="21"/>
-      <c r="D397" s="67"/>
+      <c r="D397" s="60"/>
       <c r="E397" s="52"/>
       <c r="F397" s="16"/>
       <c r="G397" s="16"/>
@@ -12327,7 +12297,7 @@
       <c r="A398" s="50"/>
       <c r="B398" s="21"/>
       <c r="C398" s="21"/>
-      <c r="D398" s="67"/>
+      <c r="D398" s="60"/>
       <c r="E398" s="52"/>
       <c r="F398" s="16"/>
       <c r="G398" s="16"/>
@@ -12356,7 +12326,7 @@
       <c r="A399" s="50"/>
       <c r="B399" s="21"/>
       <c r="C399" s="21"/>
-      <c r="D399" s="67"/>
+      <c r="D399" s="60"/>
       <c r="E399" s="52"/>
       <c r="F399" s="16"/>
       <c r="G399" s="16"/>
@@ -12385,7 +12355,7 @@
       <c r="A400" s="50"/>
       <c r="B400" s="21"/>
       <c r="C400" s="21"/>
-      <c r="D400" s="67"/>
+      <c r="D400" s="60"/>
       <c r="E400" s="52"/>
       <c r="F400" s="16"/>
       <c r="G400" s="16"/>
@@ -12414,7 +12384,7 @@
       <c r="A401" s="50"/>
       <c r="B401" s="21"/>
       <c r="C401" s="21"/>
-      <c r="D401" s="67"/>
+      <c r="D401" s="60"/>
       <c r="E401" s="52"/>
       <c r="F401" s="16"/>
       <c r="G401" s="16"/>
@@ -12443,7 +12413,7 @@
       <c r="A402" s="50"/>
       <c r="B402" s="21"/>
       <c r="C402" s="21"/>
-      <c r="D402" s="67"/>
+      <c r="D402" s="60"/>
       <c r="E402" s="52"/>
       <c r="F402" s="16"/>
       <c r="G402" s="16"/>
@@ -12472,7 +12442,7 @@
       <c r="A403" s="50"/>
       <c r="B403" s="21"/>
       <c r="C403" s="21"/>
-      <c r="D403" s="67"/>
+      <c r="D403" s="60"/>
       <c r="E403" s="52"/>
       <c r="F403" s="16"/>
       <c r="G403" s="16"/>
@@ -12501,7 +12471,7 @@
       <c r="A404" s="50"/>
       <c r="B404" s="21"/>
       <c r="C404" s="21"/>
-      <c r="D404" s="67"/>
+      <c r="D404" s="60"/>
       <c r="E404" s="52"/>
       <c r="F404" s="16"/>
       <c r="G404" s="16"/>
@@ -12530,7 +12500,7 @@
       <c r="A405" s="50"/>
       <c r="B405" s="21"/>
       <c r="C405" s="21"/>
-      <c r="D405" s="67"/>
+      <c r="D405" s="60"/>
       <c r="E405" s="52"/>
       <c r="F405" s="16"/>
       <c r="G405" s="16"/>
@@ -12559,7 +12529,7 @@
       <c r="A406" s="50"/>
       <c r="B406" s="21"/>
       <c r="C406" s="21"/>
-      <c r="D406" s="67"/>
+      <c r="D406" s="60"/>
       <c r="E406" s="52"/>
       <c r="F406" s="16"/>
       <c r="G406" s="16"/>
@@ -12588,7 +12558,7 @@
       <c r="A407" s="50"/>
       <c r="B407" s="21"/>
       <c r="C407" s="21"/>
-      <c r="D407" s="67"/>
+      <c r="D407" s="60"/>
       <c r="E407" s="52"/>
       <c r="F407" s="16"/>
       <c r="G407" s="16"/>
@@ -12617,7 +12587,7 @@
       <c r="A408" s="50"/>
       <c r="B408" s="21"/>
       <c r="C408" s="21"/>
-      <c r="D408" s="67"/>
+      <c r="D408" s="60"/>
       <c r="E408" s="52"/>
       <c r="F408" s="16"/>
       <c r="G408" s="16"/>
@@ -12646,7 +12616,7 @@
       <c r="A409" s="50"/>
       <c r="B409" s="21"/>
       <c r="C409" s="21"/>
-      <c r="D409" s="67"/>
+      <c r="D409" s="60"/>
       <c r="E409" s="52"/>
       <c r="F409" s="16"/>
       <c r="G409" s="16"/>
@@ -12675,7 +12645,7 @@
       <c r="A410" s="50"/>
       <c r="B410" s="21"/>
       <c r="C410" s="21"/>
-      <c r="D410" s="67"/>
+      <c r="D410" s="60"/>
       <c r="E410" s="52"/>
       <c r="F410" s="16"/>
       <c r="G410" s="16"/>
@@ -12704,7 +12674,7 @@
       <c r="A411" s="50"/>
       <c r="B411" s="21"/>
       <c r="C411" s="21"/>
-      <c r="D411" s="67"/>
+      <c r="D411" s="60"/>
       <c r="E411" s="52"/>
       <c r="F411" s="16"/>
       <c r="G411" s="16"/>
@@ -12733,7 +12703,7 @@
       <c r="A412" s="50"/>
       <c r="B412" s="21"/>
       <c r="C412" s="21"/>
-      <c r="D412" s="67"/>
+      <c r="D412" s="60"/>
       <c r="E412" s="52"/>
       <c r="F412" s="16"/>
       <c r="G412" s="16"/>
@@ -12762,7 +12732,7 @@
       <c r="A413" s="50"/>
       <c r="B413" s="21"/>
       <c r="C413" s="21"/>
-      <c r="D413" s="67"/>
+      <c r="D413" s="60"/>
       <c r="E413" s="52"/>
       <c r="F413" s="16"/>
       <c r="G413" s="16"/>
@@ -12791,7 +12761,7 @@
       <c r="A414" s="50"/>
       <c r="B414" s="21"/>
       <c r="C414" s="21"/>
-      <c r="D414" s="67"/>
+      <c r="D414" s="60"/>
       <c r="E414" s="52"/>
       <c r="F414" s="16"/>
       <c r="G414" s="16"/>
@@ -12820,7 +12790,7 @@
       <c r="A415" s="50"/>
       <c r="B415" s="21"/>
       <c r="C415" s="21"/>
-      <c r="D415" s="67"/>
+      <c r="D415" s="60"/>
       <c r="E415" s="52"/>
       <c r="F415" s="16"/>
       <c r="G415" s="16"/>
@@ -12849,7 +12819,7 @@
       <c r="A416" s="50"/>
       <c r="B416" s="21"/>
       <c r="C416" s="21"/>
-      <c r="D416" s="67"/>
+      <c r="D416" s="60"/>
       <c r="E416" s="52"/>
       <c r="F416" s="16"/>
       <c r="G416" s="16"/>
@@ -12878,7 +12848,7 @@
       <c r="A417" s="50"/>
       <c r="B417" s="21"/>
       <c r="C417" s="21"/>
-      <c r="D417" s="67"/>
+      <c r="D417" s="60"/>
       <c r="E417" s="52"/>
       <c r="F417" s="16"/>
       <c r="G417" s="16"/>
@@ -12907,7 +12877,7 @@
       <c r="A418" s="50"/>
       <c r="B418" s="21"/>
       <c r="C418" s="21"/>
-      <c r="D418" s="67"/>
+      <c r="D418" s="60"/>
       <c r="E418" s="52"/>
       <c r="F418" s="16"/>
       <c r="G418" s="16"/>
@@ -12936,7 +12906,7 @@
       <c r="A419" s="50"/>
       <c r="B419" s="21"/>
       <c r="C419" s="21"/>
-      <c r="D419" s="67"/>
+      <c r="D419" s="60"/>
       <c r="E419" s="52"/>
       <c r="F419" s="16"/>
       <c r="G419" s="16"/>
@@ -12965,7 +12935,7 @@
       <c r="A420" s="50"/>
       <c r="B420" s="21"/>
       <c r="C420" s="21"/>
-      <c r="D420" s="67"/>
+      <c r="D420" s="60"/>
       <c r="E420" s="52"/>
       <c r="F420" s="16"/>
       <c r="G420" s="16"/>
@@ -12994,7 +12964,7 @@
       <c r="A421" s="50"/>
       <c r="B421" s="21"/>
       <c r="C421" s="21"/>
-      <c r="D421" s="67"/>
+      <c r="D421" s="60"/>
       <c r="E421" s="52"/>
       <c r="F421" s="16"/>
       <c r="G421" s="16"/>
@@ -13023,7 +12993,7 @@
       <c r="A422" s="50"/>
       <c r="B422" s="21"/>
       <c r="C422" s="21"/>
-      <c r="D422" s="67"/>
+      <c r="D422" s="60"/>
       <c r="E422" s="52"/>
       <c r="F422" s="16"/>
       <c r="G422" s="16"/>
@@ -13052,7 +13022,7 @@
       <c r="A423" s="50"/>
       <c r="B423" s="21"/>
       <c r="C423" s="21"/>
-      <c r="D423" s="67"/>
+      <c r="D423" s="60"/>
       <c r="E423" s="52"/>
       <c r="F423" s="16"/>
       <c r="G423" s="16"/>
@@ -13081,7 +13051,7 @@
       <c r="A424" s="50"/>
       <c r="B424" s="21"/>
       <c r="C424" s="21"/>
-      <c r="D424" s="67"/>
+      <c r="D424" s="60"/>
       <c r="E424" s="52"/>
       <c r="F424" s="16"/>
       <c r="G424" s="16"/>
@@ -13110,7 +13080,7 @@
       <c r="A425" s="50"/>
       <c r="B425" s="21"/>
       <c r="C425" s="21"/>
-      <c r="D425" s="67"/>
+      <c r="D425" s="60"/>
       <c r="E425" s="52"/>
       <c r="F425" s="16"/>
       <c r="G425" s="16"/>
@@ -13139,7 +13109,7 @@
       <c r="A426" s="50"/>
       <c r="B426" s="21"/>
       <c r="C426" s="21"/>
-      <c r="D426" s="67"/>
+      <c r="D426" s="60"/>
       <c r="E426" s="52"/>
       <c r="F426" s="16"/>
       <c r="G426" s="16"/>
@@ -13168,7 +13138,7 @@
       <c r="A427" s="50"/>
       <c r="B427" s="21"/>
       <c r="C427" s="21"/>
-      <c r="D427" s="67"/>
+      <c r="D427" s="60"/>
       <c r="E427" s="52"/>
       <c r="F427" s="16"/>
       <c r="G427" s="16"/>
@@ -13197,7 +13167,7 @@
       <c r="A428" s="50"/>
       <c r="B428" s="21"/>
       <c r="C428" s="21"/>
-      <c r="D428" s="67"/>
+      <c r="D428" s="60"/>
       <c r="E428" s="52"/>
       <c r="F428" s="16"/>
       <c r="G428" s="16"/>
@@ -13226,7 +13196,7 @@
       <c r="A429" s="50"/>
       <c r="B429" s="21"/>
       <c r="C429" s="21"/>
-      <c r="D429" s="67"/>
+      <c r="D429" s="60"/>
       <c r="E429" s="52"/>
       <c r="F429" s="16"/>
       <c r="G429" s="16"/>
@@ -13255,7 +13225,7 @@
       <c r="A430" s="50"/>
       <c r="B430" s="21"/>
       <c r="C430" s="21"/>
-      <c r="D430" s="67"/>
+      <c r="D430" s="60"/>
       <c r="E430" s="52"/>
       <c r="F430" s="16"/>
       <c r="G430" s="16"/>
@@ -13284,7 +13254,7 @@
       <c r="A431" s="50"/>
       <c r="B431" s="21"/>
       <c r="C431" s="21"/>
-      <c r="D431" s="67"/>
+      <c r="D431" s="60"/>
       <c r="E431" s="52"/>
       <c r="F431" s="16"/>
       <c r="G431" s="16"/>
@@ -13313,7 +13283,7 @@
       <c r="A432" s="50"/>
       <c r="B432" s="21"/>
       <c r="C432" s="21"/>
-      <c r="D432" s="67"/>
+      <c r="D432" s="60"/>
       <c r="E432" s="52"/>
       <c r="F432" s="16"/>
       <c r="G432" s="16"/>
@@ -13342,7 +13312,7 @@
       <c r="A433" s="50"/>
       <c r="B433" s="21"/>
       <c r="C433" s="21"/>
-      <c r="D433" s="67"/>
+      <c r="D433" s="60"/>
       <c r="E433" s="52"/>
       <c r="F433" s="16"/>
       <c r="G433" s="16"/>
@@ -13371,7 +13341,7 @@
       <c r="A434" s="50"/>
       <c r="B434" s="21"/>
       <c r="C434" s="21"/>
-      <c r="D434" s="67"/>
+      <c r="D434" s="60"/>
       <c r="E434" s="52"/>
       <c r="F434" s="16"/>
       <c r="G434" s="16"/>
@@ -13400,7 +13370,7 @@
       <c r="A435" s="50"/>
       <c r="B435" s="21"/>
       <c r="C435" s="21"/>
-      <c r="D435" s="67"/>
+      <c r="D435" s="60"/>
       <c r="E435" s="52"/>
       <c r="F435" s="16"/>
       <c r="G435" s="16"/>
@@ -13429,7 +13399,7 @@
       <c r="A436" s="50"/>
       <c r="B436" s="21"/>
       <c r="C436" s="21"/>
-      <c r="D436" s="67"/>
+      <c r="D436" s="60"/>
       <c r="E436" s="52"/>
       <c r="F436" s="16"/>
       <c r="G436" s="16"/>
@@ -13458,7 +13428,7 @@
       <c r="A437" s="50"/>
       <c r="B437" s="21"/>
       <c r="C437" s="21"/>
-      <c r="D437" s="67"/>
+      <c r="D437" s="60"/>
       <c r="E437" s="52"/>
       <c r="F437" s="16"/>
       <c r="G437" s="16"/>
@@ -13487,7 +13457,7 @@
       <c r="A438" s="50"/>
       <c r="B438" s="21"/>
       <c r="C438" s="21"/>
-      <c r="D438" s="67"/>
+      <c r="D438" s="60"/>
       <c r="E438" s="52"/>
       <c r="F438" s="16"/>
       <c r="G438" s="16"/>
@@ -13516,7 +13486,7 @@
       <c r="A439" s="50"/>
       <c r="B439" s="21"/>
       <c r="C439" s="21"/>
-      <c r="D439" s="67"/>
+      <c r="D439" s="60"/>
       <c r="E439" s="52"/>
       <c r="F439" s="16"/>
       <c r="G439" s="16"/>
@@ -13545,7 +13515,7 @@
       <c r="A440" s="50"/>
       <c r="B440" s="21"/>
       <c r="C440" s="21"/>
-      <c r="D440" s="67"/>
+      <c r="D440" s="60"/>
       <c r="E440" s="52"/>
       <c r="F440" s="16"/>
       <c r="G440" s="16"/>
@@ -13574,7 +13544,7 @@
       <c r="A441" s="50"/>
       <c r="B441" s="21"/>
       <c r="C441" s="21"/>
-      <c r="D441" s="67"/>
+      <c r="D441" s="60"/>
       <c r="E441" s="52"/>
       <c r="F441" s="16"/>
       <c r="G441" s="16"/>
@@ -13603,7 +13573,7 @@
       <c r="A442" s="50"/>
       <c r="B442" s="21"/>
       <c r="C442" s="21"/>
-      <c r="D442" s="67"/>
+      <c r="D442" s="60"/>
       <c r="E442" s="52"/>
       <c r="F442" s="16"/>
       <c r="G442" s="16"/>
@@ -13632,7 +13602,7 @@
       <c r="A443" s="50"/>
       <c r="B443" s="21"/>
       <c r="C443" s="21"/>
-      <c r="D443" s="67"/>
+      <c r="D443" s="60"/>
       <c r="E443" s="52"/>
       <c r="F443" s="16"/>
       <c r="G443" s="16"/>
@@ -13661,7 +13631,7 @@
       <c r="A444" s="50"/>
       <c r="B444" s="21"/>
       <c r="C444" s="21"/>
-      <c r="D444" s="67"/>
+      <c r="D444" s="60"/>
       <c r="E444" s="52"/>
       <c r="F444" s="16"/>
       <c r="G444" s="16"/>
@@ -13690,7 +13660,7 @@
       <c r="A445" s="50"/>
       <c r="B445" s="21"/>
       <c r="C445" s="21"/>
-      <c r="D445" s="67"/>
+      <c r="D445" s="60"/>
       <c r="E445" s="52"/>
       <c r="F445" s="16"/>
       <c r="G445" s="16"/>
@@ -13719,7 +13689,7 @@
       <c r="A446" s="50"/>
       <c r="B446" s="21"/>
       <c r="C446" s="21"/>
-      <c r="D446" s="67"/>
+      <c r="D446" s="60"/>
       <c r="E446" s="52"/>
       <c r="F446" s="16"/>
       <c r="G446" s="16"/>
@@ -13748,7 +13718,7 @@
       <c r="A447" s="50"/>
       <c r="B447" s="21"/>
       <c r="C447" s="21"/>
-      <c r="D447" s="67"/>
+      <c r="D447" s="60"/>
       <c r="E447" s="52"/>
       <c r="F447" s="16"/>
       <c r="G447" s="16"/>
@@ -13777,7 +13747,7 @@
       <c r="A448" s="50"/>
       <c r="B448" s="21"/>
       <c r="C448" s="21"/>
-      <c r="D448" s="67"/>
+      <c r="D448" s="60"/>
       <c r="E448" s="52"/>
       <c r="F448" s="16"/>
       <c r="G448" s="16"/>
@@ -13806,7 +13776,7 @@
       <c r="A449" s="50"/>
       <c r="B449" s="21"/>
       <c r="C449" s="21"/>
-      <c r="D449" s="67"/>
+      <c r="D449" s="60"/>
       <c r="E449" s="52"/>
       <c r="F449" s="16"/>
       <c r="G449" s="16"/>
@@ -13835,7 +13805,7 @@
       <c r="A450" s="50"/>
       <c r="B450" s="21"/>
       <c r="C450" s="21"/>
-      <c r="D450" s="67"/>
+      <c r="D450" s="60"/>
       <c r="E450" s="52"/>
       <c r="F450" s="16"/>
       <c r="G450" s="16"/>
@@ -13864,7 +13834,7 @@
       <c r="A451" s="50"/>
       <c r="B451" s="21"/>
       <c r="C451" s="21"/>
-      <c r="D451" s="67"/>
+      <c r="D451" s="60"/>
       <c r="E451" s="52"/>
       <c r="F451" s="16"/>
       <c r="G451" s="16"/>
@@ -13893,7 +13863,7 @@
       <c r="A452" s="50"/>
       <c r="B452" s="21"/>
       <c r="C452" s="21"/>
-      <c r="D452" s="67"/>
+      <c r="D452" s="60"/>
       <c r="E452" s="52"/>
       <c r="F452" s="16"/>
       <c r="G452" s="16"/>
@@ -13922,7 +13892,7 @@
       <c r="A453" s="50"/>
       <c r="B453" s="21"/>
       <c r="C453" s="21"/>
-      <c r="D453" s="67"/>
+      <c r="D453" s="60"/>
       <c r="E453" s="52"/>
       <c r="F453" s="16"/>
       <c r="G453" s="16"/>
@@ -13951,7 +13921,7 @@
       <c r="A454" s="50"/>
       <c r="B454" s="21"/>
       <c r="C454" s="21"/>
-      <c r="D454" s="67"/>
+      <c r="D454" s="60"/>
       <c r="E454" s="52"/>
       <c r="F454" s="16"/>
       <c r="G454" s="16"/>
@@ -13980,7 +13950,7 @@
       <c r="A455" s="50"/>
       <c r="B455" s="21"/>
       <c r="C455" s="21"/>
-      <c r="D455" s="67"/>
+      <c r="D455" s="60"/>
       <c r="E455" s="52"/>
       <c r="F455" s="16"/>
       <c r="G455" s="16"/>
@@ -14009,7 +13979,7 @@
       <c r="A456" s="50"/>
       <c r="B456" s="21"/>
       <c r="C456" s="21"/>
-      <c r="D456" s="67"/>
+      <c r="D456" s="60"/>
       <c r="E456" s="52"/>
       <c r="F456" s="16"/>
       <c r="G456" s="16"/>
@@ -14038,7 +14008,7 @@
       <c r="A457" s="50"/>
       <c r="B457" s="21"/>
       <c r="C457" s="21"/>
-      <c r="D457" s="67"/>
+      <c r="D457" s="60"/>
       <c r="E457" s="52"/>
       <c r="F457" s="16"/>
       <c r="G457" s="16"/>
@@ -14067,7 +14037,7 @@
       <c r="A458" s="50"/>
       <c r="B458" s="21"/>
       <c r="C458" s="21"/>
-      <c r="D458" s="67"/>
+      <c r="D458" s="60"/>
       <c r="E458" s="52"/>
       <c r="F458" s="16"/>
       <c r="G458" s="16"/>
@@ -14096,7 +14066,7 @@
       <c r="A459" s="50"/>
       <c r="B459" s="21"/>
       <c r="C459" s="21"/>
-      <c r="D459" s="67"/>
+      <c r="D459" s="60"/>
       <c r="E459" s="52"/>
       <c r="F459" s="16"/>
       <c r="G459" s="16"/>
@@ -14125,7 +14095,7 @@
       <c r="A460" s="50"/>
       <c r="B460" s="21"/>
       <c r="C460" s="21"/>
-      <c r="D460" s="67"/>
+      <c r="D460" s="60"/>
       <c r="E460" s="52"/>
       <c r="F460" s="16"/>
       <c r="G460" s="16"/>
@@ -14154,7 +14124,7 @@
       <c r="A461" s="50"/>
       <c r="B461" s="21"/>
       <c r="C461" s="21"/>
-      <c r="D461" s="67"/>
+      <c r="D461" s="60"/>
       <c r="E461" s="52"/>
       <c r="F461" s="16"/>
       <c r="G461" s="16"/>
@@ -14183,7 +14153,7 @@
       <c r="A462" s="50"/>
       <c r="B462" s="21"/>
       <c r="C462" s="21"/>
-      <c r="D462" s="67"/>
+      <c r="D462" s="60"/>
       <c r="E462" s="52"/>
       <c r="F462" s="16"/>
       <c r="G462" s="16"/>
@@ -14212,7 +14182,7 @@
       <c r="A463" s="50"/>
       <c r="B463" s="21"/>
       <c r="C463" s="21"/>
-      <c r="D463" s="67"/>
+      <c r="D463" s="60"/>
       <c r="E463" s="52"/>
       <c r="F463" s="16"/>
       <c r="G463" s="16"/>
@@ -14241,7 +14211,7 @@
       <c r="A464" s="50"/>
       <c r="B464" s="21"/>
       <c r="C464" s="21"/>
-      <c r="D464" s="67"/>
+      <c r="D464" s="60"/>
       <c r="E464" s="52"/>
       <c r="F464" s="16"/>
       <c r="G464" s="16"/>
@@ -14270,7 +14240,7 @@
       <c r="A465" s="50"/>
       <c r="B465" s="21"/>
       <c r="C465" s="21"/>
-      <c r="D465" s="67"/>
+      <c r="D465" s="60"/>
       <c r="E465" s="52"/>
       <c r="F465" s="16"/>
       <c r="G465" s="16"/>
@@ -14299,7 +14269,7 @@
       <c r="A466" s="50"/>
       <c r="B466" s="21"/>
       <c r="C466" s="21"/>
-      <c r="D466" s="67"/>
+      <c r="D466" s="60"/>
       <c r="E466" s="52"/>
       <c r="F466" s="16"/>
       <c r="G466" s="16"/>
@@ -14328,7 +14298,7 @@
       <c r="A467" s="50"/>
       <c r="B467" s="21"/>
       <c r="C467" s="21"/>
-      <c r="D467" s="67"/>
+      <c r="D467" s="60"/>
       <c r="E467" s="52"/>
       <c r="F467" s="16"/>
       <c r="G467" s="16"/>
@@ -14357,7 +14327,7 @@
       <c r="A468" s="50"/>
       <c r="B468" s="21"/>
       <c r="C468" s="21"/>
-      <c r="D468" s="67"/>
+      <c r="D468" s="60"/>
       <c r="E468" s="52"/>
       <c r="F468" s="16"/>
       <c r="G468" s="16"/>
@@ -14386,7 +14356,7 @@
       <c r="A469" s="50"/>
       <c r="B469" s="21"/>
       <c r="C469" s="21"/>
-      <c r="D469" s="67"/>
+      <c r="D469" s="60"/>
       <c r="E469" s="52"/>
       <c r="F469" s="16"/>
       <c r="G469" s="16"/>
@@ -14415,7 +14385,7 @@
       <c r="A470" s="50"/>
       <c r="B470" s="21"/>
       <c r="C470" s="21"/>
-      <c r="D470" s="67"/>
+      <c r="D470" s="60"/>
       <c r="E470" s="52"/>
       <c r="F470" s="16"/>
       <c r="G470" s="16"/>
@@ -14444,7 +14414,7 @@
       <c r="A471" s="50"/>
       <c r="B471" s="21"/>
       <c r="C471" s="21"/>
-      <c r="D471" s="67"/>
+      <c r="D471" s="60"/>
       <c r="E471" s="52"/>
       <c r="F471" s="16"/>
       <c r="G471" s="16"/>
@@ -14473,7 +14443,7 @@
       <c r="A472" s="50"/>
       <c r="B472" s="21"/>
       <c r="C472" s="21"/>
-      <c r="D472" s="67"/>
+      <c r="D472" s="60"/>
       <c r="E472" s="52"/>
       <c r="F472" s="16"/>
       <c r="G472" s="16"/>
@@ -14502,7 +14472,7 @@
       <c r="A473" s="50"/>
       <c r="B473" s="21"/>
       <c r="C473" s="21"/>
-      <c r="D473" s="67"/>
+      <c r="D473" s="60"/>
       <c r="E473" s="52"/>
       <c r="F473" s="16"/>
       <c r="G473" s="16"/>
@@ -14531,7 +14501,7 @@
       <c r="A474" s="50"/>
       <c r="B474" s="21"/>
       <c r="C474" s="21"/>
-      <c r="D474" s="67"/>
+      <c r="D474" s="60"/>
       <c r="E474" s="52"/>
       <c r="F474" s="16"/>
       <c r="G474" s="16"/>
@@ -14560,7 +14530,7 @@
       <c r="A475" s="50"/>
       <c r="B475" s="21"/>
       <c r="C475" s="21"/>
-      <c r="D475" s="67"/>
+      <c r="D475" s="60"/>
       <c r="E475" s="52"/>
       <c r="F475" s="16"/>
       <c r="G475" s="16"/>
@@ -14589,7 +14559,7 @@
       <c r="A476" s="50"/>
       <c r="B476" s="21"/>
       <c r="C476" s="21"/>
-      <c r="D476" s="67"/>
+      <c r="D476" s="60"/>
       <c r="E476" s="52"/>
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
@@ -14618,7 +14588,7 @@
       <c r="A477" s="50"/>
       <c r="B477" s="21"/>
       <c r="C477" s="21"/>
-      <c r="D477" s="67"/>
+      <c r="D477" s="60"/>
       <c r="E477" s="52"/>
       <c r="F477" s="16"/>
       <c r="G477" s="16"/>
@@ -14647,7 +14617,7 @@
       <c r="A478" s="50"/>
       <c r="B478" s="21"/>
       <c r="C478" s="21"/>
-      <c r="D478" s="67"/>
+      <c r="D478" s="60"/>
       <c r="E478" s="52"/>
       <c r="F478" s="16"/>
       <c r="G478" s="16"/>
@@ -14676,7 +14646,7 @@
       <c r="A479" s="50"/>
       <c r="B479" s="21"/>
       <c r="C479" s="21"/>
-      <c r="D479" s="67"/>
+      <c r="D479" s="60"/>
       <c r="E479" s="52"/>
       <c r="F479" s="16"/>
       <c r="G479" s="16"/>
@@ -14705,7 +14675,7 @@
       <c r="A480" s="50"/>
       <c r="B480" s="21"/>
       <c r="C480" s="21"/>
-      <c r="D480" s="67"/>
+      <c r="D480" s="60"/>
       <c r="E480" s="52"/>
       <c r="F480" s="16"/>
       <c r="G480" s="16"/>
@@ -14734,7 +14704,7 @@
       <c r="A481" s="50"/>
       <c r="B481" s="21"/>
       <c r="C481" s="21"/>
-      <c r="D481" s="67"/>
+      <c r="D481" s="60"/>
       <c r="E481" s="52"/>
       <c r="F481" s="16"/>
       <c r="G481" s="16"/>
@@ -14763,7 +14733,7 @@
       <c r="A482" s="50"/>
       <c r="B482" s="21"/>
       <c r="C482" s="21"/>
-      <c r="D482" s="67"/>
+      <c r="D482" s="60"/>
       <c r="E482" s="52"/>
       <c r="F482" s="16"/>
       <c r="G482" s="16"/>
@@ -14792,7 +14762,7 @@
       <c r="A483" s="50"/>
       <c r="B483" s="21"/>
       <c r="C483" s="21"/>
-      <c r="D483" s="67"/>
+      <c r="D483" s="60"/>
       <c r="E483" s="52"/>
       <c r="F483" s="16"/>
       <c r="G483" s="16"/>
@@ -14821,7 +14791,7 @@
       <c r="A484" s="50"/>
       <c r="B484" s="21"/>
       <c r="C484" s="21"/>
-      <c r="D484" s="67"/>
+      <c r="D484" s="60"/>
       <c r="E484" s="52"/>
       <c r="F484" s="16"/>
       <c r="G484" s="16"/>
@@ -14850,7 +14820,7 @@
       <c r="A485" s="50"/>
       <c r="B485" s="21"/>
       <c r="C485" s="21"/>
-      <c r="D485" s="67"/>
+      <c r="D485" s="60"/>
       <c r="E485" s="52"/>
       <c r="F485" s="16"/>
       <c r="G485" s="16"/>
@@ -14879,7 +14849,7 @@
       <c r="A486" s="50"/>
       <c r="B486" s="21"/>
       <c r="C486" s="21"/>
-      <c r="D486" s="67"/>
+      <c r="D486" s="60"/>
       <c r="E486" s="52"/>
       <c r="F486" s="16"/>
       <c r="G486" s="16"/>
@@ -14908,7 +14878,7 @@
       <c r="A487" s="50"/>
       <c r="B487" s="21"/>
       <c r="C487" s="21"/>
-      <c r="D487" s="67"/>
+      <c r="D487" s="60"/>
       <c r="E487" s="52"/>
       <c r="F487" s="16"/>
       <c r="G487" s="16"/>
@@ -14937,7 +14907,7 @@
       <c r="A488" s="50"/>
       <c r="B488" s="21"/>
       <c r="C488" s="21"/>
-      <c r="D488" s="67"/>
+      <c r="D488" s="60"/>
       <c r="E488" s="52"/>
       <c r="F488" s="16"/>
       <c r="G488" s="16"/>
@@ -14966,7 +14936,7 @@
       <c r="A489" s="50"/>
       <c r="B489" s="21"/>
       <c r="C489" s="21"/>
-      <c r="D489" s="67"/>
+      <c r="D489" s="60"/>
       <c r="E489" s="52"/>
       <c r="F489" s="16"/>
       <c r="G489" s="16"/>
@@ -14995,7 +14965,7 @@
       <c r="A490" s="50"/>
       <c r="B490" s="21"/>
       <c r="C490" s="21"/>
-      <c r="D490" s="67"/>
+      <c r="D490" s="60"/>
       <c r="E490" s="52"/>
       <c r="F490" s="16"/>
       <c r="G490" s="16"/>
@@ -15024,7 +14994,7 @@
       <c r="A491" s="50"/>
       <c r="B491" s="21"/>
       <c r="C491" s="21"/>
-      <c r="D491" s="67"/>
+      <c r="D491" s="60"/>
       <c r="E491" s="52"/>
       <c r="F491" s="16"/>
       <c r="G491" s="16"/>
@@ -15053,7 +15023,7 @@
       <c r="A492" s="50"/>
       <c r="B492" s="21"/>
       <c r="C492" s="21"/>
-      <c r="D492" s="67"/>
+      <c r="D492" s="60"/>
       <c r="E492" s="52"/>
       <c r="F492" s="16"/>
       <c r="G492" s="16"/>
@@ -15082,7 +15052,7 @@
       <c r="A493" s="50"/>
       <c r="B493" s="21"/>
       <c r="C493" s="21"/>
-      <c r="D493" s="67"/>
+      <c r="D493" s="60"/>
       <c r="E493" s="52"/>
       <c r="F493" s="16"/>
       <c r="G493" s="16"/>
@@ -15111,7 +15081,7 @@
       <c r="A494" s="50"/>
       <c r="B494" s="21"/>
       <c r="C494" s="21"/>
-      <c r="D494" s="67"/>
+      <c r="D494" s="60"/>
       <c r="E494" s="52"/>
       <c r="F494" s="16"/>
       <c r="G494" s="16"/>
@@ -15140,7 +15110,7 @@
       <c r="A495" s="50"/>
       <c r="B495" s="21"/>
       <c r="C495" s="21"/>
-      <c r="D495" s="67"/>
+      <c r="D495" s="60"/>
       <c r="E495" s="52"/>
       <c r="F495" s="16"/>
       <c r="G495" s="16"/>
@@ -15169,7 +15139,7 @@
       <c r="A496" s="50"/>
       <c r="B496" s="21"/>
       <c r="C496" s="21"/>
-      <c r="D496" s="67"/>
+      <c r="D496" s="60"/>
       <c r="E496" s="52"/>
       <c r="F496" s="16"/>
       <c r="G496" s="16"/>
@@ -15198,7 +15168,7 @@
       <c r="A497" s="50"/>
       <c r="B497" s="21"/>
       <c r="C497" s="21"/>
-      <c r="D497" s="67"/>
+      <c r="D497" s="60"/>
       <c r="E497" s="52"/>
       <c r="F497" s="16"/>
       <c r="G497" s="16"/>
@@ -15227,7 +15197,7 @@
       <c r="A498" s="50"/>
       <c r="B498" s="21"/>
       <c r="C498" s="21"/>
-      <c r="D498" s="67"/>
+      <c r="D498" s="60"/>
       <c r="E498" s="52"/>
       <c r="F498" s="16"/>
       <c r="G498" s="16"/>
@@ -15256,7 +15226,7 @@
       <c r="A499" s="50"/>
       <c r="B499" s="21"/>
       <c r="C499" s="21"/>
-      <c r="D499" s="67"/>
+      <c r="D499" s="60"/>
       <c r="E499" s="52"/>
       <c r="F499" s="16"/>
       <c r="G499" s="16"/>
@@ -15285,7 +15255,7 @@
       <c r="A500" s="50"/>
       <c r="B500" s="21"/>
       <c r="C500" s="21"/>
-      <c r="D500" s="67"/>
+      <c r="D500" s="60"/>
       <c r="E500" s="52"/>
       <c r="F500" s="16"/>
       <c r="G500" s="16"/>
@@ -15314,7 +15284,7 @@
       <c r="A501" s="50"/>
       <c r="B501" s="21"/>
       <c r="C501" s="21"/>
-      <c r="D501" s="67"/>
+      <c r="D501" s="60"/>
       <c r="E501" s="52"/>
       <c r="F501" s="16"/>
       <c r="G501" s="16"/>
@@ -15343,7 +15313,7 @@
       <c r="A502" s="50"/>
       <c r="B502" s="21"/>
       <c r="C502" s="21"/>
-      <c r="D502" s="67"/>
+      <c r="D502" s="60"/>
       <c r="E502" s="52"/>
       <c r="F502" s="16"/>
       <c r="G502" s="16"/>
@@ -15372,7 +15342,7 @@
       <c r="A503" s="50"/>
       <c r="B503" s="21"/>
       <c r="C503" s="21"/>
-      <c r="D503" s="67"/>
+      <c r="D503" s="60"/>
       <c r="E503" s="52"/>
       <c r="F503" s="16"/>
       <c r="G503" s="16"/>
@@ -15401,7 +15371,7 @@
       <c r="A504" s="50"/>
       <c r="B504" s="21"/>
       <c r="C504" s="21"/>
-      <c r="D504" s="67"/>
+      <c r="D504" s="60"/>
       <c r="E504" s="52"/>
       <c r="F504" s="16"/>
       <c r="G504" s="16"/>
@@ -15430,7 +15400,7 @@
       <c r="A505" s="50"/>
       <c r="B505" s="21"/>
       <c r="C505" s="21"/>
-      <c r="D505" s="67"/>
+      <c r="D505" s="60"/>
       <c r="E505" s="52"/>
       <c r="F505" s="16"/>
       <c r="G505" s="16"/>
@@ -15459,7 +15429,7 @@
       <c r="A506" s="50"/>
       <c r="B506" s="21"/>
       <c r="C506" s="21"/>
-      <c r="D506" s="67"/>
+      <c r="D506" s="60"/>
       <c r="E506" s="52"/>
       <c r="F506" s="16"/>
       <c r="G506" s="16"/>
@@ -15488,7 +15458,7 @@
       <c r="A507" s="50"/>
       <c r="B507" s="21"/>
       <c r="C507" s="21"/>
-      <c r="D507" s="67"/>
+      <c r="D507" s="60"/>
       <c r="E507" s="52"/>
       <c r="F507" s="16"/>
       <c r="G507" s="16"/>
@@ -15517,7 +15487,7 @@
       <c r="A508" s="50"/>
       <c r="B508" s="21"/>
       <c r="C508" s="21"/>
-      <c r="D508" s="67"/>
+      <c r="D508" s="60"/>
       <c r="E508" s="52"/>
       <c r="F508" s="16"/>
       <c r="G508" s="16"/>
@@ -15546,7 +15516,7 @@
       <c r="A509" s="50"/>
       <c r="B509" s="21"/>
       <c r="C509" s="21"/>
-      <c r="D509" s="67"/>
+      <c r="D509" s="60"/>
       <c r="E509" s="52"/>
       <c r="F509" s="16"/>
       <c r="G509" s="16"/>
@@ -15575,7 +15545,7 @@
       <c r="A510" s="50"/>
       <c r="B510" s="21"/>
       <c r="C510" s="21"/>
-      <c r="D510" s="67"/>
+      <c r="D510" s="60"/>
       <c r="E510" s="52"/>
       <c r="F510" s="16"/>
       <c r="G510" s="16"/>
@@ -15604,7 +15574,7 @@
       <c r="A511" s="50"/>
       <c r="B511" s="21"/>
       <c r="C511" s="21"/>
-      <c r="D511" s="67"/>
+      <c r="D511" s="60"/>
       <c r="E511" s="52"/>
       <c r="F511" s="16"/>
       <c r="G511" s="16"/>
@@ -15633,7 +15603,7 @@
       <c r="A512" s="50"/>
       <c r="B512" s="21"/>
       <c r="C512" s="21"/>
-      <c r="D512" s="67"/>
+      <c r="D512" s="60"/>
       <c r="E512" s="52"/>
       <c r="F512" s="16"/>
       <c r="G512" s="16"/>
@@ -15662,7 +15632,7 @@
       <c r="A513" s="50"/>
       <c r="B513" s="21"/>
       <c r="C513" s="21"/>
-      <c r="D513" s="67"/>
+      <c r="D513" s="60"/>
       <c r="E513" s="52"/>
       <c r="F513" s="16"/>
       <c r="G513" s="16"/>
@@ -15691,7 +15661,7 @@
       <c r="A514" s="50"/>
       <c r="B514" s="21"/>
       <c r="C514" s="21"/>
-      <c r="D514" s="67"/>
+      <c r="D514" s="60"/>
       <c r="E514" s="52"/>
       <c r="F514" s="16"/>
       <c r="G514" s="16"/>
@@ -15720,7 +15690,7 @@
       <c r="A515" s="50"/>
       <c r="B515" s="21"/>
       <c r="C515" s="21"/>
-      <c r="D515" s="67"/>
+      <c r="D515" s="60"/>
       <c r="E515" s="52"/>
       <c r="F515" s="16"/>
       <c r="G515" s="16"/>
@@ -15749,7 +15719,7 @@
       <c r="A516" s="50"/>
       <c r="B516" s="21"/>
       <c r="C516" s="21"/>
-      <c r="D516" s="67"/>
+      <c r="D516" s="60"/>
       <c r="E516" s="52"/>
       <c r="F516" s="16"/>
       <c r="G516" s="16"/>
@@ -15778,7 +15748,7 @@
       <c r="A517" s="50"/>
       <c r="B517" s="21"/>
       <c r="C517" s="21"/>
-      <c r="D517" s="67"/>
+      <c r="D517" s="60"/>
       <c r="E517" s="52"/>
       <c r="F517" s="16"/>
       <c r="G517" s="16"/>
@@ -15807,7 +15777,7 @@
       <c r="A518" s="50"/>
       <c r="B518" s="21"/>
       <c r="C518" s="21"/>
-      <c r="D518" s="67"/>
+      <c r="D518" s="60"/>
       <c r="E518" s="52"/>
       <c r="F518" s="16"/>
       <c r="G518" s="16"/>
@@ -15836,7 +15806,7 @@
       <c r="A519" s="50"/>
       <c r="B519" s="21"/>
       <c r="C519" s="21"/>
-      <c r="D519" s="67"/>
+      <c r="D519" s="60"/>
       <c r="E519" s="52"/>
       <c r="F519" s="16"/>
       <c r="G519" s="16"/>
@@ -15865,7 +15835,7 @@
       <c r="A520" s="50"/>
       <c r="B520" s="21"/>
       <c r="C520" s="21"/>
-      <c r="D520" s="67"/>
+      <c r="D520" s="60"/>
       <c r="E520" s="52"/>
       <c r="F520" s="16"/>
       <c r="G520" s="16"/>
@@ -15894,7 +15864,7 @@
       <c r="A521" s="50"/>
       <c r="B521" s="21"/>
       <c r="C521" s="21"/>
-      <c r="D521" s="67"/>
+      <c r="D521" s="60"/>
       <c r="E521" s="52"/>
       <c r="F521" s="16"/>
       <c r="G521" s="16"/>
@@ -15923,7 +15893,7 @@
       <c r="A522" s="50"/>
       <c r="B522" s="21"/>
       <c r="C522" s="21"/>
-      <c r="D522" s="67"/>
+      <c r="D522" s="60"/>
       <c r="E522" s="52"/>
       <c r="F522" s="16"/>
       <c r="G522" s="16"/>
@@ -15952,7 +15922,7 @@
       <c r="A523" s="50"/>
       <c r="B523" s="21"/>
       <c r="C523" s="21"/>
-      <c r="D523" s="67"/>
+      <c r="D523" s="60"/>
       <c r="E523" s="52"/>
       <c r="F523" s="16"/>
       <c r="G523" s="16"/>
@@ -15981,7 +15951,7 @@
       <c r="A524" s="50"/>
       <c r="B524" s="21"/>
       <c r="C524" s="21"/>
-      <c r="D524" s="67"/>
+      <c r="D524" s="60"/>
       <c r="E524" s="52"/>
       <c r="F524" s="16"/>
       <c r="G524" s="16"/>
@@ -16010,7 +15980,7 @@
       <c r="A525" s="50"/>
       <c r="B525" s="21"/>
       <c r="C525" s="21"/>
-      <c r="D525" s="67"/>
+      <c r="D525" s="60"/>
       <c r="E525" s="52"/>
       <c r="F525" s="16"/>
       <c r="G525" s="16"/>
@@ -16039,7 +16009,7 @@
       <c r="A526" s="50"/>
       <c r="B526" s="21"/>
       <c r="C526" s="21"/>
-      <c r="D526" s="67"/>
+      <c r="D526" s="60"/>
       <c r="E526" s="52"/>
       <c r="F526" s="16"/>
       <c r="G526" s="16"/>
@@ -16068,7 +16038,7 @@
       <c r="A527" s="50"/>
       <c r="B527" s="21"/>
       <c r="C527" s="21"/>
-      <c r="D527" s="67"/>
+      <c r="D527" s="60"/>
       <c r="E527" s="52"/>
       <c r="F527" s="16"/>
       <c r="G527" s="16"/>
@@ -16097,7 +16067,7 @@
       <c r="A528" s="50"/>
       <c r="B528" s="21"/>
       <c r="C528" s="21"/>
-      <c r="D528" s="67"/>
+      <c r="D528" s="60"/>
       <c r="E528" s="52"/>
       <c r="F528" s="16"/>
       <c r="G528" s="16"/>
@@ -16126,7 +16096,7 @@
       <c r="A529" s="50"/>
       <c r="B529" s="21"/>
       <c r="C529" s="21"/>
-      <c r="D529" s="67"/>
+      <c r="D529" s="60"/>
       <c r="E529" s="52"/>
       <c r="F529" s="16"/>
       <c r="G529" s="16"/>
@@ -16155,7 +16125,7 @@
       <c r="A530" s="50"/>
       <c r="B530" s="21"/>
       <c r="C530" s="21"/>
-      <c r="D530" s="67"/>
+      <c r="D530" s="60"/>
       <c r="E530" s="52"/>
       <c r="F530" s="16"/>
       <c r="G530" s="16"/>
@@ -16184,7 +16154,7 @@
       <c r="A531" s="50"/>
       <c r="B531" s="21"/>
       <c r="C531" s="21"/>
-      <c r="D531" s="67"/>
+      <c r="D531" s="60"/>
       <c r="E531" s="52"/>
       <c r="F531" s="16"/>
       <c r="G531" s="16"/>
@@ -16213,7 +16183,7 @@
       <c r="A532" s="50"/>
       <c r="B532" s="21"/>
       <c r="C532" s="21"/>
-      <c r="D532" s="67"/>
+      <c r="D532" s="60"/>
       <c r="E532" s="52"/>
       <c r="F532" s="16"/>
       <c r="G532" s="16"/>
@@ -16242,7 +16212,7 @@
       <c r="A533" s="50"/>
       <c r="B533" s="21"/>
       <c r="C533" s="21"/>
-      <c r="D533" s="67"/>
+      <c r="D533" s="60"/>
       <c r="E533" s="52"/>
       <c r="F533" s="16"/>
       <c r="G533" s="16"/>
@@ -16271,7 +16241,7 @@
       <c r="A534" s="50"/>
       <c r="B534" s="21"/>
       <c r="C534" s="21"/>
-      <c r="D534" s="67"/>
+      <c r="D534" s="60"/>
       <c r="E534" s="52"/>
       <c r="F534" s="16"/>
       <c r="G534" s="16"/>
@@ -16300,7 +16270,7 @@
       <c r="A535" s="50"/>
       <c r="B535" s="21"/>
       <c r="C535" s="21"/>
-      <c r="D535" s="67"/>
+      <c r="D535" s="60"/>
       <c r="E535" s="52"/>
       <c r="F535" s="16"/>
       <c r="G535" s="16"/>
@@ -16329,7 +16299,7 @@
       <c r="A536" s="50"/>
       <c r="B536" s="21"/>
       <c r="C536" s="21"/>
-      <c r="D536" s="67"/>
+      <c r="D536" s="60"/>
       <c r="E536" s="52"/>
       <c r="F536" s="16"/>
       <c r="G536" s="16"/>
@@ -16358,7 +16328,7 @@
       <c r="A537" s="50"/>
       <c r="B537" s="21"/>
       <c r="C537" s="21"/>
-      <c r="D537" s="67"/>
+      <c r="D537" s="60"/>
       <c r="E537" s="52"/>
       <c r="F537" s="16"/>
       <c r="G537" s="16"/>
@@ -16387,7 +16357,7 @@
       <c r="A538" s="50"/>
       <c r="B538" s="21"/>
       <c r="C538" s="21"/>
-      <c r="D538" s="67"/>
+      <c r="D538" s="60"/>
       <c r="E538" s="52"/>
       <c r="F538" s="16"/>
       <c r="G538" s="16"/>
@@ -16416,7 +16386,7 @@
       <c r="A539" s="50"/>
       <c r="B539" s="21"/>
       <c r="C539" s="21"/>
-      <c r="D539" s="67"/>
+      <c r="D539" s="60"/>
       <c r="E539" s="52"/>
       <c r="F539" s="16"/>
       <c r="G539" s="16"/>
@@ -16445,7 +16415,7 @@
       <c r="A540" s="50"/>
       <c r="B540" s="21"/>
       <c r="C540" s="21"/>
-      <c r="D540" s="67"/>
+      <c r="D540" s="60"/>
       <c r="E540" s="52"/>
       <c r="F540" s="16"/>
       <c r="G540" s="16"/>
@@ -16474,7 +16444,7 @@
       <c r="A541" s="50"/>
       <c r="B541" s="21"/>
       <c r="C541" s="21"/>
-      <c r="D541" s="67"/>
+      <c r="D541" s="60"/>
       <c r="E541" s="52"/>
       <c r="F541" s="16"/>
       <c r="G541" s="16"/>
@@ -16503,7 +16473,7 @@
       <c r="A542" s="50"/>
       <c r="B542" s="21"/>
       <c r="C542" s="21"/>
-      <c r="D542" s="67"/>
+      <c r="D542" s="60"/>
       <c r="E542" s="52"/>
       <c r="F542" s="16"/>
       <c r="G542" s="16"/>
@@ -16532,7 +16502,7 @@
       <c r="A543" s="50"/>
       <c r="B543" s="21"/>
       <c r="C543" s="21"/>
-      <c r="D543" s="67"/>
+      <c r="D543" s="60"/>
       <c r="E543" s="52"/>
       <c r="F543" s="16"/>
       <c r="G543" s="16"/>
@@ -16561,7 +16531,7 @@
       <c r="A544" s="50"/>
       <c r="B544" s="21"/>
       <c r="C544" s="21"/>
-      <c r="D544" s="67"/>
+      <c r="D544" s="60"/>
       <c r="E544" s="52"/>
       <c r="F544" s="16"/>
       <c r="G544" s="16"/>
@@ -16590,7 +16560,7 @@
       <c r="A545" s="50"/>
       <c r="B545" s="21"/>
       <c r="C545" s="21"/>
-      <c r="D545" s="67"/>
+      <c r="D545" s="60"/>
       <c r="E545" s="52"/>
       <c r="F545" s="16"/>
       <c r="G545" s="16"/>
@@ -16619,7 +16589,7 @@
       <c r="A546" s="50"/>
       <c r="B546" s="21"/>
       <c r="C546" s="21"/>
-      <c r="D546" s="67"/>
+      <c r="D546" s="60"/>
       <c r="E546" s="52"/>
       <c r="F546" s="16"/>
       <c r="G546" s="16"/>
@@ -16648,7 +16618,7 @@
       <c r="A547" s="50"/>
       <c r="B547" s="21"/>
       <c r="C547" s="21"/>
-      <c r="D547" s="67"/>
+      <c r="D547" s="60"/>
       <c r="E547" s="52"/>
       <c r="F547" s="16"/>
       <c r="G547" s="16"/>
@@ -16677,7 +16647,7 @@
       <c r="A548" s="50"/>
       <c r="B548" s="21"/>
       <c r="C548" s="21"/>
-      <c r="D548" s="67"/>
+      <c r="D548" s="60"/>
       <c r="E548" s="52"/>
       <c r="F548" s="16"/>
       <c r="G548" s="16"/>
@@ -16706,7 +16676,7 @@
       <c r="A549" s="50"/>
       <c r="B549" s="21"/>
       <c r="C549" s="21"/>
-      <c r="D549" s="67"/>
+      <c r="D549" s="60"/>
       <c r="E549" s="52"/>
       <c r="F549" s="16"/>
       <c r="G549" s="16"/>
@@ -16735,7 +16705,7 @@
       <c r="A550" s="50"/>
       <c r="B550" s="21"/>
       <c r="C550" s="21"/>
-      <c r="D550" s="67"/>
+      <c r="D550" s="60"/>
       <c r="E550" s="52"/>
       <c r="F550" s="16"/>
       <c r="G550" s="16"/>
@@ -16764,7 +16734,7 @@
       <c r="A551" s="50"/>
       <c r="B551" s="21"/>
       <c r="C551" s="21"/>
-      <c r="D551" s="67"/>
+      <c r="D551" s="60"/>
       <c r="E551" s="52"/>
       <c r="F551" s="16"/>
       <c r="G551" s="16"/>
@@ -16793,7 +16763,7 @@
       <c r="A552" s="50"/>
       <c r="B552" s="21"/>
       <c r="C552" s="21"/>
-      <c r="D552" s="67"/>
+      <c r="D552" s="60"/>
       <c r="E552" s="52"/>
       <c r="F552" s="16"/>
       <c r="G552" s="16"/>
@@ -16822,7 +16792,7 @@
       <c r="A553" s="50"/>
       <c r="B553" s="21"/>
       <c r="C553" s="21"/>
-      <c r="D553" s="67"/>
+      <c r="D553" s="60"/>
       <c r="E553" s="52"/>
       <c r="F553" s="16"/>
       <c r="G553" s="16"/>
@@ -16851,7 +16821,7 @@
       <c r="A554" s="50"/>
       <c r="B554" s="21"/>
       <c r="C554" s="21"/>
-      <c r="D554" s="67"/>
+      <c r="D554" s="60"/>
       <c r="E554" s="52"/>
       <c r="F554" s="16"/>
       <c r="G554" s="16"/>
@@ -16880,7 +16850,7 @@
       <c r="A555" s="50"/>
       <c r="B555" s="21"/>
       <c r="C555" s="21"/>
-      <c r="D555" s="67"/>
+      <c r="D555" s="60"/>
       <c r="E555" s="52"/>
       <c r="F555" s="16"/>
       <c r="G555" s="16"/>
@@ -16909,7 +16879,7 @@
       <c r="A556" s="50"/>
       <c r="B556" s="21"/>
       <c r="C556" s="21"/>
-      <c r="D556" s="67"/>
+      <c r="D556" s="60"/>
       <c r="E556" s="52"/>
       <c r="F556" s="16"/>
       <c r="G556" s="16"/>
@@ -16938,7 +16908,7 @@
       <c r="A557" s="50"/>
       <c r="B557" s="21"/>
       <c r="C557" s="21"/>
-      <c r="D557" s="67"/>
+      <c r="D557" s="60"/>
       <c r="E557" s="52"/>
       <c r="F557" s="16"/>
       <c r="G557" s="16"/>
@@ -16967,7 +16937,7 @@
       <c r="A558" s="50"/>
       <c r="B558" s="21"/>
       <c r="C558" s="21"/>
-      <c r="D558" s="67"/>
+      <c r="D558" s="60"/>
       <c r="E558" s="52"/>
       <c r="F558" s="16"/>
       <c r="G558" s="16"/>
@@ -26236,17 +26206,17 @@
     <row r="1000" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="E10:G13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>

--- a/rtw_excel_report/report_unit_price_quotation/unit_price_quotation.xlsx
+++ b/rtw_excel_report/report_unit_price_quotation/unit_price_quotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_unit_price_quotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6AF48E-6A67-483F-BA41-6DBAC37929FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5F55D1-06BA-490A-ADBF-E4C86C66CB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -403,12 +403,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -424,10 +418,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -441,8 +438,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,7 +735,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -766,8 +763,8 @@
       <c r="E1" s="15"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="13"/>
       <c r="K1" s="16"/>
       <c r="L1" s="11"/>
@@ -820,8 +817,8 @@
       <c r="E3" s="24"/>
       <c r="F3" s="19"/>
       <c r="G3" s="39"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="13"/>
       <c r="K3" s="16"/>
       <c r="L3" s="11"/>
@@ -848,8 +845,8 @@
       <c r="E4" s="38"/>
       <c r="F4" s="19"/>
       <c r="G4" s="39"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="13"/>
       <c r="K4" s="16"/>
       <c r="L4" s="11"/>
@@ -878,8 +875,8 @@
       <c r="E5" s="24"/>
       <c r="F5" s="19"/>
       <c r="G5" s="39"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="13"/>
       <c r="K5" s="16"/>
       <c r="L5" s="11"/>
@@ -908,8 +905,8 @@
       <c r="E6" s="38"/>
       <c r="F6" s="18"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="13"/>
       <c r="K6" s="16"/>
       <c r="L6" s="11"/>
@@ -938,8 +935,8 @@
       <c r="E7" s="24"/>
       <c r="F7" s="19"/>
       <c r="G7" s="39"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="13"/>
       <c r="K7" s="16"/>
       <c r="L7" s="11"/>
@@ -964,8 +961,8 @@
       <c r="E8" s="38"/>
       <c r="F8" s="41"/>
       <c r="G8" s="39"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
       <c r="J8" s="13"/>
       <c r="K8" s="16"/>
       <c r="L8" s="11"/>
@@ -994,8 +991,8 @@
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="13"/>
       <c r="K9" s="16"/>
       <c r="L9" s="11"/>
@@ -1019,9 +1016,9 @@
       <c r="D10" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="23"/>
       <c r="I10" s="17"/>
       <c r="J10" s="13"/>
@@ -1048,9 +1045,9 @@
       <c r="B11" s="40"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="23"/>
       <c r="I11" s="17"/>
       <c r="J11" s="13"/>
@@ -1077,9 +1074,9 @@
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="24"/>
       <c r="I12" s="17"/>
       <c r="J12" s="13"/>
@@ -1106,9 +1103,9 @@
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="25"/>
       <c r="I13" s="15"/>
       <c r="J13" s="13"/>
@@ -1160,16 +1157,16 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="55" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="57" t="s">
@@ -1207,15 +1204,15 @@
       <c r="AA15" s="5"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="27"/>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
@@ -1237,9 +1234,9 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="43"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="54"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
@@ -1266,9 +1263,9 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="43"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="55"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
@@ -1295,9 +1292,9 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="44"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="55"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
       <c r="G19" s="30"/>
@@ -1324,9 +1321,9 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="43"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="55"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="30"/>
@@ -1353,9 +1350,9 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="55"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="30"/>
@@ -1382,9 +1379,9 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="55"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="G22" s="30"/>
@@ -1411,9 +1408,9 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="43"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="55"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="30"/>
@@ -1440,9 +1437,9 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="43"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="55"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="30"/>
@@ -1469,9 +1466,9 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="43"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="54"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="30"/>
@@ -1498,9 +1495,9 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="55"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="30"/>
@@ -1527,9 +1524,9 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="43"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="55"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="30"/>
@@ -1556,9 +1553,9 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="43"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="55"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
       <c r="G28" s="30"/>
@@ -1585,9 +1582,9 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="43"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="55"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="30"/>
@@ -1614,9 +1611,9 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="43"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="55"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="30"/>
@@ -1643,9 +1640,9 @@
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="43"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="55"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="30"/>
@@ -1672,9 +1669,9 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="44"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="55"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="30"/>
@@ -1701,9 +1698,9 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="44"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="54"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="30"/>
@@ -1730,9 +1727,9 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="44"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="55"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
       <c r="G34" s="30"/>
@@ -1759,9 +1756,9 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="44"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="55"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
       <c r="G35" s="30"/>
@@ -1788,9 +1785,9 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="44"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="55"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="31"/>
       <c r="F36" s="31"/>
       <c r="G36" s="30"/>
@@ -1817,9 +1814,9 @@
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="44"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="55"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="30"/>
@@ -1846,9 +1843,9 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="44"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="55"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
       <c r="G38" s="30"/>
@@ -1875,9 +1872,9 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="43"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="55"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="30"/>
@@ -1904,9 +1901,9 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="43"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="55"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="31"/>
       <c r="F40" s="31"/>
       <c r="G40" s="30"/>
@@ -1933,9 +1930,9 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="43"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="54"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
       <c r="G41" s="30"/>
@@ -1962,9 +1959,9 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="43"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="55"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="30"/>
@@ -1991,9 +1988,9 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="43"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="55"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="30"/>
@@ -2020,9 +2017,9 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="43"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="55"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="30"/>
@@ -2049,9 +2046,9 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="43"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="55"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
       <c r="G45" s="30"/>
@@ -2078,9 +2075,9 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="43"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="55"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
       <c r="G46" s="30"/>
@@ -2107,9 +2104,9 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="43"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="55"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="30"/>
@@ -2136,9 +2133,9 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="43"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="55"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
       <c r="G48" s="30"/>
@@ -2165,9 +2162,9 @@
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="43"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="54"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
       <c r="G49" s="30"/>
@@ -2194,9 +2191,9 @@
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="43"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="55"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="53"/>
       <c r="E50" s="31"/>
       <c r="F50" s="31"/>
       <c r="G50" s="30"/>
@@ -2223,9 +2220,9 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="43"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="55"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
       <c r="G51" s="30"/>
@@ -2252,9 +2249,9 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="43"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="55"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="30"/>
@@ -2281,9 +2278,9 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="43"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="55"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="31"/>
       <c r="F53" s="31"/>
       <c r="G53" s="30"/>
@@ -2310,9 +2307,9 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="43"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="55"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="31"/>
       <c r="F54" s="31"/>
       <c r="G54" s="30"/>
@@ -2339,9 +2336,9 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="43"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="55"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="31"/>
       <c r="F55" s="31"/>
       <c r="G55" s="30"/>
@@ -2368,9 +2365,9 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="43"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="55"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
       <c r="G56" s="30"/>
@@ -2397,9 +2394,9 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="43"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="54"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
       <c r="G57" s="30"/>
@@ -2426,9 +2423,9 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="43"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="55"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="31"/>
       <c r="F58" s="31"/>
       <c r="G58" s="30"/>
@@ -2455,9 +2452,9 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="43"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="55"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="31"/>
       <c r="F59" s="31"/>
       <c r="G59" s="30"/>
@@ -2484,9 +2481,9 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="43"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="55"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="31"/>
       <c r="F60" s="31"/>
       <c r="G60" s="30"/>
@@ -2513,9 +2510,9 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="43"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="55"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="31"/>
       <c r="F61" s="31"/>
       <c r="G61" s="30"/>
@@ -2542,9 +2539,9 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="44"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="55"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
       <c r="G62" s="30"/>
@@ -2571,9 +2568,9 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="44"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="55"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="31"/>
       <c r="F63" s="31"/>
       <c r="G63" s="30"/>
@@ -2600,9 +2597,9 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="44"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="55"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
       <c r="G64" s="30"/>
@@ -2629,9 +2626,9 @@
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="44"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="54"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="52"/>
       <c r="E65" s="31"/>
       <c r="F65" s="31"/>
       <c r="G65" s="30"/>
@@ -2658,9 +2655,9 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="44"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="55"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="31"/>
       <c r="F66" s="31"/>
       <c r="G66" s="30"/>
@@ -2687,9 +2684,9 @@
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="44"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="55"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="53"/>
       <c r="E67" s="31"/>
       <c r="F67" s="31"/>
       <c r="G67" s="30"/>
@@ -2716,9 +2713,9 @@
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="44"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="55"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="31"/>
       <c r="F68" s="31"/>
       <c r="G68" s="30"/>
@@ -2745,9 +2742,9 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="44"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="55"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="53"/>
       <c r="E69" s="31"/>
       <c r="F69" s="31"/>
       <c r="G69" s="30"/>
@@ -2774,9 +2771,9 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="44"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="55"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="53"/>
       <c r="E70" s="31"/>
       <c r="F70" s="31"/>
       <c r="G70" s="30"/>
@@ -2803,9 +2800,9 @@
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="44"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="55"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="53"/>
       <c r="E71" s="31"/>
       <c r="F71" s="31"/>
       <c r="G71" s="30"/>
@@ -2832,9 +2829,9 @@
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="44"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="55"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="53"/>
       <c r="E72" s="31"/>
       <c r="F72" s="31"/>
       <c r="G72" s="30"/>
@@ -2861,9 +2858,9 @@
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="44"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="54"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="52"/>
       <c r="E73" s="31"/>
       <c r="F73" s="31"/>
       <c r="G73" s="30"/>
@@ -2890,9 +2887,9 @@
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="44"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="55"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="53"/>
       <c r="E74" s="31"/>
       <c r="F74" s="31"/>
       <c r="G74" s="30"/>
@@ -2919,9 +2916,9 @@
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="44"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="55"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="53"/>
       <c r="E75" s="31"/>
       <c r="F75" s="31"/>
       <c r="G75" s="30"/>
@@ -2948,9 +2945,9 @@
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="44"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="55"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="53"/>
       <c r="E76" s="31"/>
       <c r="F76" s="31"/>
       <c r="G76" s="30"/>
@@ -2977,9 +2974,9 @@
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="44"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="55"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="53"/>
       <c r="E77" s="31"/>
       <c r="F77" s="31"/>
       <c r="G77" s="30"/>
@@ -3006,9 +3003,9 @@
     </row>
     <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="44"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="55"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="53"/>
       <c r="E78" s="31"/>
       <c r="F78" s="31"/>
       <c r="G78" s="30"/>
@@ -3035,9 +3032,9 @@
     </row>
     <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="44"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="55"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="53"/>
       <c r="E79" s="31"/>
       <c r="F79" s="31"/>
       <c r="G79" s="30"/>
@@ -3064,9 +3061,9 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="44"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="55"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="53"/>
       <c r="E80" s="31"/>
       <c r="F80" s="31"/>
       <c r="G80" s="30"/>
@@ -3093,9 +3090,9 @@
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="44"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="54"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="52"/>
       <c r="E81" s="31"/>
       <c r="F81" s="31"/>
       <c r="G81" s="30"/>
@@ -3122,9 +3119,9 @@
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="44"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="55"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="53"/>
       <c r="E82" s="31"/>
       <c r="F82" s="31"/>
       <c r="G82" s="30"/>
@@ -3151,9 +3148,9 @@
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="44"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="55"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="53"/>
       <c r="E83" s="31"/>
       <c r="F83" s="31"/>
       <c r="G83" s="30"/>
@@ -3180,9 +3177,9 @@
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="44"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="55"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="53"/>
       <c r="E84" s="31"/>
       <c r="F84" s="31"/>
       <c r="G84" s="30"/>
@@ -3209,9 +3206,9 @@
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="44"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="55"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="53"/>
       <c r="E85" s="31"/>
       <c r="F85" s="31"/>
       <c r="G85" s="30"/>
@@ -3238,9 +3235,9 @@
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="44"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="55"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="53"/>
       <c r="E86" s="31"/>
       <c r="F86" s="31"/>
       <c r="G86" s="30"/>
@@ -3267,9 +3264,9 @@
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="44"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="55"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="53"/>
       <c r="E87" s="31"/>
       <c r="F87" s="31"/>
       <c r="G87" s="30"/>
@@ -3296,9 +3293,9 @@
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="44"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="55"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="53"/>
       <c r="E88" s="31"/>
       <c r="F88" s="31"/>
       <c r="G88" s="30"/>
@@ -3325,9 +3322,9 @@
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="44"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="54"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="52"/>
       <c r="E89" s="31"/>
       <c r="F89" s="31"/>
       <c r="G89" s="30"/>
@@ -3354,9 +3351,9 @@
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="44"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="55"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="53"/>
       <c r="E90" s="31"/>
       <c r="F90" s="31"/>
       <c r="G90" s="30"/>
@@ -3383,9 +3380,9 @@
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="44"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="55"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="53"/>
       <c r="E91" s="31"/>
       <c r="F91" s="31"/>
       <c r="G91" s="30"/>
@@ -3412,9 +3409,9 @@
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="44"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="55"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="53"/>
       <c r="E92" s="31"/>
       <c r="F92" s="31"/>
       <c r="G92" s="30"/>
@@ -3441,9 +3438,9 @@
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="44"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="55"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="53"/>
       <c r="E93" s="31"/>
       <c r="F93" s="31"/>
       <c r="G93" s="30"/>
@@ -3470,9 +3467,9 @@
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="44"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="55"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="53"/>
       <c r="E94" s="31"/>
       <c r="F94" s="31"/>
       <c r="G94" s="30"/>
@@ -3499,9 +3496,9 @@
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="44"/>
-      <c r="B95" s="51"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="55"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="53"/>
       <c r="E95" s="31"/>
       <c r="F95" s="31"/>
       <c r="G95" s="30"/>
@@ -3528,9 +3525,9 @@
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="44"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="55"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="53"/>
       <c r="E96" s="31"/>
       <c r="F96" s="31"/>
       <c r="G96" s="30"/>
@@ -3557,9 +3554,9 @@
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="44"/>
-      <c r="B97" s="50"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="54"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="52"/>
       <c r="E97" s="31"/>
       <c r="F97" s="31"/>
       <c r="G97" s="30"/>
@@ -3586,9 +3583,9 @@
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="44"/>
-      <c r="B98" s="51"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="55"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="53"/>
       <c r="E98" s="31"/>
       <c r="F98" s="31"/>
       <c r="G98" s="30"/>
@@ -3615,9 +3612,9 @@
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="44"/>
-      <c r="B99" s="51"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="55"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="53"/>
       <c r="E99" s="31"/>
       <c r="F99" s="31"/>
       <c r="G99" s="30"/>
@@ -3644,9 +3641,9 @@
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="44"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="55"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="53"/>
       <c r="E100" s="31"/>
       <c r="F100" s="31"/>
       <c r="G100" s="30"/>
@@ -3673,9 +3670,9 @@
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="44"/>
-      <c r="B101" s="51"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="55"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="53"/>
       <c r="E101" s="31"/>
       <c r="F101" s="31"/>
       <c r="G101" s="30"/>
@@ -3702,9 +3699,9 @@
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="44"/>
-      <c r="B102" s="51"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="55"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="53"/>
       <c r="E102" s="31"/>
       <c r="F102" s="31"/>
       <c r="G102" s="30"/>
@@ -3731,9 +3728,9 @@
     </row>
     <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="44"/>
-      <c r="B103" s="51"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="55"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="53"/>
       <c r="E103" s="31"/>
       <c r="F103" s="31"/>
       <c r="G103" s="30"/>
@@ -3760,9 +3757,9 @@
     </row>
     <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="44"/>
-      <c r="B104" s="51"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="55"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="53"/>
       <c r="E104" s="31"/>
       <c r="F104" s="31"/>
       <c r="G104" s="30"/>
@@ -3789,9 +3786,9 @@
     </row>
     <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="44"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="54"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="52"/>
       <c r="E105" s="31"/>
       <c r="F105" s="31"/>
       <c r="G105" s="30"/>
@@ -3818,9 +3815,9 @@
     </row>
     <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="44"/>
-      <c r="B106" s="51"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="55"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="53"/>
       <c r="E106" s="31"/>
       <c r="F106" s="31"/>
       <c r="G106" s="30"/>
@@ -3847,9 +3844,9 @@
     </row>
     <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="44"/>
-      <c r="B107" s="51"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="55"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="53"/>
       <c r="E107" s="31"/>
       <c r="F107" s="31"/>
       <c r="G107" s="30"/>
@@ -3876,9 +3873,9 @@
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="44"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="55"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="53"/>
       <c r="E108" s="31"/>
       <c r="F108" s="31"/>
       <c r="G108" s="30"/>
@@ -3905,9 +3902,9 @@
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="44"/>
-      <c r="B109" s="51"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="55"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="53"/>
       <c r="E109" s="31"/>
       <c r="F109" s="31"/>
       <c r="G109" s="30"/>
@@ -3934,9 +3931,9 @@
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="44"/>
-      <c r="B110" s="51"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="55"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="53"/>
       <c r="E110" s="31"/>
       <c r="F110" s="31"/>
       <c r="G110" s="30"/>
@@ -3963,9 +3960,9 @@
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="44"/>
-      <c r="B111" s="51"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="55"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="53"/>
       <c r="E111" s="31"/>
       <c r="F111" s="31"/>
       <c r="G111" s="30"/>
@@ -3992,9 +3989,9 @@
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="44"/>
-      <c r="B112" s="51"/>
-      <c r="C112" s="53"/>
-      <c r="D112" s="55"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="53"/>
       <c r="E112" s="31"/>
       <c r="F112" s="31"/>
       <c r="G112" s="30"/>
@@ -4021,9 +4018,9 @@
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="44"/>
-      <c r="B113" s="50"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="54"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="52"/>
       <c r="E113" s="31"/>
       <c r="F113" s="31"/>
       <c r="G113" s="30"/>
@@ -4050,9 +4047,9 @@
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="44"/>
-      <c r="B114" s="51"/>
-      <c r="C114" s="53"/>
-      <c r="D114" s="55"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="53"/>
       <c r="E114" s="31"/>
       <c r="F114" s="31"/>
       <c r="G114" s="30"/>
@@ -4079,9 +4076,9 @@
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="44"/>
-      <c r="B115" s="51"/>
-      <c r="C115" s="53"/>
-      <c r="D115" s="55"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="53"/>
       <c r="E115" s="31"/>
       <c r="F115" s="31"/>
       <c r="G115" s="30"/>
@@ -4108,9 +4105,9 @@
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="44"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="55"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="53"/>
       <c r="E116" s="31"/>
       <c r="F116" s="31"/>
       <c r="G116" s="30"/>
@@ -4137,9 +4134,9 @@
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="44"/>
-      <c r="B117" s="51"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="55"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="53"/>
       <c r="E117" s="31"/>
       <c r="F117" s="31"/>
       <c r="G117" s="30"/>
@@ -4166,9 +4163,9 @@
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="44"/>
-      <c r="B118" s="51"/>
-      <c r="C118" s="53"/>
-      <c r="D118" s="55"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="51"/>
+      <c r="D118" s="53"/>
       <c r="E118" s="31"/>
       <c r="F118" s="31"/>
       <c r="G118" s="30"/>
@@ -4195,9 +4192,9 @@
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="44"/>
-      <c r="B119" s="51"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="55"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="51"/>
+      <c r="D119" s="53"/>
       <c r="E119" s="31"/>
       <c r="F119" s="31"/>
       <c r="G119" s="30"/>
@@ -4224,9 +4221,9 @@
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="44"/>
-      <c r="B120" s="51"/>
-      <c r="C120" s="53"/>
-      <c r="D120" s="55"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="53"/>
       <c r="E120" s="31"/>
       <c r="F120" s="31"/>
       <c r="G120" s="30"/>
@@ -4253,9 +4250,9 @@
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="44"/>
-      <c r="B121" s="50"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="54"/>
+      <c r="B121" s="63"/>
+      <c r="C121" s="50"/>
+      <c r="D121" s="52"/>
       <c r="E121" s="31"/>
       <c r="F121" s="31"/>
       <c r="G121" s="30"/>
@@ -4282,9 +4279,9 @@
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="44"/>
-      <c r="B122" s="51"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="55"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="51"/>
+      <c r="D122" s="53"/>
       <c r="E122" s="31"/>
       <c r="F122" s="31"/>
       <c r="G122" s="30"/>
@@ -4311,9 +4308,9 @@
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="44"/>
-      <c r="B123" s="51"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="55"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="51"/>
+      <c r="D123" s="53"/>
       <c r="E123" s="31"/>
       <c r="F123" s="31"/>
       <c r="G123" s="30"/>
@@ -4340,9 +4337,9 @@
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="44"/>
-      <c r="B124" s="51"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="55"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="51"/>
+      <c r="D124" s="53"/>
       <c r="E124" s="31"/>
       <c r="F124" s="31"/>
       <c r="G124" s="30"/>
@@ -4369,9 +4366,9 @@
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="44"/>
-      <c r="B125" s="51"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="55"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="51"/>
+      <c r="D125" s="53"/>
       <c r="E125" s="31"/>
       <c r="F125" s="31"/>
       <c r="G125" s="30"/>
@@ -4398,9 +4395,9 @@
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="44"/>
-      <c r="B126" s="51"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="55"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="51"/>
+      <c r="D126" s="53"/>
       <c r="E126" s="31"/>
       <c r="F126" s="31"/>
       <c r="G126" s="30"/>
@@ -4427,9 +4424,9 @@
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="44"/>
-      <c r="B127" s="51"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="55"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="53"/>
       <c r="E127" s="31"/>
       <c r="F127" s="31"/>
       <c r="G127" s="30"/>
@@ -4456,9 +4453,9 @@
     </row>
     <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="44"/>
-      <c r="B128" s="51"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="55"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="51"/>
+      <c r="D128" s="53"/>
       <c r="E128" s="31"/>
       <c r="F128" s="31"/>
       <c r="G128" s="30"/>
@@ -4485,9 +4482,9 @@
     </row>
     <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="44"/>
-      <c r="B129" s="50"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="54"/>
+      <c r="B129" s="63"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="52"/>
       <c r="E129" s="31"/>
       <c r="F129" s="31"/>
       <c r="G129" s="30"/>
@@ -4514,9 +4511,9 @@
     </row>
     <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="44"/>
-      <c r="B130" s="51"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="55"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="51"/>
+      <c r="D130" s="53"/>
       <c r="E130" s="31"/>
       <c r="F130" s="31"/>
       <c r="G130" s="30"/>
@@ -4543,9 +4540,9 @@
     </row>
     <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="44"/>
-      <c r="B131" s="51"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="55"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="51"/>
+      <c r="D131" s="53"/>
       <c r="E131" s="31"/>
       <c r="F131" s="31"/>
       <c r="G131" s="30"/>
@@ -4572,9 +4569,9 @@
     </row>
     <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="44"/>
-      <c r="B132" s="51"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="55"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="53"/>
       <c r="E132" s="31"/>
       <c r="F132" s="31"/>
       <c r="G132" s="30"/>
@@ -4601,9 +4598,9 @@
     </row>
     <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="44"/>
-      <c r="B133" s="51"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="55"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="51"/>
+      <c r="D133" s="53"/>
       <c r="E133" s="31"/>
       <c r="F133" s="31"/>
       <c r="G133" s="30"/>
@@ -4630,9 +4627,9 @@
     </row>
     <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="44"/>
-      <c r="B134" s="51"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="55"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="53"/>
       <c r="E134" s="31"/>
       <c r="F134" s="31"/>
       <c r="G134" s="30"/>
@@ -4659,9 +4656,9 @@
     </row>
     <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="44"/>
-      <c r="B135" s="51"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="55"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="53"/>
       <c r="E135" s="31"/>
       <c r="F135" s="31"/>
       <c r="G135" s="30"/>
@@ -4688,9 +4685,9 @@
     </row>
     <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="44"/>
-      <c r="B136" s="51"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="55"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="53"/>
       <c r="E136" s="31"/>
       <c r="F136" s="31"/>
       <c r="G136" s="30"/>
@@ -4717,9 +4714,9 @@
     </row>
     <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="44"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="52"/>
-      <c r="D137" s="54"/>
+      <c r="B137" s="63"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="52"/>
       <c r="E137" s="31"/>
       <c r="F137" s="31"/>
       <c r="G137" s="30"/>
@@ -4746,9 +4743,9 @@
     </row>
     <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="44"/>
-      <c r="B138" s="51"/>
-      <c r="C138" s="53"/>
-      <c r="D138" s="55"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="51"/>
+      <c r="D138" s="53"/>
       <c r="E138" s="31"/>
       <c r="F138" s="31"/>
       <c r="G138" s="30"/>
@@ -4775,9 +4772,9 @@
     </row>
     <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="44"/>
-      <c r="B139" s="51"/>
-      <c r="C139" s="53"/>
-      <c r="D139" s="55"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="51"/>
+      <c r="D139" s="53"/>
       <c r="E139" s="31"/>
       <c r="F139" s="31"/>
       <c r="G139" s="30"/>
@@ -4804,9 +4801,9 @@
     </row>
     <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="44"/>
-      <c r="B140" s="51"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="55"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="53"/>
       <c r="E140" s="31"/>
       <c r="F140" s="31"/>
       <c r="G140" s="30"/>
@@ -4833,9 +4830,9 @@
     </row>
     <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="44"/>
-      <c r="B141" s="51"/>
-      <c r="C141" s="53"/>
-      <c r="D141" s="55"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="51"/>
+      <c r="D141" s="53"/>
       <c r="E141" s="31"/>
       <c r="F141" s="31"/>
       <c r="G141" s="30"/>
@@ -4862,9 +4859,9 @@
     </row>
     <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="44"/>
-      <c r="B142" s="51"/>
-      <c r="C142" s="53"/>
-      <c r="D142" s="55"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="51"/>
+      <c r="D142" s="53"/>
       <c r="E142" s="31"/>
       <c r="F142" s="31"/>
       <c r="G142" s="30"/>
@@ -4891,9 +4888,9 @@
     </row>
     <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="44"/>
-      <c r="B143" s="51"/>
-      <c r="C143" s="53"/>
-      <c r="D143" s="55"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="51"/>
+      <c r="D143" s="53"/>
       <c r="E143" s="31"/>
       <c r="F143" s="31"/>
       <c r="G143" s="30"/>
@@ -4920,9 +4917,9 @@
     </row>
     <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="44"/>
-      <c r="B144" s="51"/>
-      <c r="C144" s="53"/>
-      <c r="D144" s="55"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="51"/>
+      <c r="D144" s="53"/>
       <c r="E144" s="31"/>
       <c r="F144" s="31"/>
       <c r="G144" s="30"/>
@@ -4949,9 +4946,9 @@
     </row>
     <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="44"/>
-      <c r="B145" s="50"/>
-      <c r="C145" s="52"/>
-      <c r="D145" s="54"/>
+      <c r="B145" s="63"/>
+      <c r="C145" s="50"/>
+      <c r="D145" s="52"/>
       <c r="E145" s="31"/>
       <c r="F145" s="31"/>
       <c r="G145" s="30"/>
@@ -4978,9 +4975,9 @@
     </row>
     <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="44"/>
-      <c r="B146" s="51"/>
-      <c r="C146" s="53"/>
-      <c r="D146" s="55"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="53"/>
       <c r="E146" s="31"/>
       <c r="F146" s="31"/>
       <c r="G146" s="30"/>
@@ -5007,9 +5004,9 @@
     </row>
     <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="44"/>
-      <c r="B147" s="51"/>
-      <c r="C147" s="53"/>
-      <c r="D147" s="55"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="53"/>
       <c r="E147" s="31"/>
       <c r="F147" s="31"/>
       <c r="G147" s="30"/>
@@ -5036,9 +5033,9 @@
     </row>
     <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="44"/>
-      <c r="B148" s="51"/>
-      <c r="C148" s="53"/>
-      <c r="D148" s="55"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="53"/>
       <c r="E148" s="31"/>
       <c r="F148" s="31"/>
       <c r="G148" s="30"/>
@@ -5065,9 +5062,9 @@
     </row>
     <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="44"/>
-      <c r="B149" s="51"/>
-      <c r="C149" s="53"/>
-      <c r="D149" s="55"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="53"/>
       <c r="E149" s="31"/>
       <c r="F149" s="31"/>
       <c r="G149" s="30"/>
@@ -5094,9 +5091,9 @@
     </row>
     <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="44"/>
-      <c r="B150" s="51"/>
-      <c r="C150" s="53"/>
-      <c r="D150" s="55"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="53"/>
       <c r="E150" s="31"/>
       <c r="F150" s="31"/>
       <c r="G150" s="30"/>
@@ -5123,9 +5120,9 @@
     </row>
     <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="44"/>
-      <c r="B151" s="51"/>
-      <c r="C151" s="53"/>
-      <c r="D151" s="55"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="53"/>
       <c r="E151" s="31"/>
       <c r="F151" s="31"/>
       <c r="G151" s="30"/>
@@ -5152,9 +5149,9 @@
     </row>
     <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="44"/>
-      <c r="B152" s="51"/>
-      <c r="C152" s="53"/>
-      <c r="D152" s="55"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="53"/>
       <c r="E152" s="31"/>
       <c r="F152" s="31"/>
       <c r="G152" s="30"/>
@@ -5181,9 +5178,9 @@
     </row>
     <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="44"/>
-      <c r="B153" s="50"/>
-      <c r="C153" s="52"/>
-      <c r="D153" s="54"/>
+      <c r="B153" s="63"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="52"/>
       <c r="E153" s="31"/>
       <c r="F153" s="31"/>
       <c r="G153" s="30"/>
@@ -5210,9 +5207,9 @@
     </row>
     <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="44"/>
-      <c r="B154" s="51"/>
-      <c r="C154" s="53"/>
-      <c r="D154" s="55"/>
+      <c r="B154" s="21"/>
+      <c r="C154" s="51"/>
+      <c r="D154" s="53"/>
       <c r="E154" s="31"/>
       <c r="F154" s="31"/>
       <c r="G154" s="30"/>
@@ -5239,9 +5236,9 @@
     </row>
     <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="44"/>
-      <c r="B155" s="51"/>
-      <c r="C155" s="53"/>
-      <c r="D155" s="55"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="51"/>
+      <c r="D155" s="53"/>
       <c r="E155" s="31"/>
       <c r="F155" s="31"/>
       <c r="G155" s="30"/>
@@ -5268,9 +5265,9 @@
     </row>
     <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="44"/>
-      <c r="B156" s="51"/>
-      <c r="C156" s="53"/>
-      <c r="D156" s="55"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="51"/>
+      <c r="D156" s="53"/>
       <c r="E156" s="31"/>
       <c r="F156" s="31"/>
       <c r="G156" s="30"/>
@@ -5297,9 +5294,9 @@
     </row>
     <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="44"/>
-      <c r="B157" s="51"/>
-      <c r="C157" s="53"/>
-      <c r="D157" s="55"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="51"/>
+      <c r="D157" s="53"/>
       <c r="E157" s="31"/>
       <c r="F157" s="31"/>
       <c r="G157" s="30"/>
@@ -5326,9 +5323,9 @@
     </row>
     <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="44"/>
-      <c r="B158" s="51"/>
-      <c r="C158" s="53"/>
-      <c r="D158" s="55"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="51"/>
+      <c r="D158" s="53"/>
       <c r="E158" s="31"/>
       <c r="F158" s="31"/>
       <c r="G158" s="30"/>
@@ -5355,9 +5352,9 @@
     </row>
     <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="44"/>
-      <c r="B159" s="51"/>
-      <c r="C159" s="53"/>
-      <c r="D159" s="55"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="51"/>
+      <c r="D159" s="53"/>
       <c r="E159" s="31"/>
       <c r="F159" s="31"/>
       <c r="G159" s="30"/>
@@ -5384,9 +5381,9 @@
     </row>
     <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="44"/>
-      <c r="B160" s="51"/>
-      <c r="C160" s="53"/>
-      <c r="D160" s="55"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="51"/>
+      <c r="D160" s="53"/>
       <c r="E160" s="31"/>
       <c r="F160" s="31"/>
       <c r="G160" s="30"/>
@@ -5413,9 +5410,9 @@
     </row>
     <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="44"/>
-      <c r="B161" s="50"/>
-      <c r="C161" s="52"/>
-      <c r="D161" s="54"/>
+      <c r="B161" s="63"/>
+      <c r="C161" s="50"/>
+      <c r="D161" s="52"/>
       <c r="E161" s="31"/>
       <c r="F161" s="31"/>
       <c r="G161" s="30"/>
@@ -5442,9 +5439,9 @@
     </row>
     <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="44"/>
-      <c r="B162" s="51"/>
-      <c r="C162" s="53"/>
-      <c r="D162" s="55"/>
+      <c r="B162" s="21"/>
+      <c r="C162" s="51"/>
+      <c r="D162" s="53"/>
       <c r="E162" s="31"/>
       <c r="F162" s="31"/>
       <c r="G162" s="30"/>
@@ -5471,9 +5468,9 @@
     </row>
     <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="44"/>
-      <c r="B163" s="51"/>
-      <c r="C163" s="53"/>
-      <c r="D163" s="55"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="51"/>
+      <c r="D163" s="53"/>
       <c r="E163" s="31"/>
       <c r="F163" s="31"/>
       <c r="G163" s="30"/>
@@ -5500,9 +5497,9 @@
     </row>
     <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="44"/>
-      <c r="B164" s="51"/>
-      <c r="C164" s="53"/>
-      <c r="D164" s="55"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="51"/>
+      <c r="D164" s="53"/>
       <c r="E164" s="31"/>
       <c r="F164" s="31"/>
       <c r="G164" s="30"/>
@@ -5529,9 +5526,9 @@
     </row>
     <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="44"/>
-      <c r="B165" s="51"/>
-      <c r="C165" s="53"/>
-      <c r="D165" s="55"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="51"/>
+      <c r="D165" s="53"/>
       <c r="E165" s="31"/>
       <c r="F165" s="31"/>
       <c r="G165" s="30"/>
@@ -5558,9 +5555,9 @@
     </row>
     <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="44"/>
-      <c r="B166" s="51"/>
-      <c r="C166" s="53"/>
-      <c r="D166" s="55"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="51"/>
+      <c r="D166" s="53"/>
       <c r="E166" s="31"/>
       <c r="F166" s="31"/>
       <c r="G166" s="30"/>
@@ -5587,9 +5584,9 @@
     </row>
     <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="44"/>
-      <c r="B167" s="51"/>
-      <c r="C167" s="53"/>
-      <c r="D167" s="55"/>
+      <c r="B167" s="21"/>
+      <c r="C167" s="51"/>
+      <c r="D167" s="53"/>
       <c r="E167" s="31"/>
       <c r="F167" s="31"/>
       <c r="G167" s="30"/>
@@ -5616,9 +5613,9 @@
     </row>
     <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="44"/>
-      <c r="B168" s="51"/>
-      <c r="C168" s="53"/>
-      <c r="D168" s="55"/>
+      <c r="B168" s="21"/>
+      <c r="C168" s="51"/>
+      <c r="D168" s="53"/>
       <c r="E168" s="31"/>
       <c r="F168" s="31"/>
       <c r="G168" s="30"/>
@@ -5645,9 +5642,9 @@
     </row>
     <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="44"/>
-      <c r="B169" s="50"/>
-      <c r="C169" s="52"/>
-      <c r="D169" s="54"/>
+      <c r="B169" s="63"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="52"/>
       <c r="E169" s="31"/>
       <c r="F169" s="31"/>
       <c r="G169" s="30"/>
@@ -5674,9 +5671,9 @@
     </row>
     <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="44"/>
-      <c r="B170" s="51"/>
-      <c r="C170" s="53"/>
-      <c r="D170" s="55"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="51"/>
+      <c r="D170" s="53"/>
       <c r="E170" s="31"/>
       <c r="F170" s="31"/>
       <c r="G170" s="30"/>
@@ -5703,9 +5700,9 @@
     </row>
     <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="44"/>
-      <c r="B171" s="51"/>
-      <c r="C171" s="53"/>
-      <c r="D171" s="55"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="51"/>
+      <c r="D171" s="53"/>
       <c r="E171" s="31"/>
       <c r="F171" s="31"/>
       <c r="G171" s="30"/>
@@ -5732,9 +5729,9 @@
     </row>
     <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="44"/>
-      <c r="B172" s="51"/>
-      <c r="C172" s="53"/>
-      <c r="D172" s="55"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="51"/>
+      <c r="D172" s="53"/>
       <c r="E172" s="31"/>
       <c r="F172" s="31"/>
       <c r="G172" s="30"/>
@@ -5761,9 +5758,9 @@
     </row>
     <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="44"/>
-      <c r="B173" s="51"/>
-      <c r="C173" s="53"/>
-      <c r="D173" s="55"/>
+      <c r="B173" s="21"/>
+      <c r="C173" s="51"/>
+      <c r="D173" s="53"/>
       <c r="E173" s="31"/>
       <c r="F173" s="31"/>
       <c r="G173" s="30"/>
@@ -5790,9 +5787,9 @@
     </row>
     <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="44"/>
-      <c r="B174" s="51"/>
-      <c r="C174" s="53"/>
-      <c r="D174" s="55"/>
+      <c r="B174" s="21"/>
+      <c r="C174" s="51"/>
+      <c r="D174" s="53"/>
       <c r="E174" s="31"/>
       <c r="F174" s="31"/>
       <c r="G174" s="30"/>
@@ -5819,9 +5816,9 @@
     </row>
     <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="44"/>
-      <c r="B175" s="51"/>
-      <c r="C175" s="53"/>
-      <c r="D175" s="55"/>
+      <c r="B175" s="21"/>
+      <c r="C175" s="51"/>
+      <c r="D175" s="53"/>
       <c r="E175" s="31"/>
       <c r="F175" s="31"/>
       <c r="G175" s="30"/>
@@ -5848,9 +5845,9 @@
     </row>
     <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="44"/>
-      <c r="B176" s="51"/>
-      <c r="C176" s="53"/>
-      <c r="D176" s="55"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="51"/>
+      <c r="D176" s="53"/>
       <c r="E176" s="31"/>
       <c r="F176" s="31"/>
       <c r="G176" s="30"/>
@@ -5877,9 +5874,9 @@
     </row>
     <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="44"/>
-      <c r="B177" s="50"/>
-      <c r="C177" s="52"/>
-      <c r="D177" s="54"/>
+      <c r="B177" s="63"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="52"/>
       <c r="E177" s="31"/>
       <c r="F177" s="31"/>
       <c r="G177" s="30"/>
@@ -5906,9 +5903,9 @@
     </row>
     <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="44"/>
-      <c r="B178" s="51"/>
-      <c r="C178" s="53"/>
-      <c r="D178" s="55"/>
+      <c r="B178" s="21"/>
+      <c r="C178" s="51"/>
+      <c r="D178" s="53"/>
       <c r="E178" s="31"/>
       <c r="F178" s="31"/>
       <c r="G178" s="30"/>
@@ -5935,9 +5932,9 @@
     </row>
     <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="44"/>
-      <c r="B179" s="51"/>
-      <c r="C179" s="53"/>
-      <c r="D179" s="55"/>
+      <c r="B179" s="21"/>
+      <c r="C179" s="51"/>
+      <c r="D179" s="53"/>
       <c r="E179" s="31"/>
       <c r="F179" s="31"/>
       <c r="G179" s="30"/>
@@ -5964,9 +5961,9 @@
     </row>
     <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="44"/>
-      <c r="B180" s="51"/>
-      <c r="C180" s="53"/>
-      <c r="D180" s="55"/>
+      <c r="B180" s="21"/>
+      <c r="C180" s="51"/>
+      <c r="D180" s="53"/>
       <c r="E180" s="31"/>
       <c r="F180" s="31"/>
       <c r="G180" s="30"/>
@@ -5993,9 +5990,9 @@
     </row>
     <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="44"/>
-      <c r="B181" s="51"/>
-      <c r="C181" s="53"/>
-      <c r="D181" s="55"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="51"/>
+      <c r="D181" s="53"/>
       <c r="E181" s="31"/>
       <c r="F181" s="31"/>
       <c r="G181" s="30"/>
@@ -6022,9 +6019,9 @@
     </row>
     <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="44"/>
-      <c r="B182" s="51"/>
-      <c r="C182" s="53"/>
-      <c r="D182" s="55"/>
+      <c r="B182" s="21"/>
+      <c r="C182" s="51"/>
+      <c r="D182" s="53"/>
       <c r="E182" s="31"/>
       <c r="F182" s="31"/>
       <c r="G182" s="30"/>
@@ -6051,9 +6048,9 @@
     </row>
     <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="44"/>
-      <c r="B183" s="51"/>
-      <c r="C183" s="53"/>
-      <c r="D183" s="55"/>
+      <c r="B183" s="21"/>
+      <c r="C183" s="51"/>
+      <c r="D183" s="53"/>
       <c r="E183" s="31"/>
       <c r="F183" s="31"/>
       <c r="G183" s="30"/>
@@ -6080,9 +6077,9 @@
     </row>
     <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="44"/>
-      <c r="B184" s="51"/>
-      <c r="C184" s="53"/>
-      <c r="D184" s="55"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="51"/>
+      <c r="D184" s="53"/>
       <c r="E184" s="31"/>
       <c r="F184" s="31"/>
       <c r="G184" s="30"/>
@@ -6109,9 +6106,9 @@
     </row>
     <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="44"/>
-      <c r="B185" s="50"/>
-      <c r="C185" s="52"/>
-      <c r="D185" s="54"/>
+      <c r="B185" s="63"/>
+      <c r="C185" s="50"/>
+      <c r="D185" s="52"/>
       <c r="E185" s="31"/>
       <c r="F185" s="31"/>
       <c r="G185" s="30"/>
@@ -6138,9 +6135,9 @@
     </row>
     <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="44"/>
-      <c r="B186" s="51"/>
-      <c r="C186" s="53"/>
-      <c r="D186" s="55"/>
+      <c r="B186" s="21"/>
+      <c r="C186" s="51"/>
+      <c r="D186" s="53"/>
       <c r="E186" s="31"/>
       <c r="F186" s="31"/>
       <c r="G186" s="30"/>
@@ -6167,9 +6164,9 @@
     </row>
     <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="44"/>
-      <c r="B187" s="51"/>
-      <c r="C187" s="53"/>
-      <c r="D187" s="55"/>
+      <c r="B187" s="21"/>
+      <c r="C187" s="51"/>
+      <c r="D187" s="53"/>
       <c r="E187" s="31"/>
       <c r="F187" s="31"/>
       <c r="G187" s="30"/>
@@ -6196,9 +6193,9 @@
     </row>
     <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="44"/>
-      <c r="B188" s="51"/>
-      <c r="C188" s="53"/>
-      <c r="D188" s="55"/>
+      <c r="B188" s="21"/>
+      <c r="C188" s="51"/>
+      <c r="D188" s="53"/>
       <c r="E188" s="31"/>
       <c r="F188" s="31"/>
       <c r="G188" s="30"/>
@@ -6225,9 +6222,9 @@
     </row>
     <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="44"/>
-      <c r="B189" s="51"/>
-      <c r="C189" s="53"/>
-      <c r="D189" s="55"/>
+      <c r="B189" s="21"/>
+      <c r="C189" s="51"/>
+      <c r="D189" s="53"/>
       <c r="E189" s="31"/>
       <c r="F189" s="31"/>
       <c r="G189" s="30"/>
@@ -6254,9 +6251,9 @@
     </row>
     <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="44"/>
-      <c r="B190" s="51"/>
-      <c r="C190" s="53"/>
-      <c r="D190" s="55"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="51"/>
+      <c r="D190" s="53"/>
       <c r="E190" s="31"/>
       <c r="F190" s="31"/>
       <c r="G190" s="30"/>
@@ -6283,9 +6280,9 @@
     </row>
     <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="44"/>
-      <c r="B191" s="51"/>
-      <c r="C191" s="53"/>
-      <c r="D191" s="55"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="51"/>
+      <c r="D191" s="53"/>
       <c r="E191" s="31"/>
       <c r="F191" s="31"/>
       <c r="G191" s="30"/>
@@ -6312,9 +6309,9 @@
     </row>
     <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="44"/>
-      <c r="B192" s="51"/>
-      <c r="C192" s="53"/>
-      <c r="D192" s="55"/>
+      <c r="B192" s="21"/>
+      <c r="C192" s="51"/>
+      <c r="D192" s="53"/>
       <c r="E192" s="31"/>
       <c r="F192" s="31"/>
       <c r="G192" s="30"/>
@@ -6341,9 +6338,9 @@
     </row>
     <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="44"/>
-      <c r="B193" s="50"/>
-      <c r="C193" s="52"/>
-      <c r="D193" s="54"/>
+      <c r="B193" s="63"/>
+      <c r="C193" s="50"/>
+      <c r="D193" s="52"/>
       <c r="E193" s="31"/>
       <c r="F193" s="31"/>
       <c r="G193" s="30"/>
@@ -6370,9 +6367,9 @@
     </row>
     <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="44"/>
-      <c r="B194" s="51"/>
-      <c r="C194" s="53"/>
-      <c r="D194" s="55"/>
+      <c r="B194" s="21"/>
+      <c r="C194" s="51"/>
+      <c r="D194" s="53"/>
       <c r="E194" s="31"/>
       <c r="F194" s="31"/>
       <c r="G194" s="30"/>
@@ -6399,9 +6396,9 @@
     </row>
     <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="44"/>
-      <c r="B195" s="51"/>
-      <c r="C195" s="53"/>
-      <c r="D195" s="55"/>
+      <c r="B195" s="21"/>
+      <c r="C195" s="51"/>
+      <c r="D195" s="53"/>
       <c r="E195" s="31"/>
       <c r="F195" s="31"/>
       <c r="G195" s="30"/>
@@ -6428,9 +6425,9 @@
     </row>
     <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="44"/>
-      <c r="B196" s="51"/>
-      <c r="C196" s="53"/>
-      <c r="D196" s="55"/>
+      <c r="B196" s="21"/>
+      <c r="C196" s="51"/>
+      <c r="D196" s="53"/>
       <c r="E196" s="31"/>
       <c r="F196" s="31"/>
       <c r="G196" s="30"/>
@@ -6457,9 +6454,9 @@
     </row>
     <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="44"/>
-      <c r="B197" s="51"/>
-      <c r="C197" s="53"/>
-      <c r="D197" s="55"/>
+      <c r="B197" s="21"/>
+      <c r="C197" s="51"/>
+      <c r="D197" s="53"/>
       <c r="E197" s="31"/>
       <c r="F197" s="31"/>
       <c r="G197" s="30"/>
@@ -6486,9 +6483,9 @@
     </row>
     <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="44"/>
-      <c r="B198" s="51"/>
-      <c r="C198" s="53"/>
-      <c r="D198" s="55"/>
+      <c r="B198" s="21"/>
+      <c r="C198" s="51"/>
+      <c r="D198" s="53"/>
       <c r="E198" s="31"/>
       <c r="F198" s="31"/>
       <c r="G198" s="30"/>
@@ -6515,9 +6512,9 @@
     </row>
     <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="44"/>
-      <c r="B199" s="51"/>
-      <c r="C199" s="53"/>
-      <c r="D199" s="55"/>
+      <c r="B199" s="21"/>
+      <c r="C199" s="51"/>
+      <c r="D199" s="53"/>
       <c r="E199" s="31"/>
       <c r="F199" s="31"/>
       <c r="G199" s="30"/>
@@ -6544,9 +6541,9 @@
     </row>
     <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="44"/>
-      <c r="B200" s="51"/>
-      <c r="C200" s="53"/>
-      <c r="D200" s="55"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="51"/>
+      <c r="D200" s="53"/>
       <c r="E200" s="31"/>
       <c r="F200" s="31"/>
       <c r="G200" s="30"/>
@@ -6573,9 +6570,9 @@
     </row>
     <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="44"/>
-      <c r="B201" s="50"/>
-      <c r="C201" s="52"/>
-      <c r="D201" s="54"/>
+      <c r="B201" s="63"/>
+      <c r="C201" s="50"/>
+      <c r="D201" s="52"/>
       <c r="E201" s="31"/>
       <c r="F201" s="31"/>
       <c r="G201" s="30"/>
@@ -6602,9 +6599,9 @@
     </row>
     <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="44"/>
-      <c r="B202" s="51"/>
-      <c r="C202" s="53"/>
-      <c r="D202" s="55"/>
+      <c r="B202" s="21"/>
+      <c r="C202" s="51"/>
+      <c r="D202" s="53"/>
       <c r="E202" s="31"/>
       <c r="F202" s="31"/>
       <c r="G202" s="30"/>
@@ -6631,9 +6628,9 @@
     </row>
     <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="44"/>
-      <c r="B203" s="51"/>
-      <c r="C203" s="53"/>
-      <c r="D203" s="55"/>
+      <c r="B203" s="21"/>
+      <c r="C203" s="51"/>
+      <c r="D203" s="53"/>
       <c r="E203" s="31"/>
       <c r="F203" s="31"/>
       <c r="G203" s="30"/>
@@ -6660,9 +6657,9 @@
     </row>
     <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="44"/>
-      <c r="B204" s="51"/>
-      <c r="C204" s="53"/>
-      <c r="D204" s="55"/>
+      <c r="B204" s="21"/>
+      <c r="C204" s="51"/>
+      <c r="D204" s="53"/>
       <c r="E204" s="31"/>
       <c r="F204" s="31"/>
       <c r="G204" s="30"/>
@@ -6689,9 +6686,9 @@
     </row>
     <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="44"/>
-      <c r="B205" s="51"/>
-      <c r="C205" s="53"/>
-      <c r="D205" s="55"/>
+      <c r="B205" s="21"/>
+      <c r="C205" s="51"/>
+      <c r="D205" s="53"/>
       <c r="E205" s="31"/>
       <c r="F205" s="31"/>
       <c r="G205" s="30"/>
@@ -6718,9 +6715,9 @@
     </row>
     <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="44"/>
-      <c r="B206" s="51"/>
-      <c r="C206" s="53"/>
-      <c r="D206" s="55"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="51"/>
+      <c r="D206" s="53"/>
       <c r="E206" s="31"/>
       <c r="F206" s="31"/>
       <c r="G206" s="30"/>
@@ -6747,9 +6744,9 @@
     </row>
     <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="44"/>
-      <c r="B207" s="51"/>
-      <c r="C207" s="53"/>
-      <c r="D207" s="55"/>
+      <c r="B207" s="21"/>
+      <c r="C207" s="51"/>
+      <c r="D207" s="53"/>
       <c r="E207" s="31"/>
       <c r="F207" s="31"/>
       <c r="G207" s="30"/>
@@ -6776,9 +6773,9 @@
     </row>
     <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="44"/>
-      <c r="B208" s="51"/>
-      <c r="C208" s="53"/>
-      <c r="D208" s="55"/>
+      <c r="B208" s="21"/>
+      <c r="C208" s="51"/>
+      <c r="D208" s="53"/>
       <c r="E208" s="31"/>
       <c r="F208" s="31"/>
       <c r="G208" s="30"/>
@@ -6805,9 +6802,9 @@
     </row>
     <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="44"/>
-      <c r="B209" s="50"/>
-      <c r="C209" s="52"/>
-      <c r="D209" s="54"/>
+      <c r="B209" s="63"/>
+      <c r="C209" s="50"/>
+      <c r="D209" s="52"/>
       <c r="E209" s="31"/>
       <c r="F209" s="31"/>
       <c r="G209" s="30"/>
@@ -6834,9 +6831,9 @@
     </row>
     <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="44"/>
-      <c r="B210" s="51"/>
-      <c r="C210" s="53"/>
-      <c r="D210" s="55"/>
+      <c r="B210" s="21"/>
+      <c r="C210" s="51"/>
+      <c r="D210" s="53"/>
       <c r="E210" s="31"/>
       <c r="F210" s="31"/>
       <c r="G210" s="30"/>
@@ -6863,9 +6860,9 @@
     </row>
     <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="44"/>
-      <c r="B211" s="51"/>
-      <c r="C211" s="53"/>
-      <c r="D211" s="55"/>
+      <c r="B211" s="21"/>
+      <c r="C211" s="51"/>
+      <c r="D211" s="53"/>
       <c r="E211" s="31"/>
       <c r="F211" s="31"/>
       <c r="G211" s="30"/>
@@ -6892,9 +6889,9 @@
     </row>
     <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="44"/>
-      <c r="B212" s="51"/>
-      <c r="C212" s="53"/>
-      <c r="D212" s="55"/>
+      <c r="B212" s="21"/>
+      <c r="C212" s="51"/>
+      <c r="D212" s="53"/>
       <c r="E212" s="31"/>
       <c r="F212" s="31"/>
       <c r="G212" s="30"/>
@@ -6921,9 +6918,9 @@
     </row>
     <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="44"/>
-      <c r="B213" s="51"/>
-      <c r="C213" s="53"/>
-      <c r="D213" s="55"/>
+      <c r="B213" s="21"/>
+      <c r="C213" s="51"/>
+      <c r="D213" s="53"/>
       <c r="E213" s="31"/>
       <c r="F213" s="31"/>
       <c r="G213" s="30"/>
@@ -6950,9 +6947,9 @@
     </row>
     <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="44"/>
-      <c r="B214" s="51"/>
-      <c r="C214" s="53"/>
-      <c r="D214" s="55"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="51"/>
+      <c r="D214" s="53"/>
       <c r="E214" s="31"/>
       <c r="F214" s="31"/>
       <c r="G214" s="30"/>
@@ -6979,9 +6976,9 @@
     </row>
     <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="44"/>
-      <c r="B215" s="51"/>
-      <c r="C215" s="53"/>
-      <c r="D215" s="55"/>
+      <c r="B215" s="21"/>
+      <c r="C215" s="51"/>
+      <c r="D215" s="53"/>
       <c r="E215" s="31"/>
       <c r="F215" s="31"/>
       <c r="G215" s="30"/>
@@ -7008,9 +7005,9 @@
     </row>
     <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="44"/>
-      <c r="B216" s="51"/>
-      <c r="C216" s="53"/>
-      <c r="D216" s="55"/>
+      <c r="B216" s="21"/>
+      <c r="C216" s="51"/>
+      <c r="D216" s="53"/>
       <c r="E216" s="31"/>
       <c r="F216" s="31"/>
       <c r="G216" s="30"/>
@@ -7037,9 +7034,9 @@
     </row>
     <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="44"/>
-      <c r="B217" s="50"/>
-      <c r="C217" s="52"/>
-      <c r="D217" s="54"/>
+      <c r="B217" s="63"/>
+      <c r="C217" s="50"/>
+      <c r="D217" s="52"/>
       <c r="E217" s="31"/>
       <c r="F217" s="31"/>
       <c r="G217" s="30"/>
@@ -7066,9 +7063,9 @@
     </row>
     <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="45"/>
-      <c r="B218" s="51"/>
-      <c r="C218" s="53"/>
-      <c r="D218" s="55"/>
+      <c r="B218" s="21"/>
+      <c r="C218" s="51"/>
+      <c r="D218" s="53"/>
       <c r="E218" s="48"/>
       <c r="F218" s="36"/>
       <c r="G218" s="35"/>
@@ -7095,9 +7092,9 @@
     </row>
     <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="45"/>
-      <c r="B219" s="51"/>
-      <c r="C219" s="53"/>
-      <c r="D219" s="55"/>
+      <c r="B219" s="21"/>
+      <c r="C219" s="51"/>
+      <c r="D219" s="53"/>
       <c r="E219" s="48"/>
       <c r="F219" s="36"/>
       <c r="G219" s="35"/>
@@ -7124,9 +7121,9 @@
     </row>
     <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="45"/>
-      <c r="B220" s="51"/>
-      <c r="C220" s="53"/>
-      <c r="D220" s="55"/>
+      <c r="B220" s="21"/>
+      <c r="C220" s="51"/>
+      <c r="D220" s="53"/>
       <c r="E220" s="48"/>
       <c r="F220" s="36"/>
       <c r="G220" s="35"/>
@@ -7155,7 +7152,7 @@
       <c r="A221" s="46"/>
       <c r="B221" s="21"/>
       <c r="C221" s="21"/>
-      <c r="D221" s="56"/>
+      <c r="D221" s="54"/>
       <c r="E221" s="48"/>
       <c r="F221" s="16"/>
       <c r="G221" s="16"/>
@@ -7184,7 +7181,7 @@
       <c r="A222" s="46"/>
       <c r="B222" s="21"/>
       <c r="C222" s="21"/>
-      <c r="D222" s="56"/>
+      <c r="D222" s="54"/>
       <c r="E222" s="48"/>
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
@@ -7213,7 +7210,7 @@
       <c r="A223" s="46"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
-      <c r="D223" s="56"/>
+      <c r="D223" s="54"/>
       <c r="E223" s="48"/>
       <c r="F223" s="16"/>
       <c r="G223" s="16"/>
@@ -7242,7 +7239,7 @@
       <c r="A224" s="46"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
-      <c r="D224" s="56"/>
+      <c r="D224" s="54"/>
       <c r="E224" s="48"/>
       <c r="F224" s="16"/>
       <c r="G224" s="16"/>
@@ -7271,7 +7268,7 @@
       <c r="A225" s="46"/>
       <c r="B225" s="21"/>
       <c r="C225" s="21"/>
-      <c r="D225" s="56"/>
+      <c r="D225" s="54"/>
       <c r="E225" s="48"/>
       <c r="F225" s="16"/>
       <c r="G225" s="16"/>
@@ -7300,7 +7297,7 @@
       <c r="A226" s="46"/>
       <c r="B226" s="21"/>
       <c r="C226" s="21"/>
-      <c r="D226" s="56"/>
+      <c r="D226" s="54"/>
       <c r="E226" s="48"/>
       <c r="F226" s="16"/>
       <c r="G226" s="16"/>
@@ -7329,7 +7326,7 @@
       <c r="A227" s="46"/>
       <c r="B227" s="21"/>
       <c r="C227" s="21"/>
-      <c r="D227" s="56"/>
+      <c r="D227" s="54"/>
       <c r="E227" s="48"/>
       <c r="F227" s="16"/>
       <c r="G227" s="16"/>
@@ -7358,7 +7355,7 @@
       <c r="A228" s="46"/>
       <c r="B228" s="21"/>
       <c r="C228" s="21"/>
-      <c r="D228" s="56"/>
+      <c r="D228" s="54"/>
       <c r="E228" s="48"/>
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
@@ -7387,7 +7384,7 @@
       <c r="A229" s="46"/>
       <c r="B229" s="21"/>
       <c r="C229" s="21"/>
-      <c r="D229" s="56"/>
+      <c r="D229" s="54"/>
       <c r="E229" s="48"/>
       <c r="F229" s="16"/>
       <c r="G229" s="16"/>
@@ -7416,7 +7413,7 @@
       <c r="A230" s="46"/>
       <c r="B230" s="21"/>
       <c r="C230" s="21"/>
-      <c r="D230" s="56"/>
+      <c r="D230" s="54"/>
       <c r="E230" s="48"/>
       <c r="F230" s="16"/>
       <c r="G230" s="16"/>
@@ -7445,7 +7442,7 @@
       <c r="A231" s="46"/>
       <c r="B231" s="21"/>
       <c r="C231" s="21"/>
-      <c r="D231" s="56"/>
+      <c r="D231" s="54"/>
       <c r="E231" s="48"/>
       <c r="F231" s="16"/>
       <c r="G231" s="16"/>
@@ -7474,7 +7471,7 @@
       <c r="A232" s="46"/>
       <c r="B232" s="21"/>
       <c r="C232" s="21"/>
-      <c r="D232" s="56"/>
+      <c r="D232" s="54"/>
       <c r="E232" s="48"/>
       <c r="F232" s="16"/>
       <c r="G232" s="16"/>
@@ -7503,7 +7500,7 @@
       <c r="A233" s="46"/>
       <c r="B233" s="21"/>
       <c r="C233" s="21"/>
-      <c r="D233" s="56"/>
+      <c r="D233" s="54"/>
       <c r="E233" s="48"/>
       <c r="F233" s="16"/>
       <c r="G233" s="16"/>
@@ -7532,7 +7529,7 @@
       <c r="A234" s="46"/>
       <c r="B234" s="21"/>
       <c r="C234" s="21"/>
-      <c r="D234" s="56"/>
+      <c r="D234" s="54"/>
       <c r="E234" s="48"/>
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
@@ -7561,7 +7558,7 @@
       <c r="A235" s="46"/>
       <c r="B235" s="21"/>
       <c r="C235" s="21"/>
-      <c r="D235" s="56"/>
+      <c r="D235" s="54"/>
       <c r="E235" s="48"/>
       <c r="F235" s="16"/>
       <c r="G235" s="16"/>
@@ -7590,7 +7587,7 @@
       <c r="A236" s="46"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21"/>
-      <c r="D236" s="56"/>
+      <c r="D236" s="54"/>
       <c r="E236" s="48"/>
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
@@ -7619,7 +7616,7 @@
       <c r="A237" s="46"/>
       <c r="B237" s="21"/>
       <c r="C237" s="21"/>
-      <c r="D237" s="56"/>
+      <c r="D237" s="54"/>
       <c r="E237" s="48"/>
       <c r="F237" s="16"/>
       <c r="G237" s="16"/>
@@ -7648,7 +7645,7 @@
       <c r="A238" s="46"/>
       <c r="B238" s="21"/>
       <c r="C238" s="21"/>
-      <c r="D238" s="56"/>
+      <c r="D238" s="54"/>
       <c r="E238" s="48"/>
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
@@ -7677,7 +7674,7 @@
       <c r="A239" s="46"/>
       <c r="B239" s="21"/>
       <c r="C239" s="21"/>
-      <c r="D239" s="56"/>
+      <c r="D239" s="54"/>
       <c r="E239" s="48"/>
       <c r="F239" s="16"/>
       <c r="G239" s="16"/>
@@ -7706,7 +7703,7 @@
       <c r="A240" s="46"/>
       <c r="B240" s="21"/>
       <c r="C240" s="21"/>
-      <c r="D240" s="56"/>
+      <c r="D240" s="54"/>
       <c r="E240" s="48"/>
       <c r="F240" s="16"/>
       <c r="G240" s="16"/>
@@ -7735,7 +7732,7 @@
       <c r="A241" s="46"/>
       <c r="B241" s="21"/>
       <c r="C241" s="21"/>
-      <c r="D241" s="56"/>
+      <c r="D241" s="54"/>
       <c r="E241" s="48"/>
       <c r="F241" s="16"/>
       <c r="G241" s="16"/>
@@ -7764,7 +7761,7 @@
       <c r="A242" s="46"/>
       <c r="B242" s="21"/>
       <c r="C242" s="21"/>
-      <c r="D242" s="56"/>
+      <c r="D242" s="54"/>
       <c r="E242" s="48"/>
       <c r="F242" s="16"/>
       <c r="G242" s="16"/>
@@ -7793,7 +7790,7 @@
       <c r="A243" s="46"/>
       <c r="B243" s="21"/>
       <c r="C243" s="21"/>
-      <c r="D243" s="56"/>
+      <c r="D243" s="54"/>
       <c r="E243" s="48"/>
       <c r="F243" s="16"/>
       <c r="G243" s="16"/>
@@ -7822,7 +7819,7 @@
       <c r="A244" s="46"/>
       <c r="B244" s="21"/>
       <c r="C244" s="21"/>
-      <c r="D244" s="56"/>
+      <c r="D244" s="54"/>
       <c r="E244" s="48"/>
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
@@ -7851,7 +7848,7 @@
       <c r="A245" s="46"/>
       <c r="B245" s="21"/>
       <c r="C245" s="21"/>
-      <c r="D245" s="56"/>
+      <c r="D245" s="54"/>
       <c r="E245" s="48"/>
       <c r="F245" s="16"/>
       <c r="G245" s="16"/>
@@ -7880,7 +7877,7 @@
       <c r="A246" s="46"/>
       <c r="B246" s="21"/>
       <c r="C246" s="21"/>
-      <c r="D246" s="56"/>
+      <c r="D246" s="54"/>
       <c r="E246" s="48"/>
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
@@ -7909,7 +7906,7 @@
       <c r="A247" s="46"/>
       <c r="B247" s="21"/>
       <c r="C247" s="21"/>
-      <c r="D247" s="56"/>
+      <c r="D247" s="54"/>
       <c r="E247" s="48"/>
       <c r="F247" s="16"/>
       <c r="G247" s="16"/>
@@ -7938,7 +7935,7 @@
       <c r="A248" s="46"/>
       <c r="B248" s="21"/>
       <c r="C248" s="21"/>
-      <c r="D248" s="56"/>
+      <c r="D248" s="54"/>
       <c r="E248" s="48"/>
       <c r="F248" s="16"/>
       <c r="G248" s="16"/>
@@ -7967,7 +7964,7 @@
       <c r="A249" s="46"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
-      <c r="D249" s="56"/>
+      <c r="D249" s="54"/>
       <c r="E249" s="48"/>
       <c r="F249" s="16"/>
       <c r="G249" s="16"/>
@@ -7996,7 +7993,7 @@
       <c r="A250" s="46"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
-      <c r="D250" s="56"/>
+      <c r="D250" s="54"/>
       <c r="E250" s="48"/>
       <c r="F250" s="16"/>
       <c r="G250" s="16"/>
@@ -8025,7 +8022,7 @@
       <c r="A251" s="46"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
-      <c r="D251" s="56"/>
+      <c r="D251" s="54"/>
       <c r="E251" s="48"/>
       <c r="F251" s="16"/>
       <c r="G251" s="16"/>
@@ -8054,7 +8051,7 @@
       <c r="A252" s="46"/>
       <c r="B252" s="21"/>
       <c r="C252" s="21"/>
-      <c r="D252" s="56"/>
+      <c r="D252" s="54"/>
       <c r="E252" s="48"/>
       <c r="F252" s="16"/>
       <c r="G252" s="16"/>
@@ -8083,7 +8080,7 @@
       <c r="A253" s="46"/>
       <c r="B253" s="21"/>
       <c r="C253" s="21"/>
-      <c r="D253" s="56"/>
+      <c r="D253" s="54"/>
       <c r="E253" s="48"/>
       <c r="F253" s="16"/>
       <c r="G253" s="16"/>
@@ -8112,7 +8109,7 @@
       <c r="A254" s="46"/>
       <c r="B254" s="21"/>
       <c r="C254" s="21"/>
-      <c r="D254" s="56"/>
+      <c r="D254" s="54"/>
       <c r="E254" s="48"/>
       <c r="F254" s="16"/>
       <c r="G254" s="16"/>
@@ -8141,7 +8138,7 @@
       <c r="A255" s="46"/>
       <c r="B255" s="21"/>
       <c r="C255" s="21"/>
-      <c r="D255" s="56"/>
+      <c r="D255" s="54"/>
       <c r="E255" s="48"/>
       <c r="F255" s="16"/>
       <c r="G255" s="16"/>
@@ -8170,7 +8167,7 @@
       <c r="A256" s="46"/>
       <c r="B256" s="21"/>
       <c r="C256" s="21"/>
-      <c r="D256" s="56"/>
+      <c r="D256" s="54"/>
       <c r="E256" s="48"/>
       <c r="F256" s="16"/>
       <c r="G256" s="16"/>
@@ -8199,7 +8196,7 @@
       <c r="A257" s="46"/>
       <c r="B257" s="21"/>
       <c r="C257" s="21"/>
-      <c r="D257" s="56"/>
+      <c r="D257" s="54"/>
       <c r="E257" s="48"/>
       <c r="F257" s="16"/>
       <c r="G257" s="16"/>
@@ -8228,7 +8225,7 @@
       <c r="A258" s="46"/>
       <c r="B258" s="21"/>
       <c r="C258" s="21"/>
-      <c r="D258" s="56"/>
+      <c r="D258" s="54"/>
       <c r="E258" s="48"/>
       <c r="F258" s="16"/>
       <c r="G258" s="16"/>
@@ -8257,7 +8254,7 @@
       <c r="A259" s="46"/>
       <c r="B259" s="21"/>
       <c r="C259" s="21"/>
-      <c r="D259" s="56"/>
+      <c r="D259" s="54"/>
       <c r="E259" s="48"/>
       <c r="F259" s="16"/>
       <c r="G259" s="16"/>
@@ -8286,7 +8283,7 @@
       <c r="A260" s="46"/>
       <c r="B260" s="21"/>
       <c r="C260" s="21"/>
-      <c r="D260" s="56"/>
+      <c r="D260" s="54"/>
       <c r="E260" s="48"/>
       <c r="F260" s="16"/>
       <c r="G260" s="16"/>
@@ -8315,7 +8312,7 @@
       <c r="A261" s="46"/>
       <c r="B261" s="21"/>
       <c r="C261" s="21"/>
-      <c r="D261" s="56"/>
+      <c r="D261" s="54"/>
       <c r="E261" s="48"/>
       <c r="F261" s="16"/>
       <c r="G261" s="16"/>
@@ -8344,7 +8341,7 @@
       <c r="A262" s="46"/>
       <c r="B262" s="21"/>
       <c r="C262" s="21"/>
-      <c r="D262" s="56"/>
+      <c r="D262" s="54"/>
       <c r="E262" s="48"/>
       <c r="F262" s="16"/>
       <c r="G262" s="16"/>
@@ -8373,7 +8370,7 @@
       <c r="A263" s="46"/>
       <c r="B263" s="21"/>
       <c r="C263" s="21"/>
-      <c r="D263" s="56"/>
+      <c r="D263" s="54"/>
       <c r="E263" s="48"/>
       <c r="F263" s="16"/>
       <c r="G263" s="16"/>
@@ -8402,7 +8399,7 @@
       <c r="A264" s="46"/>
       <c r="B264" s="21"/>
       <c r="C264" s="21"/>
-      <c r="D264" s="56"/>
+      <c r="D264" s="54"/>
       <c r="E264" s="48"/>
       <c r="F264" s="16"/>
       <c r="G264" s="16"/>
@@ -8431,7 +8428,7 @@
       <c r="A265" s="46"/>
       <c r="B265" s="21"/>
       <c r="C265" s="21"/>
-      <c r="D265" s="56"/>
+      <c r="D265" s="54"/>
       <c r="E265" s="48"/>
       <c r="F265" s="16"/>
       <c r="G265" s="16"/>
@@ -8460,7 +8457,7 @@
       <c r="A266" s="46"/>
       <c r="B266" s="21"/>
       <c r="C266" s="21"/>
-      <c r="D266" s="56"/>
+      <c r="D266" s="54"/>
       <c r="E266" s="48"/>
       <c r="F266" s="16"/>
       <c r="G266" s="16"/>
@@ -8489,7 +8486,7 @@
       <c r="A267" s="46"/>
       <c r="B267" s="21"/>
       <c r="C267" s="21"/>
-      <c r="D267" s="56"/>
+      <c r="D267" s="54"/>
       <c r="E267" s="48"/>
       <c r="F267" s="16"/>
       <c r="G267" s="16"/>
@@ -8518,7 +8515,7 @@
       <c r="A268" s="46"/>
       <c r="B268" s="21"/>
       <c r="C268" s="21"/>
-      <c r="D268" s="56"/>
+      <c r="D268" s="54"/>
       <c r="E268" s="48"/>
       <c r="F268" s="16"/>
       <c r="G268" s="16"/>
@@ -8547,7 +8544,7 @@
       <c r="A269" s="46"/>
       <c r="B269" s="21"/>
       <c r="C269" s="21"/>
-      <c r="D269" s="56"/>
+      <c r="D269" s="54"/>
       <c r="E269" s="48"/>
       <c r="F269" s="16"/>
       <c r="G269" s="16"/>
@@ -8576,7 +8573,7 @@
       <c r="A270" s="46"/>
       <c r="B270" s="21"/>
       <c r="C270" s="21"/>
-      <c r="D270" s="56"/>
+      <c r="D270" s="54"/>
       <c r="E270" s="48"/>
       <c r="F270" s="16"/>
       <c r="G270" s="16"/>
@@ -8605,7 +8602,7 @@
       <c r="A271" s="46"/>
       <c r="B271" s="21"/>
       <c r="C271" s="21"/>
-      <c r="D271" s="56"/>
+      <c r="D271" s="54"/>
       <c r="E271" s="48"/>
       <c r="F271" s="16"/>
       <c r="G271" s="16"/>
@@ -8634,7 +8631,7 @@
       <c r="A272" s="46"/>
       <c r="B272" s="21"/>
       <c r="C272" s="21"/>
-      <c r="D272" s="56"/>
+      <c r="D272" s="54"/>
       <c r="E272" s="48"/>
       <c r="F272" s="16"/>
       <c r="G272" s="16"/>
@@ -8663,7 +8660,7 @@
       <c r="A273" s="46"/>
       <c r="B273" s="21"/>
       <c r="C273" s="21"/>
-      <c r="D273" s="56"/>
+      <c r="D273" s="54"/>
       <c r="E273" s="48"/>
       <c r="F273" s="16"/>
       <c r="G273" s="16"/>
@@ -8692,7 +8689,7 @@
       <c r="A274" s="46"/>
       <c r="B274" s="21"/>
       <c r="C274" s="21"/>
-      <c r="D274" s="56"/>
+      <c r="D274" s="54"/>
       <c r="E274" s="48"/>
       <c r="F274" s="16"/>
       <c r="G274" s="16"/>
@@ -8721,7 +8718,7 @@
       <c r="A275" s="46"/>
       <c r="B275" s="21"/>
       <c r="C275" s="21"/>
-      <c r="D275" s="56"/>
+      <c r="D275" s="54"/>
       <c r="E275" s="48"/>
       <c r="F275" s="16"/>
       <c r="G275" s="16"/>
@@ -8750,7 +8747,7 @@
       <c r="A276" s="46"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
-      <c r="D276" s="56"/>
+      <c r="D276" s="54"/>
       <c r="E276" s="48"/>
       <c r="F276" s="16"/>
       <c r="G276" s="16"/>
@@ -8779,7 +8776,7 @@
       <c r="A277" s="46"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
-      <c r="D277" s="56"/>
+      <c r="D277" s="54"/>
       <c r="E277" s="48"/>
       <c r="F277" s="16"/>
       <c r="G277" s="16"/>
@@ -8808,7 +8805,7 @@
       <c r="A278" s="46"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
-      <c r="D278" s="56"/>
+      <c r="D278" s="54"/>
       <c r="E278" s="48"/>
       <c r="F278" s="16"/>
       <c r="G278" s="16"/>
@@ -8837,7 +8834,7 @@
       <c r="A279" s="46"/>
       <c r="B279" s="21"/>
       <c r="C279" s="21"/>
-      <c r="D279" s="56"/>
+      <c r="D279" s="54"/>
       <c r="E279" s="48"/>
       <c r="F279" s="16"/>
       <c r="G279" s="16"/>
@@ -8866,7 +8863,7 @@
       <c r="A280" s="46"/>
       <c r="B280" s="21"/>
       <c r="C280" s="21"/>
-      <c r="D280" s="56"/>
+      <c r="D280" s="54"/>
       <c r="E280" s="48"/>
       <c r="F280" s="16"/>
       <c r="G280" s="16"/>
@@ -8895,7 +8892,7 @@
       <c r="A281" s="46"/>
       <c r="B281" s="21"/>
       <c r="C281" s="21"/>
-      <c r="D281" s="56"/>
+      <c r="D281" s="54"/>
       <c r="E281" s="48"/>
       <c r="F281" s="16"/>
       <c r="G281" s="16"/>
@@ -8924,7 +8921,7 @@
       <c r="A282" s="46"/>
       <c r="B282" s="21"/>
       <c r="C282" s="21"/>
-      <c r="D282" s="56"/>
+      <c r="D282" s="54"/>
       <c r="E282" s="48"/>
       <c r="F282" s="16"/>
       <c r="G282" s="16"/>
@@ -8953,7 +8950,7 @@
       <c r="A283" s="46"/>
       <c r="B283" s="21"/>
       <c r="C283" s="21"/>
-      <c r="D283" s="56"/>
+      <c r="D283" s="54"/>
       <c r="E283" s="48"/>
       <c r="F283" s="16"/>
       <c r="G283" s="16"/>
@@ -8982,7 +8979,7 @@
       <c r="A284" s="46"/>
       <c r="B284" s="21"/>
       <c r="C284" s="21"/>
-      <c r="D284" s="56"/>
+      <c r="D284" s="54"/>
       <c r="E284" s="48"/>
       <c r="F284" s="16"/>
       <c r="G284" s="16"/>
@@ -9011,7 +9008,7 @@
       <c r="A285" s="46"/>
       <c r="B285" s="21"/>
       <c r="C285" s="21"/>
-      <c r="D285" s="56"/>
+      <c r="D285" s="54"/>
       <c r="E285" s="48"/>
       <c r="F285" s="16"/>
       <c r="G285" s="16"/>
@@ -9040,7 +9037,7 @@
       <c r="A286" s="46"/>
       <c r="B286" s="21"/>
       <c r="C286" s="21"/>
-      <c r="D286" s="56"/>
+      <c r="D286" s="54"/>
       <c r="E286" s="48"/>
       <c r="F286" s="16"/>
       <c r="G286" s="16"/>
@@ -9069,7 +9066,7 @@
       <c r="A287" s="46"/>
       <c r="B287" s="21"/>
       <c r="C287" s="21"/>
-      <c r="D287" s="56"/>
+      <c r="D287" s="54"/>
       <c r="E287" s="48"/>
       <c r="F287" s="16"/>
       <c r="G287" s="16"/>
@@ -9098,7 +9095,7 @@
       <c r="A288" s="46"/>
       <c r="B288" s="21"/>
       <c r="C288" s="21"/>
-      <c r="D288" s="56"/>
+      <c r="D288" s="54"/>
       <c r="E288" s="48"/>
       <c r="F288" s="16"/>
       <c r="G288" s="16"/>
@@ -9127,7 +9124,7 @@
       <c r="A289" s="46"/>
       <c r="B289" s="21"/>
       <c r="C289" s="21"/>
-      <c r="D289" s="56"/>
+      <c r="D289" s="54"/>
       <c r="E289" s="48"/>
       <c r="F289" s="16"/>
       <c r="G289" s="16"/>
@@ -9156,7 +9153,7 @@
       <c r="A290" s="46"/>
       <c r="B290" s="21"/>
       <c r="C290" s="21"/>
-      <c r="D290" s="56"/>
+      <c r="D290" s="54"/>
       <c r="E290" s="48"/>
       <c r="F290" s="16"/>
       <c r="G290" s="16"/>
@@ -9185,7 +9182,7 @@
       <c r="A291" s="46"/>
       <c r="B291" s="21"/>
       <c r="C291" s="21"/>
-      <c r="D291" s="56"/>
+      <c r="D291" s="54"/>
       <c r="E291" s="48"/>
       <c r="F291" s="16"/>
       <c r="G291" s="16"/>
@@ -9214,7 +9211,7 @@
       <c r="A292" s="46"/>
       <c r="B292" s="21"/>
       <c r="C292" s="21"/>
-      <c r="D292" s="56"/>
+      <c r="D292" s="54"/>
       <c r="E292" s="48"/>
       <c r="F292" s="16"/>
       <c r="G292" s="16"/>
@@ -9243,7 +9240,7 @@
       <c r="A293" s="46"/>
       <c r="B293" s="21"/>
       <c r="C293" s="21"/>
-      <c r="D293" s="56"/>
+      <c r="D293" s="54"/>
       <c r="E293" s="48"/>
       <c r="F293" s="16"/>
       <c r="G293" s="16"/>
@@ -9272,7 +9269,7 @@
       <c r="A294" s="46"/>
       <c r="B294" s="21"/>
       <c r="C294" s="21"/>
-      <c r="D294" s="56"/>
+      <c r="D294" s="54"/>
       <c r="E294" s="48"/>
       <c r="F294" s="16"/>
       <c r="G294" s="16"/>
@@ -9301,7 +9298,7 @@
       <c r="A295" s="46"/>
       <c r="B295" s="21"/>
       <c r="C295" s="21"/>
-      <c r="D295" s="56"/>
+      <c r="D295" s="54"/>
       <c r="E295" s="48"/>
       <c r="F295" s="16"/>
       <c r="G295" s="16"/>
@@ -9330,7 +9327,7 @@
       <c r="A296" s="46"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
-      <c r="D296" s="56"/>
+      <c r="D296" s="54"/>
       <c r="E296" s="48"/>
       <c r="F296" s="16"/>
       <c r="G296" s="16"/>
@@ -9359,7 +9356,7 @@
       <c r="A297" s="46"/>
       <c r="B297" s="21"/>
       <c r="C297" s="21"/>
-      <c r="D297" s="56"/>
+      <c r="D297" s="54"/>
       <c r="E297" s="48"/>
       <c r="F297" s="16"/>
       <c r="G297" s="16"/>
@@ -9388,7 +9385,7 @@
       <c r="A298" s="46"/>
       <c r="B298" s="21"/>
       <c r="C298" s="21"/>
-      <c r="D298" s="56"/>
+      <c r="D298" s="54"/>
       <c r="E298" s="48"/>
       <c r="F298" s="16"/>
       <c r="G298" s="16"/>
@@ -9417,7 +9414,7 @@
       <c r="A299" s="46"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
-      <c r="D299" s="56"/>
+      <c r="D299" s="54"/>
       <c r="E299" s="48"/>
       <c r="F299" s="16"/>
       <c r="G299" s="16"/>
@@ -9446,7 +9443,7 @@
       <c r="A300" s="46"/>
       <c r="B300" s="21"/>
       <c r="C300" s="21"/>
-      <c r="D300" s="56"/>
+      <c r="D300" s="54"/>
       <c r="E300" s="48"/>
       <c r="F300" s="16"/>
       <c r="G300" s="16"/>
@@ -9475,7 +9472,7 @@
       <c r="A301" s="46"/>
       <c r="B301" s="21"/>
       <c r="C301" s="21"/>
-      <c r="D301" s="56"/>
+      <c r="D301" s="54"/>
       <c r="E301" s="48"/>
       <c r="F301" s="16"/>
       <c r="G301" s="16"/>
@@ -9504,7 +9501,7 @@
       <c r="A302" s="46"/>
       <c r="B302" s="21"/>
       <c r="C302" s="21"/>
-      <c r="D302" s="56"/>
+      <c r="D302" s="54"/>
       <c r="E302" s="48"/>
       <c r="F302" s="16"/>
       <c r="G302" s="16"/>
@@ -9533,7 +9530,7 @@
       <c r="A303" s="46"/>
       <c r="B303" s="21"/>
       <c r="C303" s="21"/>
-      <c r="D303" s="56"/>
+      <c r="D303" s="54"/>
       <c r="E303" s="48"/>
       <c r="F303" s="16"/>
       <c r="G303" s="16"/>
@@ -9562,7 +9559,7 @@
       <c r="A304" s="46"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
-      <c r="D304" s="56"/>
+      <c r="D304" s="54"/>
       <c r="E304" s="48"/>
       <c r="F304" s="16"/>
       <c r="G304" s="16"/>
@@ -9591,7 +9588,7 @@
       <c r="A305" s="46"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
-      <c r="D305" s="56"/>
+      <c r="D305" s="54"/>
       <c r="E305" s="48"/>
       <c r="F305" s="16"/>
       <c r="G305" s="16"/>
@@ -9620,7 +9617,7 @@
       <c r="A306" s="46"/>
       <c r="B306" s="21"/>
       <c r="C306" s="21"/>
-      <c r="D306" s="56"/>
+      <c r="D306" s="54"/>
       <c r="E306" s="48"/>
       <c r="F306" s="16"/>
       <c r="G306" s="16"/>
@@ -9649,7 +9646,7 @@
       <c r="A307" s="46"/>
       <c r="B307" s="21"/>
       <c r="C307" s="21"/>
-      <c r="D307" s="56"/>
+      <c r="D307" s="54"/>
       <c r="E307" s="48"/>
       <c r="F307" s="16"/>
       <c r="G307" s="16"/>
@@ -9678,7 +9675,7 @@
       <c r="A308" s="46"/>
       <c r="B308" s="21"/>
       <c r="C308" s="21"/>
-      <c r="D308" s="56"/>
+      <c r="D308" s="54"/>
       <c r="E308" s="48"/>
       <c r="F308" s="16"/>
       <c r="G308" s="16"/>
@@ -9707,7 +9704,7 @@
       <c r="A309" s="46"/>
       <c r="B309" s="21"/>
       <c r="C309" s="21"/>
-      <c r="D309" s="56"/>
+      <c r="D309" s="54"/>
       <c r="E309" s="48"/>
       <c r="F309" s="16"/>
       <c r="G309" s="16"/>
@@ -9736,7 +9733,7 @@
       <c r="A310" s="46"/>
       <c r="B310" s="21"/>
       <c r="C310" s="21"/>
-      <c r="D310" s="56"/>
+      <c r="D310" s="54"/>
       <c r="E310" s="48"/>
       <c r="F310" s="16"/>
       <c r="G310" s="16"/>
@@ -9765,7 +9762,7 @@
       <c r="A311" s="46"/>
       <c r="B311" s="21"/>
       <c r="C311" s="21"/>
-      <c r="D311" s="56"/>
+      <c r="D311" s="54"/>
       <c r="E311" s="48"/>
       <c r="F311" s="16"/>
       <c r="G311" s="16"/>
@@ -9794,7 +9791,7 @@
       <c r="A312" s="46"/>
       <c r="B312" s="21"/>
       <c r="C312" s="21"/>
-      <c r="D312" s="56"/>
+      <c r="D312" s="54"/>
       <c r="E312" s="48"/>
       <c r="F312" s="16"/>
       <c r="G312" s="16"/>
@@ -9823,7 +9820,7 @@
       <c r="A313" s="46"/>
       <c r="B313" s="21"/>
       <c r="C313" s="21"/>
-      <c r="D313" s="56"/>
+      <c r="D313" s="54"/>
       <c r="E313" s="48"/>
       <c r="F313" s="16"/>
       <c r="G313" s="16"/>
@@ -9852,7 +9849,7 @@
       <c r="A314" s="46"/>
       <c r="B314" s="21"/>
       <c r="C314" s="21"/>
-      <c r="D314" s="56"/>
+      <c r="D314" s="54"/>
       <c r="E314" s="48"/>
       <c r="F314" s="16"/>
       <c r="G314" s="16"/>
@@ -9881,7 +9878,7 @@
       <c r="A315" s="46"/>
       <c r="B315" s="21"/>
       <c r="C315" s="21"/>
-      <c r="D315" s="56"/>
+      <c r="D315" s="54"/>
       <c r="E315" s="48"/>
       <c r="F315" s="16"/>
       <c r="G315" s="16"/>
@@ -9910,7 +9907,7 @@
       <c r="A316" s="46"/>
       <c r="B316" s="21"/>
       <c r="C316" s="21"/>
-      <c r="D316" s="56"/>
+      <c r="D316" s="54"/>
       <c r="E316" s="48"/>
       <c r="F316" s="16"/>
       <c r="G316" s="16"/>
@@ -9939,7 +9936,7 @@
       <c r="A317" s="46"/>
       <c r="B317" s="21"/>
       <c r="C317" s="21"/>
-      <c r="D317" s="56"/>
+      <c r="D317" s="54"/>
       <c r="E317" s="48"/>
       <c r="F317" s="16"/>
       <c r="G317" s="16"/>
@@ -9968,7 +9965,7 @@
       <c r="A318" s="46"/>
       <c r="B318" s="21"/>
       <c r="C318" s="21"/>
-      <c r="D318" s="56"/>
+      <c r="D318" s="54"/>
       <c r="E318" s="48"/>
       <c r="F318" s="16"/>
       <c r="G318" s="16"/>
@@ -9997,7 +9994,7 @@
       <c r="A319" s="46"/>
       <c r="B319" s="21"/>
       <c r="C319" s="21"/>
-      <c r="D319" s="56"/>
+      <c r="D319" s="54"/>
       <c r="E319" s="48"/>
       <c r="F319" s="16"/>
       <c r="G319" s="16"/>
@@ -10026,7 +10023,7 @@
       <c r="A320" s="46"/>
       <c r="B320" s="21"/>
       <c r="C320" s="21"/>
-      <c r="D320" s="56"/>
+      <c r="D320" s="54"/>
       <c r="E320" s="48"/>
       <c r="F320" s="16"/>
       <c r="G320" s="16"/>
@@ -10055,7 +10052,7 @@
       <c r="A321" s="46"/>
       <c r="B321" s="21"/>
       <c r="C321" s="21"/>
-      <c r="D321" s="56"/>
+      <c r="D321" s="54"/>
       <c r="E321" s="48"/>
       <c r="F321" s="16"/>
       <c r="G321" s="16"/>
@@ -10084,7 +10081,7 @@
       <c r="A322" s="46"/>
       <c r="B322" s="21"/>
       <c r="C322" s="21"/>
-      <c r="D322" s="56"/>
+      <c r="D322" s="54"/>
       <c r="E322" s="48"/>
       <c r="F322" s="16"/>
       <c r="G322" s="16"/>
@@ -10113,7 +10110,7 @@
       <c r="A323" s="46"/>
       <c r="B323" s="21"/>
       <c r="C323" s="21"/>
-      <c r="D323" s="56"/>
+      <c r="D323" s="54"/>
       <c r="E323" s="48"/>
       <c r="F323" s="16"/>
       <c r="G323" s="16"/>
@@ -10142,7 +10139,7 @@
       <c r="A324" s="46"/>
       <c r="B324" s="21"/>
       <c r="C324" s="21"/>
-      <c r="D324" s="56"/>
+      <c r="D324" s="54"/>
       <c r="E324" s="48"/>
       <c r="F324" s="16"/>
       <c r="G324" s="16"/>
@@ -10171,7 +10168,7 @@
       <c r="A325" s="46"/>
       <c r="B325" s="21"/>
       <c r="C325" s="21"/>
-      <c r="D325" s="56"/>
+      <c r="D325" s="54"/>
       <c r="E325" s="48"/>
       <c r="F325" s="16"/>
       <c r="G325" s="16"/>
@@ -10200,7 +10197,7 @@
       <c r="A326" s="46"/>
       <c r="B326" s="21"/>
       <c r="C326" s="21"/>
-      <c r="D326" s="56"/>
+      <c r="D326" s="54"/>
       <c r="E326" s="48"/>
       <c r="F326" s="16"/>
       <c r="G326" s="16"/>
@@ -10229,7 +10226,7 @@
       <c r="A327" s="46"/>
       <c r="B327" s="21"/>
       <c r="C327" s="21"/>
-      <c r="D327" s="56"/>
+      <c r="D327" s="54"/>
       <c r="E327" s="48"/>
       <c r="F327" s="16"/>
       <c r="G327" s="16"/>
@@ -10258,7 +10255,7 @@
       <c r="A328" s="46"/>
       <c r="B328" s="21"/>
       <c r="C328" s="21"/>
-      <c r="D328" s="56"/>
+      <c r="D328" s="54"/>
       <c r="E328" s="48"/>
       <c r="F328" s="16"/>
       <c r="G328" s="16"/>
@@ -10287,7 +10284,7 @@
       <c r="A329" s="46"/>
       <c r="B329" s="21"/>
       <c r="C329" s="21"/>
-      <c r="D329" s="56"/>
+      <c r="D329" s="54"/>
       <c r="E329" s="48"/>
       <c r="F329" s="16"/>
       <c r="G329" s="16"/>
@@ -10316,7 +10313,7 @@
       <c r="A330" s="46"/>
       <c r="B330" s="21"/>
       <c r="C330" s="21"/>
-      <c r="D330" s="56"/>
+      <c r="D330" s="54"/>
       <c r="E330" s="48"/>
       <c r="F330" s="16"/>
       <c r="G330" s="16"/>
@@ -10345,7 +10342,7 @@
       <c r="A331" s="46"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
-      <c r="D331" s="56"/>
+      <c r="D331" s="54"/>
       <c r="E331" s="48"/>
       <c r="F331" s="16"/>
       <c r="G331" s="16"/>
@@ -10374,7 +10371,7 @@
       <c r="A332" s="46"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
-      <c r="D332" s="56"/>
+      <c r="D332" s="54"/>
       <c r="E332" s="48"/>
       <c r="F332" s="16"/>
       <c r="G332" s="16"/>
@@ -10403,7 +10400,7 @@
       <c r="A333" s="46"/>
       <c r="B333" s="21"/>
       <c r="C333" s="21"/>
-      <c r="D333" s="56"/>
+      <c r="D333" s="54"/>
       <c r="E333" s="48"/>
       <c r="F333" s="16"/>
       <c r="G333" s="16"/>
@@ -10432,7 +10429,7 @@
       <c r="A334" s="46"/>
       <c r="B334" s="21"/>
       <c r="C334" s="21"/>
-      <c r="D334" s="56"/>
+      <c r="D334" s="54"/>
       <c r="E334" s="48"/>
       <c r="F334" s="16"/>
       <c r="G334" s="16"/>
@@ -10461,7 +10458,7 @@
       <c r="A335" s="46"/>
       <c r="B335" s="21"/>
       <c r="C335" s="21"/>
-      <c r="D335" s="56"/>
+      <c r="D335" s="54"/>
       <c r="E335" s="48"/>
       <c r="F335" s="16"/>
       <c r="G335" s="16"/>
@@ -10490,7 +10487,7 @@
       <c r="A336" s="46"/>
       <c r="B336" s="21"/>
       <c r="C336" s="21"/>
-      <c r="D336" s="56"/>
+      <c r="D336" s="54"/>
       <c r="E336" s="48"/>
       <c r="F336" s="16"/>
       <c r="G336" s="16"/>
@@ -10519,7 +10516,7 @@
       <c r="A337" s="46"/>
       <c r="B337" s="21"/>
       <c r="C337" s="21"/>
-      <c r="D337" s="56"/>
+      <c r="D337" s="54"/>
       <c r="E337" s="48"/>
       <c r="F337" s="16"/>
       <c r="G337" s="16"/>
@@ -10548,7 +10545,7 @@
       <c r="A338" s="46"/>
       <c r="B338" s="21"/>
       <c r="C338" s="21"/>
-      <c r="D338" s="56"/>
+      <c r="D338" s="54"/>
       <c r="E338" s="48"/>
       <c r="F338" s="16"/>
       <c r="G338" s="16"/>
@@ -10577,7 +10574,7 @@
       <c r="A339" s="46"/>
       <c r="B339" s="21"/>
       <c r="C339" s="21"/>
-      <c r="D339" s="56"/>
+      <c r="D339" s="54"/>
       <c r="E339" s="48"/>
       <c r="F339" s="16"/>
       <c r="G339" s="16"/>
@@ -10606,7 +10603,7 @@
       <c r="A340" s="46"/>
       <c r="B340" s="21"/>
       <c r="C340" s="21"/>
-      <c r="D340" s="56"/>
+      <c r="D340" s="54"/>
       <c r="E340" s="48"/>
       <c r="F340" s="16"/>
       <c r="G340" s="16"/>
@@ -10635,7 +10632,7 @@
       <c r="A341" s="46"/>
       <c r="B341" s="21"/>
       <c r="C341" s="21"/>
-      <c r="D341" s="56"/>
+      <c r="D341" s="54"/>
       <c r="E341" s="48"/>
       <c r="F341" s="16"/>
       <c r="G341" s="16"/>
@@ -10664,7 +10661,7 @@
       <c r="A342" s="46"/>
       <c r="B342" s="21"/>
       <c r="C342" s="21"/>
-      <c r="D342" s="56"/>
+      <c r="D342" s="54"/>
       <c r="E342" s="48"/>
       <c r="F342" s="16"/>
       <c r="G342" s="16"/>
@@ -10693,7 +10690,7 @@
       <c r="A343" s="46"/>
       <c r="B343" s="21"/>
       <c r="C343" s="21"/>
-      <c r="D343" s="56"/>
+      <c r="D343" s="54"/>
       <c r="E343" s="48"/>
       <c r="F343" s="16"/>
       <c r="G343" s="16"/>
@@ -10722,7 +10719,7 @@
       <c r="A344" s="46"/>
       <c r="B344" s="21"/>
       <c r="C344" s="21"/>
-      <c r="D344" s="56"/>
+      <c r="D344" s="54"/>
       <c r="E344" s="48"/>
       <c r="F344" s="16"/>
       <c r="G344" s="16"/>
@@ -10751,7 +10748,7 @@
       <c r="A345" s="46"/>
       <c r="B345" s="21"/>
       <c r="C345" s="21"/>
-      <c r="D345" s="56"/>
+      <c r="D345" s="54"/>
       <c r="E345" s="48"/>
       <c r="F345" s="16"/>
       <c r="G345" s="16"/>
@@ -10780,7 +10777,7 @@
       <c r="A346" s="46"/>
       <c r="B346" s="21"/>
       <c r="C346" s="21"/>
-      <c r="D346" s="56"/>
+      <c r="D346" s="54"/>
       <c r="E346" s="48"/>
       <c r="F346" s="16"/>
       <c r="G346" s="16"/>
@@ -10809,7 +10806,7 @@
       <c r="A347" s="46"/>
       <c r="B347" s="21"/>
       <c r="C347" s="21"/>
-      <c r="D347" s="56"/>
+      <c r="D347" s="54"/>
       <c r="E347" s="48"/>
       <c r="F347" s="16"/>
       <c r="G347" s="16"/>
@@ -10838,7 +10835,7 @@
       <c r="A348" s="46"/>
       <c r="B348" s="21"/>
       <c r="C348" s="21"/>
-      <c r="D348" s="56"/>
+      <c r="D348" s="54"/>
       <c r="E348" s="48"/>
       <c r="F348" s="16"/>
       <c r="G348" s="16"/>
@@ -10867,7 +10864,7 @@
       <c r="A349" s="46"/>
       <c r="B349" s="21"/>
       <c r="C349" s="21"/>
-      <c r="D349" s="56"/>
+      <c r="D349" s="54"/>
       <c r="E349" s="48"/>
       <c r="F349" s="16"/>
       <c r="G349" s="16"/>
@@ -10896,7 +10893,7 @@
       <c r="A350" s="46"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
-      <c r="D350" s="56"/>
+      <c r="D350" s="54"/>
       <c r="E350" s="48"/>
       <c r="F350" s="16"/>
       <c r="G350" s="16"/>
@@ -10925,7 +10922,7 @@
       <c r="A351" s="46"/>
       <c r="B351" s="21"/>
       <c r="C351" s="21"/>
-      <c r="D351" s="56"/>
+      <c r="D351" s="54"/>
       <c r="E351" s="48"/>
       <c r="F351" s="16"/>
       <c r="G351" s="16"/>
@@ -10954,7 +10951,7 @@
       <c r="A352" s="46"/>
       <c r="B352" s="21"/>
       <c r="C352" s="21"/>
-      <c r="D352" s="56"/>
+      <c r="D352" s="54"/>
       <c r="E352" s="48"/>
       <c r="F352" s="16"/>
       <c r="G352" s="16"/>
@@ -10983,7 +10980,7 @@
       <c r="A353" s="46"/>
       <c r="B353" s="21"/>
       <c r="C353" s="21"/>
-      <c r="D353" s="56"/>
+      <c r="D353" s="54"/>
       <c r="E353" s="48"/>
       <c r="F353" s="16"/>
       <c r="G353" s="16"/>
@@ -11012,7 +11009,7 @@
       <c r="A354" s="46"/>
       <c r="B354" s="21"/>
       <c r="C354" s="21"/>
-      <c r="D354" s="56"/>
+      <c r="D354" s="54"/>
       <c r="E354" s="48"/>
       <c r="F354" s="16"/>
       <c r="G354" s="16"/>
@@ -11041,7 +11038,7 @@
       <c r="A355" s="46"/>
       <c r="B355" s="21"/>
       <c r="C355" s="21"/>
-      <c r="D355" s="56"/>
+      <c r="D355" s="54"/>
       <c r="E355" s="48"/>
       <c r="F355" s="16"/>
       <c r="G355" s="16"/>
@@ -11070,7 +11067,7 @@
       <c r="A356" s="46"/>
       <c r="B356" s="21"/>
       <c r="C356" s="21"/>
-      <c r="D356" s="56"/>
+      <c r="D356" s="54"/>
       <c r="E356" s="48"/>
       <c r="F356" s="16"/>
       <c r="G356" s="16"/>
@@ -11099,7 +11096,7 @@
       <c r="A357" s="46"/>
       <c r="B357" s="21"/>
       <c r="C357" s="21"/>
-      <c r="D357" s="56"/>
+      <c r="D357" s="54"/>
       <c r="E357" s="48"/>
       <c r="F357" s="16"/>
       <c r="G357" s="16"/>
@@ -11128,7 +11125,7 @@
       <c r="A358" s="46"/>
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
-      <c r="D358" s="56"/>
+      <c r="D358" s="54"/>
       <c r="E358" s="48"/>
       <c r="F358" s="16"/>
       <c r="G358" s="16"/>
@@ -11157,7 +11154,7 @@
       <c r="A359" s="46"/>
       <c r="B359" s="21"/>
       <c r="C359" s="21"/>
-      <c r="D359" s="56"/>
+      <c r="D359" s="54"/>
       <c r="E359" s="48"/>
       <c r="F359" s="16"/>
       <c r="G359" s="16"/>
@@ -11186,7 +11183,7 @@
       <c r="A360" s="46"/>
       <c r="B360" s="21"/>
       <c r="C360" s="21"/>
-      <c r="D360" s="56"/>
+      <c r="D360" s="54"/>
       <c r="E360" s="48"/>
       <c r="F360" s="16"/>
       <c r="G360" s="16"/>
@@ -11215,7 +11212,7 @@
       <c r="A361" s="46"/>
       <c r="B361" s="21"/>
       <c r="C361" s="21"/>
-      <c r="D361" s="56"/>
+      <c r="D361" s="54"/>
       <c r="E361" s="48"/>
       <c r="F361" s="16"/>
       <c r="G361" s="16"/>
@@ -11244,7 +11241,7 @@
       <c r="A362" s="46"/>
       <c r="B362" s="21"/>
       <c r="C362" s="21"/>
-      <c r="D362" s="56"/>
+      <c r="D362" s="54"/>
       <c r="E362" s="48"/>
       <c r="F362" s="16"/>
       <c r="G362" s="16"/>
@@ -11273,7 +11270,7 @@
       <c r="A363" s="46"/>
       <c r="B363" s="21"/>
       <c r="C363" s="21"/>
-      <c r="D363" s="56"/>
+      <c r="D363" s="54"/>
       <c r="E363" s="48"/>
       <c r="F363" s="16"/>
       <c r="G363" s="16"/>
@@ -11302,7 +11299,7 @@
       <c r="A364" s="46"/>
       <c r="B364" s="21"/>
       <c r="C364" s="21"/>
-      <c r="D364" s="56"/>
+      <c r="D364" s="54"/>
       <c r="E364" s="48"/>
       <c r="F364" s="16"/>
       <c r="G364" s="16"/>
@@ -11331,7 +11328,7 @@
       <c r="A365" s="46"/>
       <c r="B365" s="21"/>
       <c r="C365" s="21"/>
-      <c r="D365" s="56"/>
+      <c r="D365" s="54"/>
       <c r="E365" s="48"/>
       <c r="F365" s="16"/>
       <c r="G365" s="16"/>
@@ -11360,7 +11357,7 @@
       <c r="A366" s="46"/>
       <c r="B366" s="21"/>
       <c r="C366" s="21"/>
-      <c r="D366" s="56"/>
+      <c r="D366" s="54"/>
       <c r="E366" s="48"/>
       <c r="F366" s="16"/>
       <c r="G366" s="16"/>
@@ -11389,7 +11386,7 @@
       <c r="A367" s="46"/>
       <c r="B367" s="21"/>
       <c r="C367" s="21"/>
-      <c r="D367" s="56"/>
+      <c r="D367" s="54"/>
       <c r="E367" s="48"/>
       <c r="F367" s="16"/>
       <c r="G367" s="16"/>
@@ -11418,7 +11415,7 @@
       <c r="A368" s="46"/>
       <c r="B368" s="21"/>
       <c r="C368" s="21"/>
-      <c r="D368" s="56"/>
+      <c r="D368" s="54"/>
       <c r="E368" s="48"/>
       <c r="F368" s="16"/>
       <c r="G368" s="16"/>
@@ -11447,7 +11444,7 @@
       <c r="A369" s="46"/>
       <c r="B369" s="21"/>
       <c r="C369" s="21"/>
-      <c r="D369" s="56"/>
+      <c r="D369" s="54"/>
       <c r="E369" s="48"/>
       <c r="F369" s="16"/>
       <c r="G369" s="16"/>
@@ -11476,7 +11473,7 @@
       <c r="A370" s="46"/>
       <c r="B370" s="21"/>
       <c r="C370" s="21"/>
-      <c r="D370" s="56"/>
+      <c r="D370" s="54"/>
       <c r="E370" s="48"/>
       <c r="F370" s="16"/>
       <c r="G370" s="16"/>
@@ -11505,7 +11502,7 @@
       <c r="A371" s="46"/>
       <c r="B371" s="21"/>
       <c r="C371" s="21"/>
-      <c r="D371" s="56"/>
+      <c r="D371" s="54"/>
       <c r="E371" s="48"/>
       <c r="F371" s="16"/>
       <c r="G371" s="16"/>
@@ -11534,7 +11531,7 @@
       <c r="A372" s="46"/>
       <c r="B372" s="21"/>
       <c r="C372" s="21"/>
-      <c r="D372" s="56"/>
+      <c r="D372" s="54"/>
       <c r="E372" s="48"/>
       <c r="F372" s="16"/>
       <c r="G372" s="16"/>
@@ -11563,7 +11560,7 @@
       <c r="A373" s="46"/>
       <c r="B373" s="21"/>
       <c r="C373" s="21"/>
-      <c r="D373" s="56"/>
+      <c r="D373" s="54"/>
       <c r="E373" s="48"/>
       <c r="F373" s="16"/>
       <c r="G373" s="16"/>
@@ -11592,7 +11589,7 @@
       <c r="A374" s="46"/>
       <c r="B374" s="21"/>
       <c r="C374" s="21"/>
-      <c r="D374" s="56"/>
+      <c r="D374" s="54"/>
       <c r="E374" s="48"/>
       <c r="F374" s="16"/>
       <c r="G374" s="16"/>
@@ -11621,7 +11618,7 @@
       <c r="A375" s="46"/>
       <c r="B375" s="21"/>
       <c r="C375" s="21"/>
-      <c r="D375" s="56"/>
+      <c r="D375" s="54"/>
       <c r="E375" s="48"/>
       <c r="F375" s="16"/>
       <c r="G375" s="16"/>
@@ -11650,7 +11647,7 @@
       <c r="A376" s="46"/>
       <c r="B376" s="21"/>
       <c r="C376" s="21"/>
-      <c r="D376" s="56"/>
+      <c r="D376" s="54"/>
       <c r="E376" s="48"/>
       <c r="F376" s="16"/>
       <c r="G376" s="16"/>
@@ -11679,7 +11676,7 @@
       <c r="A377" s="46"/>
       <c r="B377" s="21"/>
       <c r="C377" s="21"/>
-      <c r="D377" s="56"/>
+      <c r="D377" s="54"/>
       <c r="E377" s="48"/>
       <c r="F377" s="16"/>
       <c r="G377" s="16"/>
@@ -11708,7 +11705,7 @@
       <c r="A378" s="46"/>
       <c r="B378" s="21"/>
       <c r="C378" s="21"/>
-      <c r="D378" s="56"/>
+      <c r="D378" s="54"/>
       <c r="E378" s="48"/>
       <c r="F378" s="16"/>
       <c r="G378" s="16"/>
@@ -11737,7 +11734,7 @@
       <c r="A379" s="46"/>
       <c r="B379" s="21"/>
       <c r="C379" s="21"/>
-      <c r="D379" s="56"/>
+      <c r="D379" s="54"/>
       <c r="E379" s="48"/>
       <c r="F379" s="16"/>
       <c r="G379" s="16"/>
@@ -11766,7 +11763,7 @@
       <c r="A380" s="46"/>
       <c r="B380" s="21"/>
       <c r="C380" s="21"/>
-      <c r="D380" s="56"/>
+      <c r="D380" s="54"/>
       <c r="E380" s="48"/>
       <c r="F380" s="16"/>
       <c r="G380" s="16"/>
@@ -11795,7 +11792,7 @@
       <c r="A381" s="46"/>
       <c r="B381" s="21"/>
       <c r="C381" s="21"/>
-      <c r="D381" s="56"/>
+      <c r="D381" s="54"/>
       <c r="E381" s="48"/>
       <c r="F381" s="16"/>
       <c r="G381" s="16"/>
@@ -11824,7 +11821,7 @@
       <c r="A382" s="46"/>
       <c r="B382" s="21"/>
       <c r="C382" s="21"/>
-      <c r="D382" s="56"/>
+      <c r="D382" s="54"/>
       <c r="E382" s="48"/>
       <c r="F382" s="16"/>
       <c r="G382" s="16"/>
@@ -11853,7 +11850,7 @@
       <c r="A383" s="46"/>
       <c r="B383" s="21"/>
       <c r="C383" s="21"/>
-      <c r="D383" s="56"/>
+      <c r="D383" s="54"/>
       <c r="E383" s="48"/>
       <c r="F383" s="16"/>
       <c r="G383" s="16"/>
@@ -11882,7 +11879,7 @@
       <c r="A384" s="46"/>
       <c r="B384" s="21"/>
       <c r="C384" s="21"/>
-      <c r="D384" s="56"/>
+      <c r="D384" s="54"/>
       <c r="E384" s="48"/>
       <c r="F384" s="16"/>
       <c r="G384" s="16"/>
@@ -11911,7 +11908,7 @@
       <c r="A385" s="46"/>
       <c r="B385" s="21"/>
       <c r="C385" s="21"/>
-      <c r="D385" s="56"/>
+      <c r="D385" s="54"/>
       <c r="E385" s="48"/>
       <c r="F385" s="16"/>
       <c r="G385" s="16"/>
@@ -11940,7 +11937,7 @@
       <c r="A386" s="46"/>
       <c r="B386" s="21"/>
       <c r="C386" s="21"/>
-      <c r="D386" s="56"/>
+      <c r="D386" s="54"/>
       <c r="E386" s="48"/>
       <c r="F386" s="16"/>
       <c r="G386" s="16"/>
@@ -11969,7 +11966,7 @@
       <c r="A387" s="46"/>
       <c r="B387" s="21"/>
       <c r="C387" s="21"/>
-      <c r="D387" s="56"/>
+      <c r="D387" s="54"/>
       <c r="E387" s="48"/>
       <c r="F387" s="16"/>
       <c r="G387" s="16"/>
@@ -11998,7 +11995,7 @@
       <c r="A388" s="46"/>
       <c r="B388" s="21"/>
       <c r="C388" s="21"/>
-      <c r="D388" s="56"/>
+      <c r="D388" s="54"/>
       <c r="E388" s="48"/>
       <c r="F388" s="16"/>
       <c r="G388" s="16"/>
@@ -12027,7 +12024,7 @@
       <c r="A389" s="46"/>
       <c r="B389" s="21"/>
       <c r="C389" s="21"/>
-      <c r="D389" s="56"/>
+      <c r="D389" s="54"/>
       <c r="E389" s="48"/>
       <c r="F389" s="16"/>
       <c r="G389" s="16"/>
@@ -12056,7 +12053,7 @@
       <c r="A390" s="46"/>
       <c r="B390" s="21"/>
       <c r="C390" s="21"/>
-      <c r="D390" s="56"/>
+      <c r="D390" s="54"/>
       <c r="E390" s="48"/>
       <c r="F390" s="16"/>
       <c r="G390" s="16"/>
@@ -12085,7 +12082,7 @@
       <c r="A391" s="46"/>
       <c r="B391" s="21"/>
       <c r="C391" s="21"/>
-      <c r="D391" s="56"/>
+      <c r="D391" s="54"/>
       <c r="E391" s="48"/>
       <c r="F391" s="16"/>
       <c r="G391" s="16"/>
@@ -12114,7 +12111,7 @@
       <c r="A392" s="46"/>
       <c r="B392" s="21"/>
       <c r="C392" s="21"/>
-      <c r="D392" s="56"/>
+      <c r="D392" s="54"/>
       <c r="E392" s="48"/>
       <c r="F392" s="16"/>
       <c r="G392" s="16"/>
@@ -12143,7 +12140,7 @@
       <c r="A393" s="46"/>
       <c r="B393" s="21"/>
       <c r="C393" s="21"/>
-      <c r="D393" s="56"/>
+      <c r="D393" s="54"/>
       <c r="E393" s="48"/>
       <c r="F393" s="16"/>
       <c r="G393" s="16"/>
@@ -12172,7 +12169,7 @@
       <c r="A394" s="46"/>
       <c r="B394" s="21"/>
       <c r="C394" s="21"/>
-      <c r="D394" s="56"/>
+      <c r="D394" s="54"/>
       <c r="E394" s="48"/>
       <c r="F394" s="16"/>
       <c r="G394" s="16"/>
@@ -12201,7 +12198,7 @@
       <c r="A395" s="46"/>
       <c r="B395" s="21"/>
       <c r="C395" s="21"/>
-      <c r="D395" s="56"/>
+      <c r="D395" s="54"/>
       <c r="E395" s="48"/>
       <c r="F395" s="16"/>
       <c r="G395" s="16"/>
@@ -12230,7 +12227,7 @@
       <c r="A396" s="46"/>
       <c r="B396" s="21"/>
       <c r="C396" s="21"/>
-      <c r="D396" s="56"/>
+      <c r="D396" s="54"/>
       <c r="E396" s="48"/>
       <c r="F396" s="16"/>
       <c r="G396" s="16"/>
@@ -12259,7 +12256,7 @@
       <c r="A397" s="46"/>
       <c r="B397" s="21"/>
       <c r="C397" s="21"/>
-      <c r="D397" s="56"/>
+      <c r="D397" s="54"/>
       <c r="E397" s="48"/>
       <c r="F397" s="16"/>
       <c r="G397" s="16"/>
@@ -12288,7 +12285,7 @@
       <c r="A398" s="46"/>
       <c r="B398" s="21"/>
       <c r="C398" s="21"/>
-      <c r="D398" s="56"/>
+      <c r="D398" s="54"/>
       <c r="E398" s="48"/>
       <c r="F398" s="16"/>
       <c r="G398" s="16"/>
@@ -12317,7 +12314,7 @@
       <c r="A399" s="46"/>
       <c r="B399" s="21"/>
       <c r="C399" s="21"/>
-      <c r="D399" s="56"/>
+      <c r="D399" s="54"/>
       <c r="E399" s="48"/>
       <c r="F399" s="16"/>
       <c r="G399" s="16"/>
@@ -12346,7 +12343,7 @@
       <c r="A400" s="46"/>
       <c r="B400" s="21"/>
       <c r="C400" s="21"/>
-      <c r="D400" s="56"/>
+      <c r="D400" s="54"/>
       <c r="E400" s="48"/>
       <c r="F400" s="16"/>
       <c r="G400" s="16"/>
@@ -12375,7 +12372,7 @@
       <c r="A401" s="46"/>
       <c r="B401" s="21"/>
       <c r="C401" s="21"/>
-      <c r="D401" s="56"/>
+      <c r="D401" s="54"/>
       <c r="E401" s="48"/>
       <c r="F401" s="16"/>
       <c r="G401" s="16"/>
@@ -12404,7 +12401,7 @@
       <c r="A402" s="46"/>
       <c r="B402" s="21"/>
       <c r="C402" s="21"/>
-      <c r="D402" s="56"/>
+      <c r="D402" s="54"/>
       <c r="E402" s="48"/>
       <c r="F402" s="16"/>
       <c r="G402" s="16"/>
@@ -12433,7 +12430,7 @@
       <c r="A403" s="46"/>
       <c r="B403" s="21"/>
       <c r="C403" s="21"/>
-      <c r="D403" s="56"/>
+      <c r="D403" s="54"/>
       <c r="E403" s="48"/>
       <c r="F403" s="16"/>
       <c r="G403" s="16"/>
@@ -12462,7 +12459,7 @@
       <c r="A404" s="46"/>
       <c r="B404" s="21"/>
       <c r="C404" s="21"/>
-      <c r="D404" s="56"/>
+      <c r="D404" s="54"/>
       <c r="E404" s="48"/>
       <c r="F404" s="16"/>
       <c r="G404" s="16"/>
@@ -12491,7 +12488,7 @@
       <c r="A405" s="46"/>
       <c r="B405" s="21"/>
       <c r="C405" s="21"/>
-      <c r="D405" s="56"/>
+      <c r="D405" s="54"/>
       <c r="E405" s="48"/>
       <c r="F405" s="16"/>
       <c r="G405" s="16"/>
@@ -12520,7 +12517,7 @@
       <c r="A406" s="46"/>
       <c r="B406" s="21"/>
       <c r="C406" s="21"/>
-      <c r="D406" s="56"/>
+      <c r="D406" s="54"/>
       <c r="E406" s="48"/>
       <c r="F406" s="16"/>
       <c r="G406" s="16"/>
@@ -12549,7 +12546,7 @@
       <c r="A407" s="46"/>
       <c r="B407" s="21"/>
       <c r="C407" s="21"/>
-      <c r="D407" s="56"/>
+      <c r="D407" s="54"/>
       <c r="E407" s="48"/>
       <c r="F407" s="16"/>
       <c r="G407" s="16"/>
@@ -12578,7 +12575,7 @@
       <c r="A408" s="46"/>
       <c r="B408" s="21"/>
       <c r="C408" s="21"/>
-      <c r="D408" s="56"/>
+      <c r="D408" s="54"/>
       <c r="E408" s="48"/>
       <c r="F408" s="16"/>
       <c r="G408" s="16"/>
@@ -12607,7 +12604,7 @@
       <c r="A409" s="46"/>
       <c r="B409" s="21"/>
       <c r="C409" s="21"/>
-      <c r="D409" s="56"/>
+      <c r="D409" s="54"/>
       <c r="E409" s="48"/>
       <c r="F409" s="16"/>
       <c r="G409" s="16"/>
@@ -12636,7 +12633,7 @@
       <c r="A410" s="46"/>
       <c r="B410" s="21"/>
       <c r="C410" s="21"/>
-      <c r="D410" s="56"/>
+      <c r="D410" s="54"/>
       <c r="E410" s="48"/>
       <c r="F410" s="16"/>
       <c r="G410" s="16"/>
@@ -12665,7 +12662,7 @@
       <c r="A411" s="46"/>
       <c r="B411" s="21"/>
       <c r="C411" s="21"/>
-      <c r="D411" s="56"/>
+      <c r="D411" s="54"/>
       <c r="E411" s="48"/>
       <c r="F411" s="16"/>
       <c r="G411" s="16"/>
@@ -12694,7 +12691,7 @@
       <c r="A412" s="46"/>
       <c r="B412" s="21"/>
       <c r="C412" s="21"/>
-      <c r="D412" s="56"/>
+      <c r="D412" s="54"/>
       <c r="E412" s="48"/>
       <c r="F412" s="16"/>
       <c r="G412" s="16"/>
@@ -12723,7 +12720,7 @@
       <c r="A413" s="46"/>
       <c r="B413" s="21"/>
       <c r="C413" s="21"/>
-      <c r="D413" s="56"/>
+      <c r="D413" s="54"/>
       <c r="E413" s="48"/>
       <c r="F413" s="16"/>
       <c r="G413" s="16"/>
@@ -12752,7 +12749,7 @@
       <c r="A414" s="46"/>
       <c r="B414" s="21"/>
       <c r="C414" s="21"/>
-      <c r="D414" s="56"/>
+      <c r="D414" s="54"/>
       <c r="E414" s="48"/>
       <c r="F414" s="16"/>
       <c r="G414" s="16"/>
@@ -12781,7 +12778,7 @@
       <c r="A415" s="46"/>
       <c r="B415" s="21"/>
       <c r="C415" s="21"/>
-      <c r="D415" s="56"/>
+      <c r="D415" s="54"/>
       <c r="E415" s="48"/>
       <c r="F415" s="16"/>
       <c r="G415" s="16"/>
@@ -12810,7 +12807,7 @@
       <c r="A416" s="46"/>
       <c r="B416" s="21"/>
       <c r="C416" s="21"/>
-      <c r="D416" s="56"/>
+      <c r="D416" s="54"/>
       <c r="E416" s="48"/>
       <c r="F416" s="16"/>
       <c r="G416" s="16"/>
@@ -12839,7 +12836,7 @@
       <c r="A417" s="46"/>
       <c r="B417" s="21"/>
       <c r="C417" s="21"/>
-      <c r="D417" s="56"/>
+      <c r="D417" s="54"/>
       <c r="E417" s="48"/>
       <c r="F417" s="16"/>
       <c r="G417" s="16"/>
@@ -12868,7 +12865,7 @@
       <c r="A418" s="46"/>
       <c r="B418" s="21"/>
       <c r="C418" s="21"/>
-      <c r="D418" s="56"/>
+      <c r="D418" s="54"/>
       <c r="E418" s="48"/>
       <c r="F418" s="16"/>
       <c r="G418" s="16"/>
@@ -12897,7 +12894,7 @@
       <c r="A419" s="46"/>
       <c r="B419" s="21"/>
       <c r="C419" s="21"/>
-      <c r="D419" s="56"/>
+      <c r="D419" s="54"/>
       <c r="E419" s="48"/>
       <c r="F419" s="16"/>
       <c r="G419" s="16"/>
@@ -12926,7 +12923,7 @@
       <c r="A420" s="46"/>
       <c r="B420" s="21"/>
       <c r="C420" s="21"/>
-      <c r="D420" s="56"/>
+      <c r="D420" s="54"/>
       <c r="E420" s="48"/>
       <c r="F420" s="16"/>
       <c r="G420" s="16"/>
@@ -12955,7 +12952,7 @@
       <c r="A421" s="46"/>
       <c r="B421" s="21"/>
       <c r="C421" s="21"/>
-      <c r="D421" s="56"/>
+      <c r="D421" s="54"/>
       <c r="E421" s="48"/>
       <c r="F421" s="16"/>
       <c r="G421" s="16"/>
@@ -12984,7 +12981,7 @@
       <c r="A422" s="46"/>
       <c r="B422" s="21"/>
       <c r="C422" s="21"/>
-      <c r="D422" s="56"/>
+      <c r="D422" s="54"/>
       <c r="E422" s="48"/>
       <c r="F422" s="16"/>
       <c r="G422" s="16"/>
@@ -13013,7 +13010,7 @@
       <c r="A423" s="46"/>
       <c r="B423" s="21"/>
       <c r="C423" s="21"/>
-      <c r="D423" s="56"/>
+      <c r="D423" s="54"/>
       <c r="E423" s="48"/>
       <c r="F423" s="16"/>
       <c r="G423" s="16"/>
@@ -13042,7 +13039,7 @@
       <c r="A424" s="46"/>
       <c r="B424" s="21"/>
       <c r="C424" s="21"/>
-      <c r="D424" s="56"/>
+      <c r="D424" s="54"/>
       <c r="E424" s="48"/>
       <c r="F424" s="16"/>
       <c r="G424" s="16"/>
@@ -13071,7 +13068,7 @@
       <c r="A425" s="46"/>
       <c r="B425" s="21"/>
       <c r="C425" s="21"/>
-      <c r="D425" s="56"/>
+      <c r="D425" s="54"/>
       <c r="E425" s="48"/>
       <c r="F425" s="16"/>
       <c r="G425" s="16"/>
@@ -13100,7 +13097,7 @@
       <c r="A426" s="46"/>
       <c r="B426" s="21"/>
       <c r="C426" s="21"/>
-      <c r="D426" s="56"/>
+      <c r="D426" s="54"/>
       <c r="E426" s="48"/>
       <c r="F426" s="16"/>
       <c r="G426" s="16"/>
@@ -13129,7 +13126,7 @@
       <c r="A427" s="46"/>
       <c r="B427" s="21"/>
       <c r="C427" s="21"/>
-      <c r="D427" s="56"/>
+      <c r="D427" s="54"/>
       <c r="E427" s="48"/>
       <c r="F427" s="16"/>
       <c r="G427" s="16"/>
@@ -13158,7 +13155,7 @@
       <c r="A428" s="46"/>
       <c r="B428" s="21"/>
       <c r="C428" s="21"/>
-      <c r="D428" s="56"/>
+      <c r="D428" s="54"/>
       <c r="E428" s="48"/>
       <c r="F428" s="16"/>
       <c r="G428" s="16"/>
@@ -13187,7 +13184,7 @@
       <c r="A429" s="46"/>
       <c r="B429" s="21"/>
       <c r="C429" s="21"/>
-      <c r="D429" s="56"/>
+      <c r="D429" s="54"/>
       <c r="E429" s="48"/>
       <c r="F429" s="16"/>
       <c r="G429" s="16"/>
@@ -13216,7 +13213,7 @@
       <c r="A430" s="46"/>
       <c r="B430" s="21"/>
       <c r="C430" s="21"/>
-      <c r="D430" s="56"/>
+      <c r="D430" s="54"/>
       <c r="E430" s="48"/>
       <c r="F430" s="16"/>
       <c r="G430" s="16"/>
@@ -13245,7 +13242,7 @@
       <c r="A431" s="46"/>
       <c r="B431" s="21"/>
       <c r="C431" s="21"/>
-      <c r="D431" s="56"/>
+      <c r="D431" s="54"/>
       <c r="E431" s="48"/>
       <c r="F431" s="16"/>
       <c r="G431" s="16"/>
@@ -13274,7 +13271,7 @@
       <c r="A432" s="46"/>
       <c r="B432" s="21"/>
       <c r="C432" s="21"/>
-      <c r="D432" s="56"/>
+      <c r="D432" s="54"/>
       <c r="E432" s="48"/>
       <c r="F432" s="16"/>
       <c r="G432" s="16"/>
@@ -13303,7 +13300,7 @@
       <c r="A433" s="46"/>
       <c r="B433" s="21"/>
       <c r="C433" s="21"/>
-      <c r="D433" s="56"/>
+      <c r="D433" s="54"/>
       <c r="E433" s="48"/>
       <c r="F433" s="16"/>
       <c r="G433" s="16"/>
@@ -13332,7 +13329,7 @@
       <c r="A434" s="46"/>
       <c r="B434" s="21"/>
       <c r="C434" s="21"/>
-      <c r="D434" s="56"/>
+      <c r="D434" s="54"/>
       <c r="E434" s="48"/>
       <c r="F434" s="16"/>
       <c r="G434" s="16"/>
@@ -13361,7 +13358,7 @@
       <c r="A435" s="46"/>
       <c r="B435" s="21"/>
       <c r="C435" s="21"/>
-      <c r="D435" s="56"/>
+      <c r="D435" s="54"/>
       <c r="E435" s="48"/>
       <c r="F435" s="16"/>
       <c r="G435" s="16"/>
@@ -13390,7 +13387,7 @@
       <c r="A436" s="46"/>
       <c r="B436" s="21"/>
       <c r="C436" s="21"/>
-      <c r="D436" s="56"/>
+      <c r="D436" s="54"/>
       <c r="E436" s="48"/>
       <c r="F436" s="16"/>
       <c r="G436" s="16"/>
@@ -13419,7 +13416,7 @@
       <c r="A437" s="46"/>
       <c r="B437" s="21"/>
       <c r="C437" s="21"/>
-      <c r="D437" s="56"/>
+      <c r="D437" s="54"/>
       <c r="E437" s="48"/>
       <c r="F437" s="16"/>
       <c r="G437" s="16"/>
@@ -13448,7 +13445,7 @@
       <c r="A438" s="46"/>
       <c r="B438" s="21"/>
       <c r="C438" s="21"/>
-      <c r="D438" s="56"/>
+      <c r="D438" s="54"/>
       <c r="E438" s="48"/>
       <c r="F438" s="16"/>
       <c r="G438" s="16"/>
@@ -13477,7 +13474,7 @@
       <c r="A439" s="46"/>
       <c r="B439" s="21"/>
       <c r="C439" s="21"/>
-      <c r="D439" s="56"/>
+      <c r="D439" s="54"/>
       <c r="E439" s="48"/>
       <c r="F439" s="16"/>
       <c r="G439" s="16"/>
@@ -13506,7 +13503,7 @@
       <c r="A440" s="46"/>
       <c r="B440" s="21"/>
       <c r="C440" s="21"/>
-      <c r="D440" s="56"/>
+      <c r="D440" s="54"/>
       <c r="E440" s="48"/>
       <c r="F440" s="16"/>
       <c r="G440" s="16"/>
@@ -13535,7 +13532,7 @@
       <c r="A441" s="46"/>
       <c r="B441" s="21"/>
       <c r="C441" s="21"/>
-      <c r="D441" s="56"/>
+      <c r="D441" s="54"/>
       <c r="E441" s="48"/>
       <c r="F441" s="16"/>
       <c r="G441" s="16"/>
@@ -13564,7 +13561,7 @@
       <c r="A442" s="46"/>
       <c r="B442" s="21"/>
       <c r="C442" s="21"/>
-      <c r="D442" s="56"/>
+      <c r="D442" s="54"/>
       <c r="E442" s="48"/>
       <c r="F442" s="16"/>
       <c r="G442" s="16"/>
@@ -13593,7 +13590,7 @@
       <c r="A443" s="46"/>
       <c r="B443" s="21"/>
       <c r="C443" s="21"/>
-      <c r="D443" s="56"/>
+      <c r="D443" s="54"/>
       <c r="E443" s="48"/>
       <c r="F443" s="16"/>
       <c r="G443" s="16"/>
@@ -13622,7 +13619,7 @@
       <c r="A444" s="46"/>
       <c r="B444" s="21"/>
       <c r="C444" s="21"/>
-      <c r="D444" s="56"/>
+      <c r="D444" s="54"/>
       <c r="E444" s="48"/>
       <c r="F444" s="16"/>
       <c r="G444" s="16"/>
@@ -13651,7 +13648,7 @@
       <c r="A445" s="46"/>
       <c r="B445" s="21"/>
       <c r="C445" s="21"/>
-      <c r="D445" s="56"/>
+      <c r="D445" s="54"/>
       <c r="E445" s="48"/>
       <c r="F445" s="16"/>
       <c r="G445" s="16"/>
@@ -13680,7 +13677,7 @@
       <c r="A446" s="46"/>
       <c r="B446" s="21"/>
       <c r="C446" s="21"/>
-      <c r="D446" s="56"/>
+      <c r="D446" s="54"/>
       <c r="E446" s="48"/>
       <c r="F446" s="16"/>
       <c r="G446" s="16"/>
@@ -13709,7 +13706,7 @@
       <c r="A447" s="46"/>
       <c r="B447" s="21"/>
       <c r="C447" s="21"/>
-      <c r="D447" s="56"/>
+      <c r="D447" s="54"/>
       <c r="E447" s="48"/>
       <c r="F447" s="16"/>
       <c r="G447" s="16"/>
@@ -13738,7 +13735,7 @@
       <c r="A448" s="46"/>
       <c r="B448" s="21"/>
       <c r="C448" s="21"/>
-      <c r="D448" s="56"/>
+      <c r="D448" s="54"/>
       <c r="E448" s="48"/>
       <c r="F448" s="16"/>
       <c r="G448" s="16"/>
@@ -13767,7 +13764,7 @@
       <c r="A449" s="46"/>
       <c r="B449" s="21"/>
       <c r="C449" s="21"/>
-      <c r="D449" s="56"/>
+      <c r="D449" s="54"/>
       <c r="E449" s="48"/>
       <c r="F449" s="16"/>
       <c r="G449" s="16"/>
@@ -13796,7 +13793,7 @@
       <c r="A450" s="46"/>
       <c r="B450" s="21"/>
       <c r="C450" s="21"/>
-      <c r="D450" s="56"/>
+      <c r="D450" s="54"/>
       <c r="E450" s="48"/>
       <c r="F450" s="16"/>
       <c r="G450" s="16"/>
@@ -13825,7 +13822,7 @@
       <c r="A451" s="46"/>
       <c r="B451" s="21"/>
       <c r="C451" s="21"/>
-      <c r="D451" s="56"/>
+      <c r="D451" s="54"/>
       <c r="E451" s="48"/>
       <c r="F451" s="16"/>
       <c r="G451" s="16"/>
@@ -13854,7 +13851,7 @@
       <c r="A452" s="46"/>
       <c r="B452" s="21"/>
       <c r="C452" s="21"/>
-      <c r="D452" s="56"/>
+      <c r="D452" s="54"/>
       <c r="E452" s="48"/>
       <c r="F452" s="16"/>
       <c r="G452" s="16"/>
@@ -13883,7 +13880,7 @@
       <c r="A453" s="46"/>
       <c r="B453" s="21"/>
       <c r="C453" s="21"/>
-      <c r="D453" s="56"/>
+      <c r="D453" s="54"/>
       <c r="E453" s="48"/>
       <c r="F453" s="16"/>
       <c r="G453" s="16"/>
@@ -13912,7 +13909,7 @@
       <c r="A454" s="46"/>
       <c r="B454" s="21"/>
       <c r="C454" s="21"/>
-      <c r="D454" s="56"/>
+      <c r="D454" s="54"/>
       <c r="E454" s="48"/>
       <c r="F454" s="16"/>
       <c r="G454" s="16"/>
@@ -13941,7 +13938,7 @@
       <c r="A455" s="46"/>
       <c r="B455" s="21"/>
       <c r="C455" s="21"/>
-      <c r="D455" s="56"/>
+      <c r="D455" s="54"/>
       <c r="E455" s="48"/>
       <c r="F455" s="16"/>
       <c r="G455" s="16"/>
@@ -13970,7 +13967,7 @@
       <c r="A456" s="46"/>
       <c r="B456" s="21"/>
       <c r="C456" s="21"/>
-      <c r="D456" s="56"/>
+      <c r="D456" s="54"/>
       <c r="E456" s="48"/>
       <c r="F456" s="16"/>
       <c r="G456" s="16"/>
@@ -13999,7 +13996,7 @@
       <c r="A457" s="46"/>
       <c r="B457" s="21"/>
       <c r="C457" s="21"/>
-      <c r="D457" s="56"/>
+      <c r="D457" s="54"/>
       <c r="E457" s="48"/>
       <c r="F457" s="16"/>
       <c r="G457" s="16"/>
@@ -14028,7 +14025,7 @@
       <c r="A458" s="46"/>
       <c r="B458" s="21"/>
       <c r="C458" s="21"/>
-      <c r="D458" s="56"/>
+      <c r="D458" s="54"/>
       <c r="E458" s="48"/>
       <c r="F458" s="16"/>
       <c r="G458" s="16"/>
@@ -14057,7 +14054,7 @@
       <c r="A459" s="46"/>
       <c r="B459" s="21"/>
       <c r="C459" s="21"/>
-      <c r="D459" s="56"/>
+      <c r="D459" s="54"/>
       <c r="E459" s="48"/>
       <c r="F459" s="16"/>
       <c r="G459" s="16"/>
@@ -14086,7 +14083,7 @@
       <c r="A460" s="46"/>
       <c r="B460" s="21"/>
       <c r="C460" s="21"/>
-      <c r="D460" s="56"/>
+      <c r="D460" s="54"/>
       <c r="E460" s="48"/>
       <c r="F460" s="16"/>
       <c r="G460" s="16"/>
@@ -14115,7 +14112,7 @@
       <c r="A461" s="46"/>
       <c r="B461" s="21"/>
       <c r="C461" s="21"/>
-      <c r="D461" s="56"/>
+      <c r="D461" s="54"/>
       <c r="E461" s="48"/>
       <c r="F461" s="16"/>
       <c r="G461" s="16"/>
@@ -14144,7 +14141,7 @@
       <c r="A462" s="46"/>
       <c r="B462" s="21"/>
       <c r="C462" s="21"/>
-      <c r="D462" s="56"/>
+      <c r="D462" s="54"/>
       <c r="E462" s="48"/>
       <c r="F462" s="16"/>
       <c r="G462" s="16"/>
@@ -14173,7 +14170,7 @@
       <c r="A463" s="46"/>
       <c r="B463" s="21"/>
       <c r="C463" s="21"/>
-      <c r="D463" s="56"/>
+      <c r="D463" s="54"/>
       <c r="E463" s="48"/>
       <c r="F463" s="16"/>
       <c r="G463" s="16"/>
@@ -14202,7 +14199,7 @@
       <c r="A464" s="46"/>
       <c r="B464" s="21"/>
       <c r="C464" s="21"/>
-      <c r="D464" s="56"/>
+      <c r="D464" s="54"/>
       <c r="E464" s="48"/>
       <c r="F464" s="16"/>
       <c r="G464" s="16"/>
@@ -14231,7 +14228,7 @@
       <c r="A465" s="46"/>
       <c r="B465" s="21"/>
       <c r="C465" s="21"/>
-      <c r="D465" s="56"/>
+      <c r="D465" s="54"/>
       <c r="E465" s="48"/>
       <c r="F465" s="16"/>
       <c r="G465" s="16"/>
@@ -14260,7 +14257,7 @@
       <c r="A466" s="46"/>
       <c r="B466" s="21"/>
       <c r="C466" s="21"/>
-      <c r="D466" s="56"/>
+      <c r="D466" s="54"/>
       <c r="E466" s="48"/>
       <c r="F466" s="16"/>
       <c r="G466" s="16"/>
@@ -14289,7 +14286,7 @@
       <c r="A467" s="46"/>
       <c r="B467" s="21"/>
       <c r="C467" s="21"/>
-      <c r="D467" s="56"/>
+      <c r="D467" s="54"/>
       <c r="E467" s="48"/>
       <c r="F467" s="16"/>
       <c r="G467" s="16"/>
@@ -14318,7 +14315,7 @@
       <c r="A468" s="46"/>
       <c r="B468" s="21"/>
       <c r="C468" s="21"/>
-      <c r="D468" s="56"/>
+      <c r="D468" s="54"/>
       <c r="E468" s="48"/>
       <c r="F468" s="16"/>
       <c r="G468" s="16"/>
@@ -14347,7 +14344,7 @@
       <c r="A469" s="46"/>
       <c r="B469" s="21"/>
       <c r="C469" s="21"/>
-      <c r="D469" s="56"/>
+      <c r="D469" s="54"/>
       <c r="E469" s="48"/>
       <c r="F469" s="16"/>
       <c r="G469" s="16"/>
@@ -14376,7 +14373,7 @@
       <c r="A470" s="46"/>
       <c r="B470" s="21"/>
       <c r="C470" s="21"/>
-      <c r="D470" s="56"/>
+      <c r="D470" s="54"/>
       <c r="E470" s="48"/>
       <c r="F470" s="16"/>
       <c r="G470" s="16"/>
@@ -14405,7 +14402,7 @@
       <c r="A471" s="46"/>
       <c r="B471" s="21"/>
       <c r="C471" s="21"/>
-      <c r="D471" s="56"/>
+      <c r="D471" s="54"/>
       <c r="E471" s="48"/>
       <c r="F471" s="16"/>
       <c r="G471" s="16"/>
@@ -14434,7 +14431,7 @@
       <c r="A472" s="46"/>
       <c r="B472" s="21"/>
       <c r="C472" s="21"/>
-      <c r="D472" s="56"/>
+      <c r="D472" s="54"/>
       <c r="E472" s="48"/>
       <c r="F472" s="16"/>
       <c r="G472" s="16"/>
@@ -14463,7 +14460,7 @@
       <c r="A473" s="46"/>
       <c r="B473" s="21"/>
       <c r="C473" s="21"/>
-      <c r="D473" s="56"/>
+      <c r="D473" s="54"/>
       <c r="E473" s="48"/>
       <c r="F473" s="16"/>
       <c r="G473" s="16"/>
@@ -14492,7 +14489,7 @@
       <c r="A474" s="46"/>
       <c r="B474" s="21"/>
       <c r="C474" s="21"/>
-      <c r="D474" s="56"/>
+      <c r="D474" s="54"/>
       <c r="E474" s="48"/>
       <c r="F474" s="16"/>
       <c r="G474" s="16"/>
@@ -14521,7 +14518,7 @@
       <c r="A475" s="46"/>
       <c r="B475" s="21"/>
       <c r="C475" s="21"/>
-      <c r="D475" s="56"/>
+      <c r="D475" s="54"/>
       <c r="E475" s="48"/>
       <c r="F475" s="16"/>
       <c r="G475" s="16"/>
@@ -14550,7 +14547,7 @@
       <c r="A476" s="46"/>
       <c r="B476" s="21"/>
       <c r="C476" s="21"/>
-      <c r="D476" s="56"/>
+      <c r="D476" s="54"/>
       <c r="E476" s="48"/>
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
@@ -14579,7 +14576,7 @@
       <c r="A477" s="46"/>
       <c r="B477" s="21"/>
       <c r="C477" s="21"/>
-      <c r="D477" s="56"/>
+      <c r="D477" s="54"/>
       <c r="E477" s="48"/>
       <c r="F477" s="16"/>
       <c r="G477" s="16"/>
@@ -14608,7 +14605,7 @@
       <c r="A478" s="46"/>
       <c r="B478" s="21"/>
       <c r="C478" s="21"/>
-      <c r="D478" s="56"/>
+      <c r="D478" s="54"/>
       <c r="E478" s="48"/>
       <c r="F478" s="16"/>
       <c r="G478" s="16"/>
@@ -14637,7 +14634,7 @@
       <c r="A479" s="46"/>
       <c r="B479" s="21"/>
       <c r="C479" s="21"/>
-      <c r="D479" s="56"/>
+      <c r="D479" s="54"/>
       <c r="E479" s="48"/>
       <c r="F479" s="16"/>
       <c r="G479" s="16"/>
@@ -14666,7 +14663,7 @@
       <c r="A480" s="46"/>
       <c r="B480" s="21"/>
       <c r="C480" s="21"/>
-      <c r="D480" s="56"/>
+      <c r="D480" s="54"/>
       <c r="E480" s="48"/>
       <c r="F480" s="16"/>
       <c r="G480" s="16"/>
@@ -14695,7 +14692,7 @@
       <c r="A481" s="46"/>
       <c r="B481" s="21"/>
       <c r="C481" s="21"/>
-      <c r="D481" s="56"/>
+      <c r="D481" s="54"/>
       <c r="E481" s="48"/>
       <c r="F481" s="16"/>
       <c r="G481" s="16"/>
@@ -14724,7 +14721,7 @@
       <c r="A482" s="46"/>
       <c r="B482" s="21"/>
       <c r="C482" s="21"/>
-      <c r="D482" s="56"/>
+      <c r="D482" s="54"/>
       <c r="E482" s="48"/>
       <c r="F482" s="16"/>
       <c r="G482" s="16"/>
@@ -14753,7 +14750,7 @@
       <c r="A483" s="46"/>
       <c r="B483" s="21"/>
       <c r="C483" s="21"/>
-      <c r="D483" s="56"/>
+      <c r="D483" s="54"/>
       <c r="E483" s="48"/>
       <c r="F483" s="16"/>
       <c r="G483" s="16"/>
@@ -14782,7 +14779,7 @@
       <c r="A484" s="46"/>
       <c r="B484" s="21"/>
       <c r="C484" s="21"/>
-      <c r="D484" s="56"/>
+      <c r="D484" s="54"/>
       <c r="E484" s="48"/>
       <c r="F484" s="16"/>
       <c r="G484" s="16"/>
@@ -14811,7 +14808,7 @@
       <c r="A485" s="46"/>
       <c r="B485" s="21"/>
       <c r="C485" s="21"/>
-      <c r="D485" s="56"/>
+      <c r="D485" s="54"/>
       <c r="E485" s="48"/>
       <c r="F485" s="16"/>
       <c r="G485" s="16"/>
@@ -14840,7 +14837,7 @@
       <c r="A486" s="46"/>
       <c r="B486" s="21"/>
       <c r="C486" s="21"/>
-      <c r="D486" s="56"/>
+      <c r="D486" s="54"/>
       <c r="E486" s="48"/>
       <c r="F486" s="16"/>
       <c r="G486" s="16"/>
@@ -14869,7 +14866,7 @@
       <c r="A487" s="46"/>
       <c r="B487" s="21"/>
       <c r="C487" s="21"/>
-      <c r="D487" s="56"/>
+      <c r="D487" s="54"/>
       <c r="E487" s="48"/>
       <c r="F487" s="16"/>
       <c r="G487" s="16"/>
@@ -14898,7 +14895,7 @@
       <c r="A488" s="46"/>
       <c r="B488" s="21"/>
       <c r="C488" s="21"/>
-      <c r="D488" s="56"/>
+      <c r="D488" s="54"/>
       <c r="E488" s="48"/>
       <c r="F488" s="16"/>
       <c r="G488" s="16"/>
@@ -14927,7 +14924,7 @@
       <c r="A489" s="46"/>
       <c r="B489" s="21"/>
       <c r="C489" s="21"/>
-      <c r="D489" s="56"/>
+      <c r="D489" s="54"/>
       <c r="E489" s="48"/>
       <c r="F489" s="16"/>
       <c r="G489" s="16"/>
@@ -14956,7 +14953,7 @@
       <c r="A490" s="46"/>
       <c r="B490" s="21"/>
       <c r="C490" s="21"/>
-      <c r="D490" s="56"/>
+      <c r="D490" s="54"/>
       <c r="E490" s="48"/>
       <c r="F490" s="16"/>
       <c r="G490" s="16"/>
@@ -14985,7 +14982,7 @@
       <c r="A491" s="46"/>
       <c r="B491" s="21"/>
       <c r="C491" s="21"/>
-      <c r="D491" s="56"/>
+      <c r="D491" s="54"/>
       <c r="E491" s="48"/>
       <c r="F491" s="16"/>
       <c r="G491" s="16"/>
@@ -15014,7 +15011,7 @@
       <c r="A492" s="46"/>
       <c r="B492" s="21"/>
       <c r="C492" s="21"/>
-      <c r="D492" s="56"/>
+      <c r="D492" s="54"/>
       <c r="E492" s="48"/>
       <c r="F492" s="16"/>
       <c r="G492" s="16"/>
@@ -15043,7 +15040,7 @@
       <c r="A493" s="46"/>
       <c r="B493" s="21"/>
       <c r="C493" s="21"/>
-      <c r="D493" s="56"/>
+      <c r="D493" s="54"/>
       <c r="E493" s="48"/>
       <c r="F493" s="16"/>
       <c r="G493" s="16"/>
@@ -15072,7 +15069,7 @@
       <c r="A494" s="46"/>
       <c r="B494" s="21"/>
       <c r="C494" s="21"/>
-      <c r="D494" s="56"/>
+      <c r="D494" s="54"/>
       <c r="E494" s="48"/>
       <c r="F494" s="16"/>
       <c r="G494" s="16"/>
@@ -15101,7 +15098,7 @@
       <c r="A495" s="46"/>
       <c r="B495" s="21"/>
       <c r="C495" s="21"/>
-      <c r="D495" s="56"/>
+      <c r="D495" s="54"/>
       <c r="E495" s="48"/>
       <c r="F495" s="16"/>
       <c r="G495" s="16"/>
@@ -15130,7 +15127,7 @@
       <c r="A496" s="46"/>
       <c r="B496" s="21"/>
       <c r="C496" s="21"/>
-      <c r="D496" s="56"/>
+      <c r="D496" s="54"/>
       <c r="E496" s="48"/>
       <c r="F496" s="16"/>
       <c r="G496" s="16"/>
@@ -15159,7 +15156,7 @@
       <c r="A497" s="46"/>
       <c r="B497" s="21"/>
       <c r="C497" s="21"/>
-      <c r="D497" s="56"/>
+      <c r="D497" s="54"/>
       <c r="E497" s="48"/>
       <c r="F497" s="16"/>
       <c r="G497" s="16"/>
@@ -15188,7 +15185,7 @@
       <c r="A498" s="46"/>
       <c r="B498" s="21"/>
       <c r="C498" s="21"/>
-      <c r="D498" s="56"/>
+      <c r="D498" s="54"/>
       <c r="E498" s="48"/>
       <c r="F498" s="16"/>
       <c r="G498" s="16"/>
@@ -15217,7 +15214,7 @@
       <c r="A499" s="46"/>
       <c r="B499" s="21"/>
       <c r="C499" s="21"/>
-      <c r="D499" s="56"/>
+      <c r="D499" s="54"/>
       <c r="E499" s="48"/>
       <c r="F499" s="16"/>
       <c r="G499" s="16"/>
@@ -15246,7 +15243,7 @@
       <c r="A500" s="46"/>
       <c r="B500" s="21"/>
       <c r="C500" s="21"/>
-      <c r="D500" s="56"/>
+      <c r="D500" s="54"/>
       <c r="E500" s="48"/>
       <c r="F500" s="16"/>
       <c r="G500" s="16"/>
@@ -15275,7 +15272,7 @@
       <c r="A501" s="46"/>
       <c r="B501" s="21"/>
       <c r="C501" s="21"/>
-      <c r="D501" s="56"/>
+      <c r="D501" s="54"/>
       <c r="E501" s="48"/>
       <c r="F501" s="16"/>
       <c r="G501" s="16"/>
@@ -15304,7 +15301,7 @@
       <c r="A502" s="46"/>
       <c r="B502" s="21"/>
       <c r="C502" s="21"/>
-      <c r="D502" s="56"/>
+      <c r="D502" s="54"/>
       <c r="E502" s="48"/>
       <c r="F502" s="16"/>
       <c r="G502" s="16"/>
@@ -15333,7 +15330,7 @@
       <c r="A503" s="46"/>
       <c r="B503" s="21"/>
       <c r="C503" s="21"/>
-      <c r="D503" s="56"/>
+      <c r="D503" s="54"/>
       <c r="E503" s="48"/>
       <c r="F503" s="16"/>
       <c r="G503" s="16"/>
@@ -15362,7 +15359,7 @@
       <c r="A504" s="46"/>
       <c r="B504" s="21"/>
       <c r="C504" s="21"/>
-      <c r="D504" s="56"/>
+      <c r="D504" s="54"/>
       <c r="E504" s="48"/>
       <c r="F504" s="16"/>
       <c r="G504" s="16"/>
@@ -15391,7 +15388,7 @@
       <c r="A505" s="46"/>
       <c r="B505" s="21"/>
       <c r="C505" s="21"/>
-      <c r="D505" s="56"/>
+      <c r="D505" s="54"/>
       <c r="E505" s="48"/>
       <c r="F505" s="16"/>
       <c r="G505" s="16"/>
@@ -15420,7 +15417,7 @@
       <c r="A506" s="46"/>
       <c r="B506" s="21"/>
       <c r="C506" s="21"/>
-      <c r="D506" s="56"/>
+      <c r="D506" s="54"/>
       <c r="E506" s="48"/>
       <c r="F506" s="16"/>
       <c r="G506" s="16"/>
@@ -15449,7 +15446,7 @@
       <c r="A507" s="46"/>
       <c r="B507" s="21"/>
       <c r="C507" s="21"/>
-      <c r="D507" s="56"/>
+      <c r="D507" s="54"/>
       <c r="E507" s="48"/>
       <c r="F507" s="16"/>
       <c r="G507" s="16"/>
@@ -15478,7 +15475,7 @@
       <c r="A508" s="46"/>
       <c r="B508" s="21"/>
       <c r="C508" s="21"/>
-      <c r="D508" s="56"/>
+      <c r="D508" s="54"/>
       <c r="E508" s="48"/>
       <c r="F508" s="16"/>
       <c r="G508" s="16"/>
@@ -15507,7 +15504,7 @@
       <c r="A509" s="46"/>
       <c r="B509" s="21"/>
       <c r="C509" s="21"/>
-      <c r="D509" s="56"/>
+      <c r="D509" s="54"/>
       <c r="E509" s="48"/>
       <c r="F509" s="16"/>
       <c r="G509" s="16"/>
@@ -15536,7 +15533,7 @@
       <c r="A510" s="46"/>
       <c r="B510" s="21"/>
       <c r="C510" s="21"/>
-      <c r="D510" s="56"/>
+      <c r="D510" s="54"/>
       <c r="E510" s="48"/>
       <c r="F510" s="16"/>
       <c r="G510" s="16"/>
@@ -15565,7 +15562,7 @@
       <c r="A511" s="46"/>
       <c r="B511" s="21"/>
       <c r="C511" s="21"/>
-      <c r="D511" s="56"/>
+      <c r="D511" s="54"/>
       <c r="E511" s="48"/>
       <c r="F511" s="16"/>
       <c r="G511" s="16"/>
@@ -15594,7 +15591,7 @@
       <c r="A512" s="46"/>
       <c r="B512" s="21"/>
       <c r="C512" s="21"/>
-      <c r="D512" s="56"/>
+      <c r="D512" s="54"/>
       <c r="E512" s="48"/>
       <c r="F512" s="16"/>
       <c r="G512" s="16"/>
@@ -15623,7 +15620,7 @@
       <c r="A513" s="46"/>
       <c r="B513" s="21"/>
       <c r="C513" s="21"/>
-      <c r="D513" s="56"/>
+      <c r="D513" s="54"/>
       <c r="E513" s="48"/>
       <c r="F513" s="16"/>
       <c r="G513" s="16"/>
@@ -15652,7 +15649,7 @@
       <c r="A514" s="46"/>
       <c r="B514" s="21"/>
       <c r="C514" s="21"/>
-      <c r="D514" s="56"/>
+      <c r="D514" s="54"/>
       <c r="E514" s="48"/>
       <c r="F514" s="16"/>
       <c r="G514" s="16"/>
@@ -15681,7 +15678,7 @@
       <c r="A515" s="46"/>
       <c r="B515" s="21"/>
       <c r="C515" s="21"/>
-      <c r="D515" s="56"/>
+      <c r="D515" s="54"/>
       <c r="E515" s="48"/>
       <c r="F515" s="16"/>
       <c r="G515" s="16"/>
@@ -15710,7 +15707,7 @@
       <c r="A516" s="46"/>
       <c r="B516" s="21"/>
       <c r="C516" s="21"/>
-      <c r="D516" s="56"/>
+      <c r="D516" s="54"/>
       <c r="E516" s="48"/>
       <c r="F516" s="16"/>
       <c r="G516" s="16"/>
@@ -15739,7 +15736,7 @@
       <c r="A517" s="46"/>
       <c r="B517" s="21"/>
       <c r="C517" s="21"/>
-      <c r="D517" s="56"/>
+      <c r="D517" s="54"/>
       <c r="E517" s="48"/>
       <c r="F517" s="16"/>
       <c r="G517" s="16"/>
@@ -15768,7 +15765,7 @@
       <c r="A518" s="46"/>
       <c r="B518" s="21"/>
       <c r="C518" s="21"/>
-      <c r="D518" s="56"/>
+      <c r="D518" s="54"/>
       <c r="E518" s="48"/>
       <c r="F518" s="16"/>
       <c r="G518" s="16"/>
@@ -15797,7 +15794,7 @@
       <c r="A519" s="46"/>
       <c r="B519" s="21"/>
       <c r="C519" s="21"/>
-      <c r="D519" s="56"/>
+      <c r="D519" s="54"/>
       <c r="E519" s="48"/>
       <c r="F519" s="16"/>
       <c r="G519" s="16"/>
@@ -15826,7 +15823,7 @@
       <c r="A520" s="46"/>
       <c r="B520" s="21"/>
       <c r="C520" s="21"/>
-      <c r="D520" s="56"/>
+      <c r="D520" s="54"/>
       <c r="E520" s="48"/>
       <c r="F520" s="16"/>
       <c r="G520" s="16"/>
@@ -15855,7 +15852,7 @@
       <c r="A521" s="46"/>
       <c r="B521" s="21"/>
       <c r="C521" s="21"/>
-      <c r="D521" s="56"/>
+      <c r="D521" s="54"/>
       <c r="E521" s="48"/>
       <c r="F521" s="16"/>
       <c r="G521" s="16"/>
@@ -15884,7 +15881,7 @@
       <c r="A522" s="46"/>
       <c r="B522" s="21"/>
       <c r="C522" s="21"/>
-      <c r="D522" s="56"/>
+      <c r="D522" s="54"/>
       <c r="E522" s="48"/>
       <c r="F522" s="16"/>
       <c r="G522" s="16"/>
@@ -15913,7 +15910,7 @@
       <c r="A523" s="46"/>
       <c r="B523" s="21"/>
       <c r="C523" s="21"/>
-      <c r="D523" s="56"/>
+      <c r="D523" s="54"/>
       <c r="E523" s="48"/>
       <c r="F523" s="16"/>
       <c r="G523" s="16"/>
@@ -15942,7 +15939,7 @@
       <c r="A524" s="46"/>
       <c r="B524" s="21"/>
       <c r="C524" s="21"/>
-      <c r="D524" s="56"/>
+      <c r="D524" s="54"/>
       <c r="E524" s="48"/>
       <c r="F524" s="16"/>
       <c r="G524" s="16"/>
@@ -15971,7 +15968,7 @@
       <c r="A525" s="46"/>
       <c r="B525" s="21"/>
       <c r="C525" s="21"/>
-      <c r="D525" s="56"/>
+      <c r="D525" s="54"/>
       <c r="E525" s="48"/>
       <c r="F525" s="16"/>
       <c r="G525" s="16"/>
@@ -16000,7 +15997,7 @@
       <c r="A526" s="46"/>
       <c r="B526" s="21"/>
       <c r="C526" s="21"/>
-      <c r="D526" s="56"/>
+      <c r="D526" s="54"/>
       <c r="E526" s="48"/>
       <c r="F526" s="16"/>
       <c r="G526" s="16"/>
@@ -16029,7 +16026,7 @@
       <c r="A527" s="46"/>
       <c r="B527" s="21"/>
       <c r="C527" s="21"/>
-      <c r="D527" s="56"/>
+      <c r="D527" s="54"/>
       <c r="E527" s="48"/>
       <c r="F527" s="16"/>
       <c r="G527" s="16"/>
@@ -16058,7 +16055,7 @@
       <c r="A528" s="46"/>
       <c r="B528" s="21"/>
       <c r="C528" s="21"/>
-      <c r="D528" s="56"/>
+      <c r="D528" s="54"/>
       <c r="E528" s="48"/>
       <c r="F528" s="16"/>
       <c r="G528" s="16"/>
@@ -16087,7 +16084,7 @@
       <c r="A529" s="46"/>
       <c r="B529" s="21"/>
       <c r="C529" s="21"/>
-      <c r="D529" s="56"/>
+      <c r="D529" s="54"/>
       <c r="E529" s="48"/>
       <c r="F529" s="16"/>
       <c r="G529" s="16"/>
@@ -16116,7 +16113,7 @@
       <c r="A530" s="46"/>
       <c r="B530" s="21"/>
       <c r="C530" s="21"/>
-      <c r="D530" s="56"/>
+      <c r="D530" s="54"/>
       <c r="E530" s="48"/>
       <c r="F530" s="16"/>
       <c r="G530" s="16"/>
@@ -16145,7 +16142,7 @@
       <c r="A531" s="46"/>
       <c r="B531" s="21"/>
       <c r="C531" s="21"/>
-      <c r="D531" s="56"/>
+      <c r="D531" s="54"/>
       <c r="E531" s="48"/>
       <c r="F531" s="16"/>
       <c r="G531" s="16"/>
@@ -16174,7 +16171,7 @@
       <c r="A532" s="46"/>
       <c r="B532" s="21"/>
       <c r="C532" s="21"/>
-      <c r="D532" s="56"/>
+      <c r="D532" s="54"/>
       <c r="E532" s="48"/>
       <c r="F532" s="16"/>
       <c r="G532" s="16"/>
@@ -16203,7 +16200,7 @@
       <c r="A533" s="46"/>
       <c r="B533" s="21"/>
       <c r="C533" s="21"/>
-      <c r="D533" s="56"/>
+      <c r="D533" s="54"/>
       <c r="E533" s="48"/>
       <c r="F533" s="16"/>
       <c r="G533" s="16"/>
@@ -16232,7 +16229,7 @@
       <c r="A534" s="46"/>
       <c r="B534" s="21"/>
       <c r="C534" s="21"/>
-      <c r="D534" s="56"/>
+      <c r="D534" s="54"/>
       <c r="E534" s="48"/>
       <c r="F534" s="16"/>
       <c r="G534" s="16"/>
@@ -16261,7 +16258,7 @@
       <c r="A535" s="46"/>
       <c r="B535" s="21"/>
       <c r="C535" s="21"/>
-      <c r="D535" s="56"/>
+      <c r="D535" s="54"/>
       <c r="E535" s="48"/>
       <c r="F535" s="16"/>
       <c r="G535" s="16"/>
@@ -16290,7 +16287,7 @@
       <c r="A536" s="46"/>
       <c r="B536" s="21"/>
       <c r="C536" s="21"/>
-      <c r="D536" s="56"/>
+      <c r="D536" s="54"/>
       <c r="E536" s="48"/>
       <c r="F536" s="16"/>
       <c r="G536" s="16"/>
@@ -16319,7 +16316,7 @@
       <c r="A537" s="46"/>
       <c r="B537" s="21"/>
       <c r="C537" s="21"/>
-      <c r="D537" s="56"/>
+      <c r="D537" s="54"/>
       <c r="E537" s="48"/>
       <c r="F537" s="16"/>
       <c r="G537" s="16"/>
@@ -16348,7 +16345,7 @@
       <c r="A538" s="46"/>
       <c r="B538" s="21"/>
       <c r="C538" s="21"/>
-      <c r="D538" s="56"/>
+      <c r="D538" s="54"/>
       <c r="E538" s="48"/>
       <c r="F538" s="16"/>
       <c r="G538" s="16"/>
@@ -16377,7 +16374,7 @@
       <c r="A539" s="46"/>
       <c r="B539" s="21"/>
       <c r="C539" s="21"/>
-      <c r="D539" s="56"/>
+      <c r="D539" s="54"/>
       <c r="E539" s="48"/>
       <c r="F539" s="16"/>
       <c r="G539" s="16"/>
@@ -16406,7 +16403,7 @@
       <c r="A540" s="46"/>
       <c r="B540" s="21"/>
       <c r="C540" s="21"/>
-      <c r="D540" s="56"/>
+      <c r="D540" s="54"/>
       <c r="E540" s="48"/>
       <c r="F540" s="16"/>
       <c r="G540" s="16"/>
@@ -16435,7 +16432,7 @@
       <c r="A541" s="46"/>
       <c r="B541" s="21"/>
       <c r="C541" s="21"/>
-      <c r="D541" s="56"/>
+      <c r="D541" s="54"/>
       <c r="E541" s="48"/>
       <c r="F541" s="16"/>
       <c r="G541" s="16"/>
@@ -16464,7 +16461,7 @@
       <c r="A542" s="46"/>
       <c r="B542" s="21"/>
       <c r="C542" s="21"/>
-      <c r="D542" s="56"/>
+      <c r="D542" s="54"/>
       <c r="E542" s="48"/>
       <c r="F542" s="16"/>
       <c r="G542" s="16"/>
@@ -16493,7 +16490,7 @@
       <c r="A543" s="46"/>
       <c r="B543" s="21"/>
       <c r="C543" s="21"/>
-      <c r="D543" s="56"/>
+      <c r="D543" s="54"/>
       <c r="E543" s="48"/>
       <c r="F543" s="16"/>
       <c r="G543" s="16"/>
@@ -16522,7 +16519,7 @@
       <c r="A544" s="46"/>
       <c r="B544" s="21"/>
       <c r="C544" s="21"/>
-      <c r="D544" s="56"/>
+      <c r="D544" s="54"/>
       <c r="E544" s="48"/>
       <c r="F544" s="16"/>
       <c r="G544" s="16"/>
@@ -16551,7 +16548,7 @@
       <c r="A545" s="46"/>
       <c r="B545" s="21"/>
       <c r="C545" s="21"/>
-      <c r="D545" s="56"/>
+      <c r="D545" s="54"/>
       <c r="E545" s="48"/>
       <c r="F545" s="16"/>
       <c r="G545" s="16"/>
@@ -16580,7 +16577,7 @@
       <c r="A546" s="46"/>
       <c r="B546" s="21"/>
       <c r="C546" s="21"/>
-      <c r="D546" s="56"/>
+      <c r="D546" s="54"/>
       <c r="E546" s="48"/>
       <c r="F546" s="16"/>
       <c r="G546" s="16"/>
@@ -16609,7 +16606,7 @@
       <c r="A547" s="46"/>
       <c r="B547" s="21"/>
       <c r="C547" s="21"/>
-      <c r="D547" s="56"/>
+      <c r="D547" s="54"/>
       <c r="E547" s="48"/>
       <c r="F547" s="16"/>
       <c r="G547" s="16"/>
@@ -16638,7 +16635,7 @@
       <c r="A548" s="46"/>
       <c r="B548" s="21"/>
       <c r="C548" s="21"/>
-      <c r="D548" s="56"/>
+      <c r="D548" s="54"/>
       <c r="E548" s="48"/>
       <c r="F548" s="16"/>
       <c r="G548" s="16"/>
@@ -16667,7 +16664,7 @@
       <c r="A549" s="46"/>
       <c r="B549" s="21"/>
       <c r="C549" s="21"/>
-      <c r="D549" s="56"/>
+      <c r="D549" s="54"/>
       <c r="E549" s="48"/>
       <c r="F549" s="16"/>
       <c r="G549" s="16"/>
@@ -16696,7 +16693,7 @@
       <c r="A550" s="46"/>
       <c r="B550" s="21"/>
       <c r="C550" s="21"/>
-      <c r="D550" s="56"/>
+      <c r="D550" s="54"/>
       <c r="E550" s="48"/>
       <c r="F550" s="16"/>
       <c r="G550" s="16"/>
@@ -16725,7 +16722,7 @@
       <c r="A551" s="46"/>
       <c r="B551" s="21"/>
       <c r="C551" s="21"/>
-      <c r="D551" s="56"/>
+      <c r="D551" s="54"/>
       <c r="E551" s="48"/>
       <c r="F551" s="16"/>
       <c r="G551" s="16"/>
@@ -16754,7 +16751,7 @@
       <c r="A552" s="46"/>
       <c r="B552" s="21"/>
       <c r="C552" s="21"/>
-      <c r="D552" s="56"/>
+      <c r="D552" s="54"/>
       <c r="E552" s="48"/>
       <c r="F552" s="16"/>
       <c r="G552" s="16"/>
@@ -16783,7 +16780,7 @@
       <c r="A553" s="46"/>
       <c r="B553" s="21"/>
       <c r="C553" s="21"/>
-      <c r="D553" s="56"/>
+      <c r="D553" s="54"/>
       <c r="E553" s="48"/>
       <c r="F553" s="16"/>
       <c r="G553" s="16"/>
@@ -16812,7 +16809,7 @@
       <c r="A554" s="46"/>
       <c r="B554" s="21"/>
       <c r="C554" s="21"/>
-      <c r="D554" s="56"/>
+      <c r="D554" s="54"/>
       <c r="E554" s="48"/>
       <c r="F554" s="16"/>
       <c r="G554" s="16"/>
@@ -16841,7 +16838,7 @@
       <c r="A555" s="46"/>
       <c r="B555" s="21"/>
       <c r="C555" s="21"/>
-      <c r="D555" s="56"/>
+      <c r="D555" s="54"/>
       <c r="E555" s="48"/>
       <c r="F555" s="16"/>
       <c r="G555" s="16"/>
@@ -16870,7 +16867,7 @@
       <c r="A556" s="46"/>
       <c r="B556" s="21"/>
       <c r="C556" s="21"/>
-      <c r="D556" s="56"/>
+      <c r="D556" s="54"/>
       <c r="E556" s="48"/>
       <c r="F556" s="16"/>
       <c r="G556" s="16"/>
@@ -16899,7 +16896,7 @@
       <c r="A557" s="46"/>
       <c r="B557" s="21"/>
       <c r="C557" s="21"/>
-      <c r="D557" s="56"/>
+      <c r="D557" s="54"/>
       <c r="E557" s="48"/>
       <c r="F557" s="16"/>
       <c r="G557" s="16"/>
@@ -16928,7 +16925,7 @@
       <c r="A558" s="46"/>
       <c r="B558" s="21"/>
       <c r="C558" s="21"/>
-      <c r="D558" s="56"/>
+      <c r="D558" s="54"/>
       <c r="E558" s="48"/>
       <c r="F558" s="16"/>
       <c r="G558" s="16"/>
@@ -26197,11 +26194,6 @@
     <row r="1000" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
@@ -26209,6 +26201,11 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="E10:G13"/>
     <mergeCell ref="H3:I9"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
